--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -555,7 +555,7 @@
     <t>images/product/food/麦克鸡块.jpg</t>
   </si>
   <si>
-    <t>Chicken / flour / tomato sauce</t>
+    <t>Chicken/flour/tomato sauce</t>
   </si>
   <si>
     <t>鸡肉/面粉/蕃茄酱</t>
@@ -570,7 +570,7 @@
     <t>images/product/food/鳕鱼球.png</t>
   </si>
   <si>
-    <t>COD / flour / tomato sauce</t>
+    <t>COD/flour/tomato sauce</t>
   </si>
   <si>
     <t>鳕鱼/面粉/蕃茄酱</t>
@@ -591,7 +591,7 @@
     <t>images/product/food/鸡米花.jpg</t>
   </si>
   <si>
-    <t>Chicken / flour / spices / ketchup</t>
+    <t>Chicken/flour/spices/ketchup</t>
   </si>
   <si>
     <t>鸡肉/面粉/香料/蕃茄酱</t>
@@ -729,7 +729,7 @@
     <t>咸水鸭</t>
   </si>
   <si>
-    <t>images/product/cocktail/saltied duck.png</t>
+    <t>images/product/cocktail/saltied_duck.png</t>
   </si>
   <si>
     <t>Salty</t>
@@ -967,7 +967,7 @@
     <t>古典</t>
   </si>
   <si>
-    <t>Maker’s mark  Whiskey /Rittenhouse rye /Angostura bitters/Orange bitters</t>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye/Angostura bitters/Orange bitters</t>
   </si>
   <si>
     <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
@@ -1000,7 +1000,7 @@
     <t>教父</t>
   </si>
   <si>
-    <t>Talisker 10Y /Johnnie walker/Disaronno</t>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
   </si>
   <si>
     <t xml:space="preserve">泰斯卡10年/黑方/帝萨诺利口酒
@@ -2528,7 +2528,7 @@
     <t>soft drink</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Miss_molly.png</t>
+    <t>images/product/Mocktail/Miss_molly.png</t>
   </si>
   <si>
     <t>Jasmine tea/Fresh guava juice/lemon juice</t>
@@ -2546,7 +2546,7 @@
     <t>嘿！</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Hey_！.png</t>
+    <t>images/product/Mocktail/Hey_！.png</t>
   </si>
   <si>
     <t>Oolong tea/Lemon juice/Apple juice/Brown sugar</t>
@@ -2564,7 +2564,7 @@
     <t>怦然心动</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Flipped.png</t>
+    <t>images/product/Mocktail/Flipped.png</t>
   </si>
   <si>
     <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
@@ -2582,7 +2582,7 @@
     <t>植物乐园</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Plant_Paradise.png</t>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
   </si>
   <si>
     <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
@@ -2600,7 +2600,7 @@
     <t>丑小鸭</t>
   </si>
   <si>
-    <t>images/product/Cocktail/Ugly_duckling.png</t>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
   </si>
   <si>
     <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
@@ -3844,7 +3844,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4557,8 +4557,8 @@
   <sheetPr/>
   <dimension ref="A1:R188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="K96" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="23820" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901">
   <si>
     <t>id</t>
   </si>
@@ -279,7 +279,7 @@
     <t>images/menu/menu_dessert.png</t>
   </si>
   <si>
-    <t>41</t>
+    <t>4A</t>
   </si>
   <si>
     <t>法式甜点</t>
@@ -1086,6 +1086,9 @@
   <si>
     <t xml:space="preserve">卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒
 </t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>Side car</t>
@@ -2728,11 +2731,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2784,14 +2787,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2806,16 +2801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2830,7 +2817,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2838,8 +2825,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2860,11 +2855,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2877,45 +2894,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2936,13 +2939,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,109 +3023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3074,19 +3047,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3098,19 +3107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,16 +3182,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3202,13 +3214,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3228,17 +3244,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3257,144 +3269,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3843,8 +3846,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4557,8 +4560,8 @@
   <sheetPr/>
   <dimension ref="A1:R188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="K96" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -6735,13 +6738,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>256</v>
@@ -6769,10 +6772,10 @@
         <v>200</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>115</v>
@@ -6790,22 +6793,22 @@
         <v>170</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H43" s="15" t="b">
         <v>0</v>
@@ -6833,25 +6836,25 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H44" s="15" t="b">
         <v>0</v>
@@ -6879,25 +6882,25 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H45" s="15" t="b">
         <v>0</v>
@@ -6925,25 +6928,25 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H46" s="15" t="b">
         <v>0</v>
@@ -6971,25 +6974,25 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H47" s="15" t="b">
         <v>0</v>
@@ -7017,25 +7020,25 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="E48" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H48" s="15" t="b">
         <v>0</v>
@@ -7063,25 +7066,25 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H49" s="15" t="b">
         <v>0</v>
@@ -7109,25 +7112,25 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H50" s="15" t="b">
         <v>0</v>
@@ -7158,22 +7161,22 @@
         <v>313</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H51" s="15" t="b">
         <v>0</v>
@@ -7201,25 +7204,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H52" s="15" t="b">
         <v>0</v>
@@ -7250,22 +7253,22 @@
         <v>119</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H53" s="15" t="b">
         <v>0</v>
@@ -7293,25 +7296,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>108</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H54" s="15" t="b">
         <v>0</v>
@@ -7339,13 +7342,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>34</v>
@@ -7357,7 +7360,7 @@
         <v>860</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H55" s="15" t="b">
         <v>0</v>
@@ -7385,13 +7388,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>34</v>
@@ -7403,7 +7406,7 @@
         <v>960</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H56" s="15" t="b">
         <v>0</v>
@@ -7434,10 +7437,10 @@
         <v>126</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>34</v>
@@ -7449,7 +7452,7 @@
         <v>860</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H57" s="15" t="b">
         <v>0</v>
@@ -7477,13 +7480,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>34</v>
@@ -7495,7 +7498,7 @@
         <v>1080</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H58" s="15" t="b">
         <v>0</v>
@@ -7526,10 +7529,10 @@
         <v>132</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>34</v>
@@ -7541,7 +7544,7 @@
         <v>1180</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H59" s="15" t="b">
         <v>0</v>
@@ -7569,13 +7572,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>34</v>
@@ -7587,7 +7590,7 @@
         <v>1080</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H60" s="15" t="b">
         <v>0</v>
@@ -7615,13 +7618,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>34</v>
@@ -7633,7 +7636,7 @@
         <v>1100</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H61" s="15" t="b">
         <v>0</v>
@@ -7661,16 +7664,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>108</v>
@@ -7679,7 +7682,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H62" s="15" t="b">
         <v>0</v>
@@ -7707,13 +7710,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>34</v>
@@ -7725,7 +7728,7 @@
         <v>1100</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H63" s="15" t="b">
         <v>0</v>
@@ -7753,13 +7756,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>34</v>
@@ -7771,7 +7774,7 @@
         <v>1180</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H64" s="15" t="b">
         <v>0</v>
@@ -7799,13 +7802,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>34</v>
@@ -7817,7 +7820,7 @@
         <v>880</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H65" s="15" t="b">
         <v>0</v>
@@ -7845,13 +7848,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>34</v>
@@ -7863,7 +7866,7 @@
         <v>1280</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H66" s="15" t="b">
         <v>0</v>
@@ -7891,16 +7894,16 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>108</v>
@@ -7909,7 +7912,7 @@
         <v>880</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H67" s="15" t="b">
         <v>0</v>
@@ -7937,13 +7940,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
@@ -7955,7 +7958,7 @@
         <v>1100</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H68" s="15" t="b">
         <v>0</v>
@@ -7986,10 +7989,10 @@
         <v>109</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>37</v>
@@ -8001,7 +8004,7 @@
         <v>2650</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H69" s="15" t="b">
         <v>0</v>
@@ -8029,13 +8032,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>37</v>
@@ -8047,7 +8050,7 @@
         <v>880</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H70" s="15" t="b">
         <v>0</v>
@@ -8078,10 +8081,10 @@
         <v>276</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>37</v>
@@ -8093,7 +8096,7 @@
         <v>1050</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H71" s="15" t="b">
         <v>0</v>
@@ -8121,13 +8124,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>37</v>
@@ -8139,7 +8142,7 @@
         <v>880</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H72" s="15" t="b">
         <v>0</v>
@@ -8167,13 +8170,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
@@ -8185,7 +8188,7 @@
         <v>1700</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H73" s="15" t="b">
         <v>0</v>
@@ -8213,13 +8216,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>40</v>
@@ -8231,7 +8234,7 @@
         <v>880</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H74" s="15" t="b">
         <v>0</v>
@@ -8259,13 +8262,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>40</v>
@@ -8277,7 +8280,7 @@
         <v>1400</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H75" s="15" t="b">
         <v>0</v>
@@ -8305,13 +8308,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>40</v>
@@ -8323,7 +8326,7 @@
         <v>1800</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H76" s="15" t="b">
         <v>0</v>
@@ -8351,13 +8354,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>40</v>
@@ -8369,7 +8372,7 @@
         <v>1080</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H77" s="15" t="b">
         <v>0</v>
@@ -8397,13 +8400,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>40</v>
@@ -8415,7 +8418,7 @@
         <v>1550</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H78" s="15" t="b">
         <v>0</v>
@@ -8446,10 +8449,10 @@
         <v>286</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>40</v>
@@ -8461,7 +8464,7 @@
         <v>2050</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H79" s="15" t="b">
         <v>0</v>
@@ -8489,13 +8492,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>40</v>
@@ -8507,7 +8510,7 @@
         <v>2850</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H80" s="15" t="b">
         <v>0</v>
@@ -8538,10 +8541,10 @@
         <v>265</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>40</v>
@@ -8553,7 +8556,7 @@
         <v>900</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H81" s="15" t="b">
         <v>0</v>
@@ -8581,13 +8584,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>40</v>
@@ -8599,7 +8602,7 @@
         <v>1650</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H82" s="15" t="b">
         <v>0</v>
@@ -8627,13 +8630,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>40</v>
@@ -8645,7 +8648,7 @@
         <v>2350</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H83" s="15" t="b">
         <v>0</v>
@@ -8673,13 +8676,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>40</v>
@@ -8691,7 +8694,7 @@
         <v>2180</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H84" s="15" t="b">
         <v>0</v>
@@ -8719,13 +8722,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>40</v>
@@ -8737,7 +8740,7 @@
         <v>4980</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H85" s="15" t="b">
         <v>0</v>
@@ -8765,13 +8768,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>40</v>
@@ -8780,10 +8783,10 @@
         <v>108</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
@@ -8811,13 +8814,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -8829,7 +8832,7 @@
         <v>2080</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -8857,13 +8860,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -8875,7 +8878,7 @@
         <v>4880</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -8906,10 +8909,10 @@
         <v>156</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -8918,10 +8921,10 @@
         <v>108</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
@@ -8949,13 +8952,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -8967,7 +8970,7 @@
         <v>2180</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -8998,10 +9001,10 @@
         <v>310</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>40</v>
@@ -9010,10 +9013,10 @@
         <v>108</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
@@ -9041,13 +9044,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>40</v>
@@ -9056,10 +9059,10 @@
         <v>108</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
@@ -9087,13 +9090,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>40</v>
@@ -9105,7 +9108,7 @@
         <v>2080</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -9133,13 +9136,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>40</v>
@@ -9148,10 +9151,10 @@
         <v>108</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
@@ -9179,16 +9182,16 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>108</v>
@@ -9197,7 +9200,7 @@
         <v>1080</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -9225,13 +9228,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>43</v>
@@ -9243,7 +9246,7 @@
         <v>980</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -9271,13 +9274,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>43</v>
@@ -9289,7 +9292,7 @@
         <v>1180</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -9317,13 +9320,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>43</v>
@@ -9335,7 +9338,7 @@
         <v>1280</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -9366,10 +9369,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>43</v>
@@ -9381,7 +9384,7 @@
         <v>2400</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9409,13 +9412,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>43</v>
@@ -9427,7 +9430,7 @@
         <v>3880</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9455,13 +9458,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>43</v>
@@ -9473,7 +9476,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9501,13 +9504,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>43</v>
@@ -9519,7 +9522,7 @@
         <v>1180</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9547,13 +9550,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>43</v>
@@ -9565,7 +9568,7 @@
         <v>880</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9593,13 +9596,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>43</v>
@@ -9611,7 +9614,7 @@
         <v>1480</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9639,13 +9642,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>43</v>
@@ -9657,7 +9660,7 @@
         <v>3680</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -9685,13 +9688,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>43</v>
@@ -9703,7 +9706,7 @@
         <v>1180</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -9731,13 +9734,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>43</v>
@@ -9749,7 +9752,7 @@
         <v>2380</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -9777,13 +9780,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>46</v>
@@ -9795,7 +9798,7 @@
         <v>1380</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -9823,13 +9826,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>46</v>
@@ -9841,7 +9844,7 @@
         <v>1180</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H109" s="15" t="b">
         <v>0</v>
@@ -9869,13 +9872,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>46</v>
@@ -9887,7 +9890,7 @@
         <v>1680</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -9915,13 +9918,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>46</v>
@@ -9933,7 +9936,7 @@
         <v>2180</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H111" s="15" t="b">
         <v>0</v>
@@ -9961,13 +9964,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>46</v>
@@ -9979,7 +9982,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -10007,13 +10010,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
@@ -10025,7 +10028,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -10053,13 +10056,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>46</v>
@@ -10071,7 +10074,7 @@
         <v>1080</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H114" s="15" t="b">
         <v>0</v>
@@ -10099,13 +10102,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>46</v>
@@ -10117,7 +10120,7 @@
         <v>1880</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -10145,13 +10148,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>46</v>
@@ -10163,7 +10166,7 @@
         <v>2680</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -10191,13 +10194,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>46</v>
@@ -10209,7 +10212,7 @@
         <v>1380</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -10237,13 +10240,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>46</v>
@@ -10255,7 +10258,7 @@
         <v>1480</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -10283,13 +10286,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>49</v>
@@ -10301,7 +10304,7 @@
         <v>1580</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -10329,13 +10332,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>49</v>
@@ -10347,7 +10350,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -10375,13 +10378,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>49</v>
@@ -10393,7 +10396,7 @@
         <v>1380</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10421,13 +10424,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>49</v>
@@ -10439,7 +10442,7 @@
         <v>1580</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10467,13 +10470,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>49</v>
@@ -10485,7 +10488,7 @@
         <v>880</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10513,13 +10516,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>49</v>
@@ -10531,7 +10534,7 @@
         <v>2380</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10559,13 +10562,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>52</v>
@@ -10577,7 +10580,7 @@
         <v>880</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10605,13 +10608,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>52</v>
@@ -10623,7 +10626,7 @@
         <v>780</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -10651,13 +10654,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>52</v>
@@ -10669,7 +10672,7 @@
         <v>780</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -10697,13 +10700,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>52</v>
@@ -10715,7 +10718,7 @@
         <v>880</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -10743,13 +10746,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>52</v>
@@ -10761,7 +10764,7 @@
         <v>1280</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -10789,13 +10792,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>52</v>
@@ -10807,7 +10810,7 @@
         <v>1780</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -10835,13 +10838,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>52</v>
@@ -10853,7 +10856,7 @@
         <v>1180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -10881,13 +10884,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>52</v>
@@ -10899,7 +10902,7 @@
         <v>1280</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -10927,13 +10930,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>52</v>
@@ -10945,7 +10948,7 @@
         <v>1780</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -10973,13 +10976,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>52</v>
@@ -10991,7 +10994,7 @@
         <v>2480</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -11019,13 +11022,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>52</v>
@@ -11037,7 +11040,7 @@
         <v>1180</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H135" s="15" t="b">
         <v>0</v>
@@ -11065,13 +11068,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>52</v>
@@ -11083,7 +11086,7 @@
         <v>980</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -11111,13 +11114,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>52</v>
@@ -11129,7 +11132,7 @@
         <v>1650</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -11157,13 +11160,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>52</v>
@@ -11175,7 +11178,7 @@
         <v>1100</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -11203,13 +11206,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>52</v>
@@ -11221,7 +11224,7 @@
         <v>980</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -11249,13 +11252,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>52</v>
@@ -11267,7 +11270,7 @@
         <v>1080</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H140" s="15" t="b">
         <v>0</v>
@@ -11295,13 +11298,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>52</v>
@@ -11313,7 +11316,7 @@
         <v>1680</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -11341,13 +11344,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>52</v>
@@ -11359,7 +11362,7 @@
         <v>980</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -11387,13 +11390,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>52</v>
@@ -11405,7 +11408,7 @@
         <v>1080</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11433,13 +11436,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>52</v>
@@ -11451,7 +11454,7 @@
         <v>1480</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11479,13 +11482,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>52</v>
@@ -11497,7 +11500,7 @@
         <v>3480</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11525,13 +11528,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>52</v>
@@ -11543,7 +11546,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11571,13 +11574,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>52</v>
@@ -11589,7 +11592,7 @@
         <v>1680</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11617,13 +11620,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>52</v>
@@ -11635,7 +11638,7 @@
         <v>2680</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -11663,13 +11666,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>52</v>
@@ -11681,7 +11684,7 @@
         <v>3680</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -11709,13 +11712,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>52</v>
@@ -11727,7 +11730,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H150" s="15" t="b">
         <v>0</v>
@@ -11755,13 +11758,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>55</v>
@@ -11770,10 +11773,10 @@
         <v>108</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -11801,13 +11804,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>55</v>
@@ -11816,10 +11819,10 @@
         <v>108</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -11847,13 +11850,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>55</v>
@@ -11862,10 +11865,10 @@
         <v>108</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H153" s="15" t="b">
         <v>0</v>
@@ -11893,13 +11896,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>55</v>
@@ -11908,10 +11911,10 @@
         <v>108</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H154" s="15" t="b">
         <v>0</v>
@@ -11939,13 +11942,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>55</v>
@@ -11954,10 +11957,10 @@
         <v>108</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H155" s="15" t="b">
         <v>0</v>
@@ -11985,13 +11988,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D156" s="25" t="s">
         <v>58</v>
@@ -12003,7 +12006,7 @@
         <v>880</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H156" s="15" t="b">
         <v>0</v>
@@ -12031,13 +12034,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>58</v>
@@ -12049,7 +12052,7 @@
         <v>1280</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H157" s="15" t="b">
         <v>0</v>
@@ -12077,13 +12080,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D158" s="25" t="s">
         <v>58</v>
@@ -12095,7 +12098,7 @@
         <v>2580</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H158" s="15" t="b">
         <v>0</v>
@@ -12123,13 +12126,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D159" s="25" t="s">
         <v>58</v>
@@ -12141,7 +12144,7 @@
         <v>3680</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H159" s="15" t="b">
         <v>0</v>
@@ -12169,13 +12172,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D160" s="25" t="s">
         <v>58</v>
@@ -12187,7 +12190,7 @@
         <v>3880</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H160" s="15" t="b">
         <v>0</v>
@@ -12215,13 +12218,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>61</v>
@@ -12230,10 +12233,10 @@
         <v>108</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H161" s="15" t="b">
         <v>0</v>
@@ -12261,13 +12264,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>61</v>
@@ -12276,10 +12279,10 @@
         <v>108</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H162" s="15" t="b">
         <v>0</v>
@@ -12307,13 +12310,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>61</v>
@@ -12322,10 +12325,10 @@
         <v>108</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H163" s="15" t="b">
         <v>0</v>
@@ -12353,13 +12356,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>64</v>
@@ -12368,10 +12371,10 @@
         <v>108</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H164" s="15" t="b">
         <v>0</v>
@@ -12399,13 +12402,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>64</v>
@@ -12414,10 +12417,10 @@
         <v>108</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H165" s="15" t="b">
         <v>0</v>
@@ -12445,13 +12448,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>64</v>
@@ -12460,10 +12463,10 @@
         <v>108</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H166" s="15" t="b">
         <v>0</v>
@@ -12491,13 +12494,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>64</v>
@@ -12506,10 +12509,10 @@
         <v>108</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H167" s="15" t="b">
         <v>0</v>
@@ -12537,13 +12540,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>64</v>
@@ -12552,10 +12555,10 @@
         <v>108</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H168" s="15" t="b">
         <v>0</v>
@@ -12583,13 +12586,13 @@
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>67</v>
@@ -12598,10 +12601,10 @@
         <v>108</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H169" s="15" t="b">
         <v>0</v>
@@ -12629,13 +12632,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>67</v>
@@ -12644,10 +12647,10 @@
         <v>108</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H170" s="15" t="b">
         <v>0</v>
@@ -12675,13 +12678,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>67</v>
@@ -12690,10 +12693,10 @@
         <v>108</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H171" s="15" t="b">
         <v>0</v>
@@ -12721,13 +12724,13 @@
     </row>
     <row r="172" customHeight="1" spans="1:18">
       <c r="A172" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>67</v>
@@ -12736,10 +12739,10 @@
         <v>108</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H172" s="15" t="b">
         <v>0</v>
@@ -12767,13 +12770,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>73</v>
@@ -12785,7 +12788,7 @@
         <v>126</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H173" s="15" t="b">
         <v>0</v>
@@ -12794,19 +12797,19 @@
         <v>0</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L173" s="9" t="s">
         <v>200</v>
       </c>
       <c r="M173" s="19" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N173" s="20" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O173" s="9" t="s">
         <v>115</v>
@@ -12821,13 +12824,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>73</v>
@@ -12839,7 +12842,7 @@
         <v>126</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H174" s="15" t="b">
         <v>0</v>
@@ -12848,19 +12851,19 @@
         <v>0</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L174" s="9" t="s">
         <v>200</v>
       </c>
       <c r="M174" s="19" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N174" s="20" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O174" s="9" t="s">
         <v>115</v>
@@ -12875,13 +12878,13 @@
     </row>
     <row r="175" customHeight="1" spans="1:18">
       <c r="A175" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>73</v>
@@ -12893,7 +12896,7 @@
         <v>126</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H175" s="15" t="b">
         <v>0</v>
@@ -12902,19 +12905,19 @@
         <v>0</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L175" s="9" t="s">
         <v>200</v>
       </c>
       <c r="M175" s="19" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N175" s="20" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O175" s="9" t="s">
         <v>115</v>
@@ -12929,13 +12932,13 @@
     </row>
     <row r="176" customHeight="1" spans="1:18">
       <c r="A176" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>73</v>
@@ -12947,7 +12950,7 @@
         <v>126</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H176" s="15" t="b">
         <v>0</v>
@@ -12956,19 +12959,19 @@
         <v>0</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L176" s="9" t="s">
         <v>200</v>
       </c>
       <c r="M176" s="19" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N176" s="20" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O176" s="9" t="s">
         <v>115</v>
@@ -12983,13 +12986,13 @@
     </row>
     <row r="177" customHeight="1" spans="1:18">
       <c r="A177" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D177" s="25" t="s">
         <v>73</v>
@@ -13001,7 +13004,7 @@
         <v>126</v>
       </c>
       <c r="G177" s="25" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H177" s="22" t="b">
         <v>0</v>
@@ -13010,19 +13013,19 @@
         <v>0</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L177" s="25" t="s">
         <v>200</v>
       </c>
       <c r="M177" s="19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N177" s="20" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="O177" s="25" t="s">
         <v>115</v>
@@ -13037,13 +13040,13 @@
     </row>
     <row r="178" customHeight="1" spans="1:18">
       <c r="A178" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>76</v>
@@ -13055,7 +13058,7 @@
         <v>215</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H178" s="22" t="b">
         <v>0</v>
@@ -13064,7 +13067,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
@@ -13083,13 +13086,13 @@
     </row>
     <row r="179" customHeight="1" spans="1:18">
       <c r="A179" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>76</v>
@@ -13101,7 +13104,7 @@
         <v>256</v>
       </c>
       <c r="G179" s="25" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H179" s="22" t="b">
         <v>0</v>
@@ -13110,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
@@ -13129,13 +13132,13 @@
     </row>
     <row r="180" customHeight="1" spans="1:18">
       <c r="A180" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D180" s="9" t="s">
         <v>80</v>
@@ -13147,7 +13150,7 @@
         <v>215</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H180" s="22" t="b">
         <v>0</v>
@@ -13156,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
@@ -13175,13 +13178,13 @@
     </row>
     <row r="181" customHeight="1" spans="1:18">
       <c r="A181" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>80</v>
@@ -13193,7 +13196,7 @@
         <v>215</v>
       </c>
       <c r="G181" s="25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H181" s="22" t="b">
         <v>0</v>
@@ -13202,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
@@ -13221,13 +13224,13 @@
     </row>
     <row r="182" customHeight="1" spans="1:18">
       <c r="A182" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>80</v>
@@ -13239,7 +13242,7 @@
         <v>215</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H182" s="22" t="b">
         <v>0</v>
@@ -13248,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
@@ -13267,13 +13270,13 @@
     </row>
     <row r="183" customHeight="1" spans="1:18">
       <c r="A183" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>80</v>
@@ -13285,7 +13288,7 @@
         <v>255</v>
       </c>
       <c r="G183" s="25" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H183" s="22" t="b">
         <v>0</v>
@@ -13294,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="25" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
@@ -13313,13 +13316,13 @@
     </row>
     <row r="184" customHeight="1" spans="1:18">
       <c r="A184" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>87</v>
@@ -13340,11 +13343,11 @@
         <v>0</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K184" s="9"/>
       <c r="L184" s="32" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M184" s="19"/>
       <c r="N184" s="20"/>
@@ -13361,13 +13364,13 @@
     </row>
     <row r="185" customHeight="1" spans="1:18">
       <c r="A185" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>87</v>
@@ -13388,7 +13391,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K185" s="9"/>
       <c r="L185" s="9"/>
@@ -13407,13 +13410,13 @@
     </row>
     <row r="186" customHeight="1" spans="1:18">
       <c r="A186" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B186" s="32" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>87</v>
@@ -13434,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
@@ -13453,13 +13456,13 @@
     </row>
     <row r="187" customHeight="1" spans="1:18">
       <c r="A187" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>87</v>
@@ -13480,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
@@ -13499,13 +13502,13 @@
     </row>
     <row r="188" customHeight="1" spans="1:18">
       <c r="A188" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>87</v>
@@ -13526,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -3846,8 +3846,8 @@
   <sheetPr/>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4560,8 +4560,8 @@
   <sheetPr/>
   <dimension ref="A1:R188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810">
   <si>
     <t>id</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>可做不辣</t>
   </si>
   <si>
     <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
@@ -2291,181 +2288,163 @@
     <t>151</t>
   </si>
   <si>
-    <t>Hey !</t>
-  </si>
-  <si>
-    <t>嘿！</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Hey_！.png</t>
-  </si>
-  <si>
-    <t>Oolong tea/Lemon juice/Apple juice/Brown sugar</t>
-  </si>
-  <si>
-    <t>乌龙茶/柠檬汁/苹果汁/红糖蜜</t>
+    <t>Flipped</t>
+  </si>
+  <si>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Flipped.png</t>
+  </si>
+  <si>
+    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
+  </si>
+  <si>
+    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
   </si>
   <si>
     <t>152</t>
   </si>
   <si>
-    <t>Flipped</t>
-  </si>
-  <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Flipped.png</t>
-  </si>
-  <si>
-    <t>Orange juice/Lemon juice/Passion fruit syrup/Fresh passion fruit</t>
-  </si>
-  <si>
-    <t>橙汁/柠檬汁/百香果糖浆/新鲜百香果</t>
+    <t>Plant Paradise</t>
+  </si>
+  <si>
+    <t>植物乐园</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Plant_Paradise.png</t>
+  </si>
+  <si>
+    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
+  </si>
+  <si>
+    <t>可尔必思/椰汁/椰奶/苏打</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
-    <t>Plant Paradise</t>
-  </si>
-  <si>
-    <t>植物乐园</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Plant_Paradise.png</t>
-  </si>
-  <si>
-    <t>カルピス/Coconut juice/Coconut milk/Topsoda</t>
-  </si>
-  <si>
-    <t>可尔必思/椰汁/椰奶/苏打</t>
+    <t>Ugly duckling</t>
+  </si>
+  <si>
+    <t>丑小鸭</t>
+  </si>
+  <si>
+    <t>images/product/Mocktail/Ugly_duckling.png</t>
+  </si>
+  <si>
+    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
+  </si>
+  <si>
+    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>Ugly duckling</t>
-  </si>
-  <si>
-    <t>丑小鸭</t>
-  </si>
-  <si>
-    <t>images/product/Mocktail/Ugly_duckling.png</t>
-  </si>
-  <si>
-    <t>Litchi puree/Lemon juice/Apple juice/Jasmine tea/Coconut juice/Pomegranate syrup</t>
-  </si>
-  <si>
-    <t>荔枝果泥/柠檬汁/苹果汁/椰汁/红石榴糖浆</t>
+    <t>Hot milk</t>
+  </si>
+  <si>
+    <t>热牛奶</t>
+  </si>
+  <si>
+    <t>20/Bottle</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
-    <t>Hot milk</t>
-  </si>
-  <si>
-    <t>热牛奶</t>
-  </si>
-  <si>
-    <t>20/Bottle</t>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>热可可</t>
+  </si>
+  <si>
+    <t>22/Bottle</t>
   </si>
   <si>
     <t>156</t>
   </si>
   <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>热可可</t>
-  </si>
-  <si>
-    <t>22/Bottle</t>
+    <t>Soda water</t>
+  </si>
+  <si>
+    <t>苏打水</t>
+  </si>
+  <si>
+    <t>30/Bottle</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
-    <t>Soda water</t>
-  </si>
-  <si>
-    <t>苏打水</t>
-  </si>
-  <si>
-    <t>30/Bottle</t>
+    <t>Tonic water</t>
+  </si>
+  <si>
+    <t>汤力水</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>Tonic water</t>
-  </si>
-  <si>
-    <t>汤力水</t>
+    <t>Coca cola</t>
+  </si>
+  <si>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>Coca cola</t>
-  </si>
-  <si>
-    <t>可口可乐</t>
+    <t>Red bull energy drink</t>
+  </si>
+  <si>
+    <t>红牛碳酸型</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>Red bull energy drink</t>
-  </si>
-  <si>
-    <t>红牛碳酸型</t>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>歌剧院</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>巧克力味,橙子味</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>Opera</t>
-  </si>
-  <si>
-    <t>歌剧院</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>巧克力味,橙子味</t>
+    <t>Valrhono Caramel Chocklate Ban</t>
+  </si>
+  <si>
+    <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
     <t>162</t>
   </si>
   <si>
-    <t>Valrhono Caramel Chocklate Ban</t>
-  </si>
-  <si>
-    <t>法芙娜焦糖巧克力</t>
+    <t>Pumpkin Cheese Cake</t>
+  </si>
+  <si>
+    <t>南瓜芝士蛋糕</t>
   </si>
   <si>
     <t>163</t>
   </si>
   <si>
-    <t>Pumpkin Cheese Cake</t>
-  </si>
-  <si>
-    <t>南瓜芝士蛋糕</t>
+    <t>Tarte au fromage framboise</t>
+  </si>
+  <si>
+    <t>覆盆子芝士塔</t>
   </si>
   <si>
     <t>164</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
-  </si>
-  <si>
-    <t>165</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4179,10 +4158,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4451,14 +4430,12 @@
       <c r="K5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>89</v>
@@ -4473,13 +4450,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>92</v>
@@ -4488,10 +4465,10 @@
         <v>93</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="H6" s="15" t="b">
         <v>0</v>
@@ -4503,14 +4480,14 @@
         <v>96</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
@@ -4519,13 +4496,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>92</v>
@@ -4534,10 +4511,10 @@
         <v>93</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="H7" s="15" t="b">
         <v>0</v>
@@ -4549,14 +4526,14 @@
         <v>96</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>100</v>
@@ -4571,13 +4548,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>92</v>
@@ -4586,10 +4563,10 @@
         <v>93</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="15" t="b">
         <v>0</v>
@@ -4601,14 +4578,14 @@
         <v>96</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L8" s="18"/>
       <c r="M8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>100</v>
@@ -4623,13 +4600,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>92</v>
@@ -4653,14 +4630,14 @@
         <v>96</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>100</v>
@@ -4675,13 +4652,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>92</v>
@@ -4690,10 +4667,10 @@
         <v>93</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="15" t="b">
         <v>0</v>
@@ -4705,14 +4682,14 @@
         <v>96</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>100</v>
@@ -4727,13 +4704,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>92</v>
@@ -4742,10 +4719,10 @@
         <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H11" s="15" t="b">
         <v>0</v>
@@ -4757,14 +4734,14 @@
         <v>96</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>100</v>
@@ -4782,10 +4759,10 @@
         <v>92</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>92</v>
@@ -4794,10 +4771,10 @@
         <v>93</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H12" s="15" t="b">
         <v>0</v>
@@ -4809,14 +4786,14 @@
         <v>96</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>100</v>
@@ -4831,13 +4808,13 @@
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>92</v>
@@ -4849,7 +4826,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H13" s="15" t="b">
         <v>0</v>
@@ -4861,14 +4838,14 @@
         <v>96</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>100</v>
@@ -4883,26 +4860,26 @@
     </row>
     <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>183</v>
-      </c>
       <c r="H14" s="15" t="b">
         <v>0</v>
       </c>
@@ -4910,25 +4887,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="M14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="N14" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N14" s="20" t="s">
-        <v>188</v>
-      </c>
       <c r="O14" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="15" t="b">
         <v>1</v>
@@ -4937,52 +4914,52 @@
     </row>
     <row r="15" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="M15" s="19" t="s">
+      <c r="N15" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="N15" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="O15" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="15" t="b">
         <v>1</v>
@@ -4991,52 +4968,52 @@
     </row>
     <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" s="19" t="s">
+      <c r="N16" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="O16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="Q16" s="15" t="b">
         <v>1</v>
@@ -5045,52 +5022,52 @@
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="20" t="s">
-        <v>208</v>
-      </c>
       <c r="O17" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="15" t="b">
         <v>1</v>
@@ -5099,52 +5076,52 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="L18" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="M18" s="19" t="s">
+      <c r="N18" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="20" t="s">
-        <v>214</v>
-      </c>
       <c r="O18" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q18" s="15" t="b">
         <v>1</v>
@@ -5153,52 +5130,52 @@
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="Q19" s="15" t="b">
         <v>1</v>
@@ -5207,52 +5184,52 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="M20" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="N20" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="O20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="Q20" s="15" t="s">
         <v>101</v>
@@ -5261,52 +5238,52 @@
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="N21" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="O21" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="15" t="b">
         <v>1</v>
@@ -5315,52 +5292,52 @@
     </row>
     <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="H22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="L22" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="M22" s="19" t="s">
+      <c r="N22" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="Q22" s="15" t="b">
         <v>1</v>
@@ -5369,46 +5346,46 @@
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="M23" s="19" t="s">
+      <c r="N23" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>247</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>100</v>
@@ -5423,25 +5400,25 @@
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="G24" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>0</v>
@@ -5450,23 +5427,23 @@
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M24" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="N24" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="N24" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="O24" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q24" s="15" t="s">
         <v>101</v>
@@ -5475,25 +5452,25 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" s="15" t="b">
         <v>0</v>
@@ -5502,23 +5479,23 @@
         <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="N25" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="N25" s="20" t="s">
-        <v>259</v>
-      </c>
       <c r="O25" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="15" t="b">
         <v>1</v>
@@ -5527,26 +5504,26 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="H26" s="15" t="b">
         <v>0</v>
       </c>
@@ -5554,23 +5531,23 @@
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M26" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="N26" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="N26" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="O26" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="15" t="b">
         <v>1</v>
@@ -5579,25 +5556,25 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="D27" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H27" s="15" t="b">
         <v>0</v>
@@ -5606,23 +5583,23 @@
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M27" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="N27" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="N27" s="20" t="s">
-        <v>270</v>
-      </c>
       <c r="O27" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="15" t="b">
         <v>1</v>
@@ -5631,25 +5608,25 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>274</v>
-      </c>
       <c r="G28" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H28" s="15" t="b">
         <v>0</v>
@@ -5658,23 +5635,23 @@
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M28" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="N28" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="O28" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="15" t="b">
         <v>1</v>
@@ -5683,25 +5660,25 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="15" t="b">
         <v>0</v>
@@ -5710,17 +5687,17 @@
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="N29" s="20" t="s">
         <v>280</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>281</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>100</v>
@@ -5735,25 +5712,25 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H30" s="15" t="b">
         <v>0</v>
@@ -5762,23 +5739,23 @@
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M30" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="N30" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="N30" s="20" t="s">
-        <v>286</v>
-      </c>
       <c r="O30" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="15" t="b">
         <v>1</v>
@@ -5787,26 +5764,26 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
       </c>
@@ -5814,23 +5791,23 @@
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M31" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="N31" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="N31" s="20" t="s">
-        <v>291</v>
-      </c>
       <c r="O31" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="15" t="b">
         <v>1</v>
@@ -5842,23 +5819,23 @@
         <v>58</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
       </c>
@@ -5866,23 +5843,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M32" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="N32" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="N32" s="20" t="s">
-        <v>296</v>
-      </c>
       <c r="O32" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -5894,22 +5871,22 @@
         <v>61</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="G33" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H33" s="15" t="b">
         <v>0</v>
@@ -5918,23 +5895,23 @@
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M33" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="N33" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="O33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="Q33" s="15" t="b">
         <v>1</v>
@@ -5946,22 +5923,22 @@
         <v>65</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H34" s="15" t="b">
         <v>0</v>
@@ -5970,23 +5947,23 @@
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M34" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="N34" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="N34" s="20" t="s">
-        <v>306</v>
-      </c>
       <c r="O34" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -5995,26 +5972,26 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>310</v>
-      </c>
       <c r="H35" s="15" t="b">
         <v>0</v>
       </c>
@@ -6022,23 +5999,23 @@
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M35" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="N35" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="N35" s="20" t="s">
-        <v>312</v>
-      </c>
       <c r="O35" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="15" t="b">
         <v>1</v>
@@ -6047,25 +6024,25 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="D36" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H36" s="15" t="b">
         <v>0</v>
@@ -6074,23 +6051,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M36" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N36" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="N36" s="20" t="s">
-        <v>317</v>
-      </c>
       <c r="O36" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="15" t="b">
         <v>1</v>
@@ -6099,25 +6076,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="D37" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H37" s="15" t="b">
         <v>0</v>
@@ -6126,23 +6103,23 @@
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M37" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="N37" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="N37" s="20" t="s">
-        <v>322</v>
-      </c>
       <c r="O37" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="15" t="s">
         <v>101</v>
@@ -6151,26 +6128,26 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="H38" s="15" t="b">
         <v>0</v>
       </c>
@@ -6178,23 +6155,23 @@
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M38" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="N38" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="N38" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="O38" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q38" s="15" t="b">
         <v>1</v>
@@ -6203,25 +6180,25 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D39" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H39" s="15" t="b">
         <v>0</v>
@@ -6230,23 +6207,23 @@
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="N39" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="N39" s="20" t="s">
-        <v>333</v>
-      </c>
       <c r="O39" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q39" s="15" t="b">
         <v>1</v>
@@ -6255,25 +6232,25 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H40" s="15" t="b">
         <v>0</v>
@@ -6282,23 +6259,23 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M40" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N40" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="N40" s="20" t="s">
-        <v>338</v>
-      </c>
       <c r="O40" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="15" t="b">
         <v>1</v>
@@ -6307,25 +6284,25 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="G41" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" s="15" t="b">
         <v>0</v>
@@ -6334,23 +6311,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="N41" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="N41" s="20" t="s">
-        <v>343</v>
-      </c>
       <c r="O41" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q41" s="22" t="s">
         <v>101</v>
@@ -6359,25 +6336,25 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H42" s="15" t="b">
         <v>0</v>
@@ -6386,23 +6363,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M42" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="N42" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="N42" s="20" t="s">
-        <v>348</v>
-      </c>
       <c r="O42" s="9" t="s">
         <v>100</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="22" t="s">
         <v>101</v>
@@ -6411,26 +6388,26 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>353</v>
-      </c>
       <c r="H43" s="15" t="b">
         <v>0</v>
       </c>
@@ -6438,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="18"/>
@@ -6448,7 +6425,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q43" s="22" t="s">
         <v>101</v>
@@ -6457,26 +6434,26 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>358</v>
-      </c>
       <c r="H44" s="15" t="b">
         <v>0</v>
       </c>
@@ -6484,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="18"/>
@@ -6503,26 +6480,26 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>363</v>
-      </c>
       <c r="H45" s="15" t="b">
         <v>0</v>
       </c>
@@ -6530,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="18"/>
@@ -6549,26 +6526,26 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="G46" s="14" t="s">
-        <v>368</v>
-      </c>
       <c r="H46" s="15" t="b">
         <v>0</v>
       </c>
@@ -6576,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="18"/>
@@ -6595,26 +6572,26 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="E47" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="14" t="s">
-        <v>358</v>
-      </c>
       <c r="H47" s="15" t="b">
         <v>0</v>
       </c>
@@ -6622,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="18"/>
@@ -6641,26 +6618,26 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F48" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="G48" s="14" t="s">
-        <v>363</v>
-      </c>
       <c r="H48" s="15" t="b">
         <v>0</v>
       </c>
@@ -6668,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="18"/>
@@ -6687,26 +6664,26 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>380</v>
-      </c>
       <c r="H49" s="15" t="b">
         <v>0</v>
       </c>
@@ -6714,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="18"/>
@@ -6733,26 +6710,26 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>385</v>
-      </c>
       <c r="H50" s="15" t="b">
         <v>0</v>
       </c>
@@ -6760,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="18"/>
@@ -6779,26 +6756,26 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>389</v>
-      </c>
       <c r="H51" s="15" t="b">
         <v>0</v>
       </c>
@@ -6806,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="18"/>
@@ -6825,26 +6802,26 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="G52" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G52" s="14" t="s">
-        <v>394</v>
-      </c>
       <c r="H52" s="15" t="b">
         <v>0</v>
       </c>
@@ -6852,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="18"/>
@@ -6874,23 +6851,23 @@
         <v>104</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>398</v>
-      </c>
       <c r="H53" s="15" t="b">
         <v>0</v>
       </c>
@@ -6898,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="18"/>
@@ -6917,26 +6894,26 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G54" s="14" t="s">
-        <v>403</v>
-      </c>
       <c r="H54" s="15" t="b">
         <v>0</v>
       </c>
@@ -6944,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="18"/>
@@ -6963,13 +6940,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>34</v>
@@ -6981,7 +6958,7 @@
         <v>860</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H55" s="15" t="b">
         <v>0</v>
@@ -6990,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -7009,13 +6986,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>34</v>
@@ -7027,7 +7004,7 @@
         <v>960</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H56" s="15" t="b">
         <v>0</v>
@@ -7036,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -7058,10 +7035,10 @@
         <v>111</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>412</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>34</v>
@@ -7073,7 +7050,7 @@
         <v>860</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H57" s="15" t="b">
         <v>0</v>
@@ -7082,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -7101,13 +7078,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>34</v>
@@ -7119,7 +7096,7 @@
         <v>1080</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H58" s="15" t="b">
         <v>0</v>
@@ -7128,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -7150,10 +7127,10 @@
         <v>117</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>418</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>34</v>
@@ -7165,7 +7142,7 @@
         <v>1180</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H59" s="15" t="b">
         <v>0</v>
@@ -7174,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -7193,13 +7170,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>34</v>
@@ -7211,7 +7188,7 @@
         <v>1080</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H60" s="15" t="b">
         <v>0</v>
@@ -7220,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -7239,13 +7216,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>34</v>
@@ -7257,7 +7234,7 @@
         <v>1100</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H61" s="15" t="b">
         <v>0</v>
@@ -7266,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -7285,16 +7262,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>93</v>
@@ -7303,7 +7280,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H62" s="15" t="b">
         <v>0</v>
@@ -7312,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -7331,13 +7308,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>34</v>
@@ -7349,7 +7326,7 @@
         <v>1100</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H63" s="15" t="b">
         <v>0</v>
@@ -7358,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -7377,13 +7354,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>34</v>
@@ -7395,7 +7372,7 @@
         <v>1180</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H64" s="15" t="b">
         <v>0</v>
@@ -7404,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -7423,13 +7400,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="12" t="s">
         <v>439</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>34</v>
@@ -7441,7 +7418,7 @@
         <v>880</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H65" s="15" t="b">
         <v>0</v>
@@ -7450,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -7469,13 +7446,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>34</v>
@@ -7487,7 +7464,7 @@
         <v>1280</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H66" s="15" t="b">
         <v>0</v>
@@ -7496,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -7515,16 +7492,16 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>93</v>
@@ -7533,7 +7510,7 @@
         <v>880</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H67" s="15" t="b">
         <v>0</v>
@@ -7542,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -7561,13 +7538,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
@@ -7579,7 +7556,7 @@
         <v>1100</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H68" s="15" t="b">
         <v>0</v>
@@ -7588,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -7610,10 +7587,10 @@
         <v>94</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>37</v>
@@ -7625,7 +7602,7 @@
         <v>2650</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H69" s="15" t="b">
         <v>0</v>
@@ -7634,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -7653,13 +7630,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>37</v>
@@ -7671,7 +7648,7 @@
         <v>880</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H70" s="15" t="b">
         <v>0</v>
@@ -7680,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -7699,13 +7676,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>37</v>
@@ -7717,7 +7694,7 @@
         <v>1050</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H71" s="15" t="b">
         <v>0</v>
@@ -7726,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
@@ -7745,13 +7722,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>467</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>37</v>
@@ -7763,7 +7740,7 @@
         <v>880</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H72" s="15" t="b">
         <v>0</v>
@@ -7772,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
@@ -7791,13 +7768,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
@@ -7809,7 +7786,7 @@
         <v>1700</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H73" s="15" t="b">
         <v>0</v>
@@ -7818,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
@@ -7837,13 +7814,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>40</v>
@@ -7855,7 +7832,7 @@
         <v>880</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H74" s="15" t="b">
         <v>0</v>
@@ -7864,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
@@ -7883,13 +7860,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>478</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>40</v>
@@ -7901,7 +7878,7 @@
         <v>1400</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H75" s="15" t="b">
         <v>0</v>
@@ -7910,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
@@ -7929,13 +7906,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="C76" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>40</v>
@@ -7947,7 +7924,7 @@
         <v>1800</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H76" s="15" t="b">
         <v>0</v>
@@ -7956,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
@@ -7975,13 +7952,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="C77" s="11" t="s">
         <v>485</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>486</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>40</v>
@@ -7993,7 +7970,7 @@
         <v>1080</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H77" s="15" t="b">
         <v>0</v>
@@ -8002,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
@@ -8021,13 +7998,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="C78" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>490</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>40</v>
@@ -8039,7 +8016,7 @@
         <v>1550</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H78" s="15" t="b">
         <v>0</v>
@@ -8048,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
@@ -8067,13 +8044,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>40</v>
@@ -8085,7 +8062,7 @@
         <v>2050</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H79" s="15" t="b">
         <v>0</v>
@@ -8094,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
@@ -8113,13 +8090,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="C80" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>497</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>40</v>
@@ -8131,7 +8108,7 @@
         <v>2850</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H80" s="15" t="b">
         <v>0</v>
@@ -8140,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
@@ -8159,13 +8136,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B81" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>499</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>500</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>40</v>
@@ -8177,7 +8154,7 @@
         <v>900</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H81" s="15" t="b">
         <v>0</v>
@@ -8186,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
@@ -8205,13 +8182,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="C82" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>40</v>
@@ -8223,7 +8200,7 @@
         <v>1650</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H82" s="15" t="b">
         <v>0</v>
@@ -8232,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
@@ -8251,13 +8228,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="C83" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>40</v>
@@ -8269,7 +8246,7 @@
         <v>2350</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H83" s="15" t="b">
         <v>0</v>
@@ -8278,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
@@ -8297,13 +8274,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="C84" s="11" t="s">
         <v>511</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>512</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>40</v>
@@ -8315,7 +8292,7 @@
         <v>2180</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H84" s="15" t="b">
         <v>0</v>
@@ -8324,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -8343,13 +8320,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="C85" s="11" t="s">
         <v>515</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>516</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>40</v>
@@ -8361,7 +8338,7 @@
         <v>4980</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H85" s="15" t="b">
         <v>0</v>
@@ -8370,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -8389,13 +8366,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="C86" s="11" t="s">
         <v>519</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>520</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>40</v>
@@ -8404,11 +8381,11 @@
         <v>93</v>
       </c>
       <c r="F86" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>522</v>
-      </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
       </c>
@@ -8416,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
@@ -8435,13 +8412,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="C87" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -8453,7 +8430,7 @@
         <v>2080</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -8462,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -8481,13 +8458,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -8499,7 +8476,7 @@
         <v>4880</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -8508,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
@@ -8527,13 +8504,13 @@
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>532</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -8542,11 +8519,11 @@
         <v>93</v>
       </c>
       <c r="F89" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>522</v>
-      </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
       </c>
@@ -8554,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -8573,13 +8550,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -8591,7 +8568,7 @@
         <v>2180</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -8600,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
@@ -8619,13 +8596,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>40</v>
@@ -8634,11 +8611,11 @@
         <v>93</v>
       </c>
       <c r="F91" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G91" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>522</v>
-      </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
       </c>
@@ -8646,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
@@ -8665,13 +8642,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="11" t="s">
         <v>540</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>541</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>40</v>
@@ -8680,11 +8657,11 @@
         <v>93</v>
       </c>
       <c r="F92" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G92" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>522</v>
-      </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
       </c>
@@ -8692,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
@@ -8711,13 +8688,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="11" t="s">
         <v>543</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>544</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>40</v>
@@ -8729,7 +8706,7 @@
         <v>2080</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -8738,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
@@ -8757,13 +8734,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="C94" s="11" t="s">
         <v>546</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>547</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>40</v>
@@ -8772,11 +8749,11 @@
         <v>93</v>
       </c>
       <c r="F94" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>522</v>
-      </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
       </c>
@@ -8784,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -8803,16 +8780,16 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>551</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>93</v>
@@ -8821,7 +8798,7 @@
         <v>1080</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -8830,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -8849,13 +8826,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="11" t="s">
         <v>554</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>555</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>43</v>
@@ -8867,7 +8844,7 @@
         <v>980</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -8876,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -8895,13 +8872,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="C97" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>43</v>
@@ -8913,7 +8890,7 @@
         <v>1180</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -8922,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -8941,13 +8918,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>563</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>43</v>
@@ -8959,7 +8936,7 @@
         <v>1280</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -8968,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -8987,13 +8964,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>566</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>43</v>
@@ -9005,7 +8982,7 @@
         <v>2400</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9014,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -9033,13 +9010,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>570</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>43</v>
@@ -9051,7 +9028,7 @@
         <v>3880</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9060,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -9079,13 +9056,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="11" t="s">
         <v>573</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>574</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>43</v>
@@ -9097,7 +9074,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9106,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
@@ -9125,13 +9102,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="C102" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>43</v>
@@ -9143,7 +9120,7 @@
         <v>1180</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9152,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -9171,13 +9148,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="11" t="s">
         <v>579</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>580</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>43</v>
@@ -9189,7 +9166,7 @@
         <v>880</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9198,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
@@ -9217,13 +9194,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>584</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>43</v>
@@ -9235,7 +9212,7 @@
         <v>1480</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9244,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -9263,13 +9240,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="C105" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>588</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>43</v>
@@ -9281,7 +9258,7 @@
         <v>3680</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -9290,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
@@ -9309,13 +9286,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B106" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="C106" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>592</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>43</v>
@@ -9327,7 +9304,7 @@
         <v>1180</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -9336,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
@@ -9355,13 +9332,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="C107" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>595</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>43</v>
@@ -9373,7 +9350,7 @@
         <v>2380</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -9382,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
@@ -9401,13 +9378,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>46</v>
@@ -9419,7 +9396,7 @@
         <v>1380</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -9428,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
@@ -9447,13 +9424,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="C109" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>46</v>
@@ -9465,7 +9442,7 @@
         <v>1180</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H109" s="15" t="b">
         <v>0</v>
@@ -9474,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -9493,13 +9470,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="C110" s="11" t="s">
         <v>605</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>606</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>46</v>
@@ -9511,7 +9488,7 @@
         <v>1680</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -9520,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -9539,13 +9516,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B111" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="C111" s="11" t="s">
         <v>609</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>610</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>46</v>
@@ -9557,7 +9534,7 @@
         <v>2180</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H111" s="15" t="b">
         <v>0</v>
@@ -9566,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
@@ -9585,13 +9562,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>613</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>46</v>
@@ -9603,7 +9580,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -9612,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
@@ -9631,13 +9608,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="C113" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
@@ -9649,7 +9626,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -9658,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
@@ -9677,13 +9654,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>619</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>620</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>46</v>
@@ -9695,7 +9672,7 @@
         <v>1080</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H114" s="15" t="b">
         <v>0</v>
@@ -9704,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
@@ -9723,13 +9700,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="C115" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>623</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>46</v>
@@ -9741,7 +9718,7 @@
         <v>1880</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -9750,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
@@ -9769,13 +9746,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>626</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>627</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>46</v>
@@ -9787,7 +9764,7 @@
         <v>2680</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -9796,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
@@ -9815,13 +9792,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="C117" s="11" t="s">
         <v>630</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>631</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>46</v>
@@ -9833,7 +9810,7 @@
         <v>1380</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -9842,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
@@ -9861,13 +9838,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="C118" s="11" t="s">
         <v>634</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>635</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>46</v>
@@ -9879,7 +9856,7 @@
         <v>1480</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -9888,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
@@ -9907,13 +9884,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="11" t="s">
         <v>638</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>639</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>49</v>
@@ -9925,7 +9902,7 @@
         <v>1580</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -9934,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
@@ -9953,13 +9930,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B120" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="C120" s="11" t="s">
         <v>642</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>643</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>49</v>
@@ -9971,7 +9948,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -9980,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
@@ -9999,13 +9976,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B121" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="C121" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>49</v>
@@ -10017,7 +9994,7 @@
         <v>1380</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10026,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -10045,13 +10022,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="C122" s="11" t="s">
         <v>649</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>650</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>49</v>
@@ -10063,7 +10040,7 @@
         <v>1580</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10072,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
@@ -10091,13 +10068,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B123" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="11" t="s">
         <v>653</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>654</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>49</v>
@@ -10109,7 +10086,7 @@
         <v>880</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10118,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
@@ -10137,13 +10114,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B124" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="C124" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>49</v>
@@ -10155,7 +10132,7 @@
         <v>2380</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10164,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
@@ -10183,13 +10160,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>659</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>660</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>52</v>
@@ -10201,7 +10178,7 @@
         <v>880</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10210,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
@@ -10229,13 +10206,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>52</v>
@@ -10247,7 +10224,7 @@
         <v>780</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -10256,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
@@ -10275,13 +10252,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>667</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>52</v>
@@ -10293,7 +10270,7 @@
         <v>780</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -10302,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
@@ -10321,13 +10298,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>52</v>
@@ -10339,7 +10316,7 @@
         <v>880</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -10348,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
@@ -10367,13 +10344,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>52</v>
@@ -10385,7 +10362,7 @@
         <v>1280</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -10394,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
@@ -10413,13 +10390,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>52</v>
@@ -10431,7 +10408,7 @@
         <v>1780</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -10440,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
@@ -10459,13 +10436,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>679</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>680</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>52</v>
@@ -10477,7 +10454,7 @@
         <v>1180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -10486,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
@@ -10505,13 +10482,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="C132" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>52</v>
@@ -10523,7 +10500,7 @@
         <v>1280</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -10532,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
@@ -10551,13 +10528,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>686</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>52</v>
@@ -10569,7 +10546,7 @@
         <v>1780</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -10578,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
@@ -10597,13 +10574,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>689</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>690</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>52</v>
@@ -10615,7 +10592,7 @@
         <v>2480</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -10624,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
@@ -10643,13 +10620,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B135" s="23" t="s">
         <v>692</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="C135" s="11" t="s">
         <v>693</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>694</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>52</v>
@@ -10661,7 +10638,7 @@
         <v>1180</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H135" s="15" t="b">
         <v>0</v>
@@ -10670,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
@@ -10689,13 +10666,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B136" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="C136" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>697</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>52</v>
@@ -10707,7 +10684,7 @@
         <v>980</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -10716,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
@@ -10735,13 +10712,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B137" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="C137" s="11" t="s">
         <v>699</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>700</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>52</v>
@@ -10753,7 +10730,7 @@
         <v>1650</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -10762,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
@@ -10781,13 +10758,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B138" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="C138" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>52</v>
@@ -10799,7 +10776,7 @@
         <v>1100</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -10808,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -10827,13 +10804,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="C139" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>708</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>52</v>
@@ -10845,7 +10822,7 @@
         <v>980</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -10854,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
@@ -10873,13 +10850,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B140" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="C140" s="11" t="s">
         <v>710</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>711</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>52</v>
@@ -10891,7 +10868,7 @@
         <v>1080</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H140" s="15" t="b">
         <v>0</v>
@@ -10900,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
@@ -10919,13 +10896,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B141" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="C141" s="11" t="s">
         <v>713</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>714</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>52</v>
@@ -10937,7 +10914,7 @@
         <v>1680</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -10946,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
@@ -10965,13 +10942,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>716</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="C142" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>718</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>52</v>
@@ -10983,7 +10960,7 @@
         <v>980</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -10992,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
@@ -11011,13 +10988,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="C143" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>721</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>52</v>
@@ -11029,7 +11006,7 @@
         <v>1080</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11038,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
@@ -11057,13 +11034,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="C144" s="11" t="s">
         <v>724</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>725</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>52</v>
@@ -11075,7 +11052,7 @@
         <v>1480</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11084,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
@@ -11103,13 +11080,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B145" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="C145" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>729</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>52</v>
@@ -11121,7 +11098,7 @@
         <v>3480</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11130,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
@@ -11149,13 +11126,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>733</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>52</v>
@@ -11167,7 +11144,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11176,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
@@ -11195,13 +11172,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B147" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="C147" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>736</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>52</v>
@@ -11213,7 +11190,7 @@
         <v>1680</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11222,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
@@ -11241,13 +11218,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B148" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="C148" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>739</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>52</v>
@@ -11259,7 +11236,7 @@
         <v>2680</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -11268,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
@@ -11287,13 +11264,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B149" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="C149" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>52</v>
@@ -11305,7 +11282,7 @@
         <v>3680</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -11314,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
@@ -11333,13 +11310,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>744</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="C150" s="11" t="s">
         <v>745</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>746</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>52</v>
@@ -11351,7 +11328,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H150" s="15" t="b">
         <v>0</v>
@@ -11360,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
@@ -11379,13 +11356,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B151" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="B151" s="25" t="s">
+      <c r="C151" s="25" t="s">
         <v>748</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>749</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>58</v>
@@ -11397,28 +11374,28 @@
         <v>111</v>
       </c>
       <c r="G151" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H151" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="H151" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="9" t="s">
+      <c r="K151" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="K151" s="9" t="s">
+      <c r="L151" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M151" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="L151" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M151" s="19" t="s">
+      <c r="N151" s="20" t="s">
         <v>753</v>
-      </c>
-      <c r="N151" s="20" t="s">
-        <v>754</v>
       </c>
       <c r="O151" s="9" t="s">
         <v>100</v>
@@ -11433,13 +11410,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B152" s="27" t="s">
         <v>755</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="C152" s="25" t="s">
         <v>756</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>757</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>58</v>
@@ -11451,28 +11428,28 @@
         <v>111</v>
       </c>
       <c r="G152" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H152" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="H152" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="9" t="s">
-        <v>751</v>
-      </c>
       <c r="K152" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M152" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="L152" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M152" s="19" t="s">
+      <c r="N152" s="20" t="s">
         <v>759</v>
-      </c>
-      <c r="N152" s="20" t="s">
-        <v>760</v>
       </c>
       <c r="O152" s="9" t="s">
         <v>100</v>
@@ -11487,13 +11464,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="B153" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="C153" s="25" t="s">
         <v>762</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>763</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>58</v>
@@ -11505,28 +11482,28 @@
         <v>111</v>
       </c>
       <c r="G153" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="H153" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="H153" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="9" t="s">
-        <v>751</v>
-      </c>
       <c r="K153" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="M153" s="19" t="s">
         <v>764</v>
       </c>
-      <c r="L153" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M153" s="19" t="s">
+      <c r="N153" s="20" t="s">
         <v>765</v>
-      </c>
-      <c r="N153" s="20" t="s">
-        <v>766</v>
       </c>
       <c r="O153" s="9" t="s">
         <v>100</v>
@@ -11541,101 +11518,93 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B154" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="C154" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="D154" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="H154" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="K154" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="D154" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E154" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>750</v>
-      </c>
-      <c r="H154" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="K154" s="9" t="s">
+      <c r="L154" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M154" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="L154" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="M154" s="19" t="s">
+      <c r="N154" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="N154" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="O154" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="P154" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q154" s="22" t="b">
-        <v>1</v>
+      <c r="O154" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P154" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q154" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="R154" s="19"/>
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B155" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="C155" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="D155" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E155" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G155" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="D155" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E155" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G155" s="25" t="s">
+      <c r="H155" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="H155" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="K155" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="L155" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="M155" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="N155" s="20" t="s">
-        <v>778</v>
-      </c>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="20"/>
       <c r="O155" s="25" t="s">
         <v>100</v>
       </c>
@@ -11649,13 +11618,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>61</v>
@@ -11664,10 +11633,10 @@
         <v>93</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H156" s="22" t="b">
         <v>0</v>
@@ -11676,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -11695,26 +11664,26 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E157" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G157" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="B157" s="25" t="s">
-        <v>784</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>785</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E157" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G157" s="25" t="s">
-        <v>786</v>
-      </c>
       <c r="H157" s="22" t="b">
         <v>0</v>
       </c>
@@ -11722,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -11741,13 +11710,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>65</v>
@@ -11756,10 +11725,10 @@
         <v>93</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H158" s="22" t="b">
         <v>0</v>
@@ -11768,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -11787,13 +11756,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>65</v>
@@ -11802,10 +11771,10 @@
         <v>93</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H159" s="22" t="b">
         <v>0</v>
@@ -11814,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -11833,13 +11802,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>65</v>
@@ -11848,10 +11817,10 @@
         <v>93</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="H160" s="22" t="b">
         <v>0</v>
@@ -11860,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -11879,37 +11848,39 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="C161" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E161" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H161" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="K161" s="9"/>
+      <c r="L161" s="28" t="s">
         <v>797</v>
       </c>
-      <c r="B161" s="25" t="s">
-        <v>798</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>799</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E161" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F161" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="G161" s="25" t="s">
-        <v>790</v>
-      </c>
-      <c r="H161" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="25" t="s">
-        <v>751</v>
-      </c>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
       <c r="M161" s="19"/>
       <c r="N161" s="20"/>
       <c r="O161" s="25" t="s">
@@ -11925,13 +11896,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="C162" s="25" t="s">
         <v>800</v>
-      </c>
-      <c r="B162" s="25" t="s">
-        <v>801</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>802</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>72</v>
@@ -11940,11 +11911,11 @@
         <v>93</v>
       </c>
       <c r="F162" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G162" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G162" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H162" s="22" t="b">
         <v>0</v>
       </c>
@@ -11952,12 +11923,10 @@
         <v>0</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K162" s="9"/>
-      <c r="L162" s="28" t="s">
-        <v>804</v>
-      </c>
+      <c r="L162" s="9"/>
       <c r="M162" s="19"/>
       <c r="N162" s="20"/>
       <c r="O162" s="25" t="s">
@@ -11973,13 +11942,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>806</v>
+        <v>801</v>
+      </c>
+      <c r="B163" s="28" t="s">
+        <v>802</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>72</v>
@@ -11988,11 +11957,11 @@
         <v>93</v>
       </c>
       <c r="F163" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G163" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G163" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H163" s="22" t="b">
         <v>0</v>
       </c>
@@ -12000,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -12019,13 +11988,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>809</v>
+        <v>804</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>805</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>72</v>
@@ -12034,11 +12003,11 @@
         <v>93</v>
       </c>
       <c r="F164" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G164" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G164" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H164" s="22" t="b">
         <v>0</v>
       </c>
@@ -12046,12 +12015,12 @@
         <v>0</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="20"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="9"/>
       <c r="O164" s="25" t="s">
         <v>100</v>
       </c>
@@ -12065,13 +12034,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>72</v>
@@ -12080,11 +12049,11 @@
         <v>93</v>
       </c>
       <c r="F165" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G165" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G165" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H165" s="22" t="b">
         <v>0</v>
       </c>
@@ -12092,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -12108,52 +12077,6 @@
         <v>101</v>
       </c>
       <c r="R165" s="19"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:18">
-      <c r="A166" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>815</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E166" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G166" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H166" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
-      <c r="M166" s="20"/>
-      <c r="N166" s="9"/>
-      <c r="O166" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="P166" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q166" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="R166" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -3562,7 +3562,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD23"/>
+      <selection activeCell="D21" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4161,7 +4161,7 @@
   <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A165"/>
+      <selection activeCell="A149" sqref="A1:R165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -4160,8 +4160,8 @@
   <sheetPr/>
   <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A149" sqref="A1:R165"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812">
   <si>
     <t>id</t>
   </si>
@@ -1583,10 +1583,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>时价</t>
-  </si>
-  <si>
-    <t>时价/Glass+时价/Bottle</t>
+    <t>17800/Bottle</t>
   </si>
   <si>
     <t>86</t>
@@ -1637,6 +1634,9 @@
     <t>响.17</t>
   </si>
   <si>
+    <t>9800/Bottle</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
@@ -1646,6 +1646,9 @@
     <t>响.21</t>
   </si>
   <si>
+    <t>15000/Bottle</t>
+  </si>
+  <si>
     <t>92</t>
   </si>
   <si>
@@ -1662,6 +1665,9 @@
   </si>
   <si>
     <t>余市.15</t>
+  </si>
+  <si>
+    <t>11000/Bottle</t>
   </si>
   <si>
     <t>94</t>
@@ -2459,9 +2465,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2508,13 +2514,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2522,7 +2521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2536,24 +2535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2568,44 +2551,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2613,9 +2558,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2637,6 +2590,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -2644,8 +2642,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2660,13 +2666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,25 +2696,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,7 +2732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,25 +2750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,25 +2768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2786,7 +2786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,19 +2816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2822,13 +2828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2840,7 +2846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2917,41 +2923,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2971,6 +2947,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2986,148 +2973,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4160,8 +4166,8 @@
   <sheetPr/>
   <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -8380,11 +8386,11 @@
       <c r="E86" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="11">
+        <v>17800</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
@@ -8412,13 +8418,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="C87" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>524</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -8430,7 +8436,7 @@
         <v>2080</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -8458,13 +8464,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -8476,7 +8482,7 @@
         <v>4880</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -8507,10 +8513,10 @@
         <v>141</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>530</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>531</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -8518,11 +8524,11 @@
       <c r="E89" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="F89" s="11">
+        <v>17800</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
@@ -8550,13 +8556,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>534</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -8568,7 +8574,7 @@
         <v>2180</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -8599,10 +8605,10 @@
         <v>298</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>537</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>40</v>
@@ -8610,11 +8616,11 @@
       <c r="E91" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>520</v>
+      <c r="F91" s="11">
+        <v>9800</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
@@ -8656,11 +8662,11 @@
       <c r="E92" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>520</v>
+      <c r="F92" s="11">
+        <v>15000</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
@@ -8688,13 +8694,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>40</v>
@@ -8706,7 +8712,7 @@
         <v>2080</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -8734,13 +8740,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>40</v>
@@ -8748,11 +8754,11 @@
       <c r="E94" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>520</v>
+      <c r="F94" s="11">
+        <v>11000</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
@@ -8780,16 +8786,16 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>93</v>
@@ -8798,7 +8804,7 @@
         <v>1080</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -8826,13 +8832,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>43</v>
@@ -8844,7 +8850,7 @@
         <v>980</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -8872,13 +8878,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>43</v>
@@ -8890,7 +8896,7 @@
         <v>1180</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -8918,13 +8924,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>43</v>
@@ -8936,7 +8942,7 @@
         <v>1280</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -8967,10 +8973,10 @@
         <v>229</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>43</v>
@@ -8982,7 +8988,7 @@
         <v>2400</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9010,13 +9016,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>43</v>
@@ -9028,7 +9034,7 @@
         <v>3880</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9056,13 +9062,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>43</v>
@@ -9074,7 +9080,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9102,13 +9108,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>43</v>
@@ -9120,7 +9126,7 @@
         <v>1180</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9148,13 +9154,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>43</v>
@@ -9166,7 +9172,7 @@
         <v>880</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9194,13 +9200,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>43</v>
@@ -9212,7 +9218,7 @@
         <v>1480</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9240,13 +9246,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>43</v>
@@ -9258,7 +9264,7 @@
         <v>3680</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -9286,13 +9292,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>43</v>
@@ -9304,7 +9310,7 @@
         <v>1180</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -9332,13 +9338,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>43</v>
@@ -9350,7 +9356,7 @@
         <v>2380</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -9378,13 +9384,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>46</v>
@@ -9396,7 +9402,7 @@
         <v>1380</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -9424,13 +9430,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>46</v>
@@ -9470,13 +9476,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>46</v>
@@ -9488,7 +9494,7 @@
         <v>1680</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -9516,13 +9522,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>46</v>
@@ -9562,13 +9568,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>46</v>
@@ -9580,7 +9586,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -9608,13 +9614,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
@@ -9626,7 +9632,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -9654,13 +9660,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>46</v>
@@ -9700,13 +9706,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>46</v>
@@ -9718,7 +9724,7 @@
         <v>1880</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -9746,13 +9752,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>46</v>
@@ -9764,7 +9770,7 @@
         <v>2680</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -9792,13 +9798,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>46</v>
@@ -9810,7 +9816,7 @@
         <v>1380</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -9838,13 +9844,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>46</v>
@@ -9856,7 +9862,7 @@
         <v>1480</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -9884,13 +9890,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>49</v>
@@ -9902,7 +9908,7 @@
         <v>1580</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -9930,13 +9936,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>49</v>
@@ -9948,7 +9954,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -9976,13 +9982,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>49</v>
@@ -9994,7 +10000,7 @@
         <v>1380</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10022,13 +10028,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>49</v>
@@ -10040,7 +10046,7 @@
         <v>1580</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10068,13 +10074,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>49</v>
@@ -10086,7 +10092,7 @@
         <v>880</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10114,13 +10120,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>49</v>
@@ -10132,7 +10138,7 @@
         <v>2380</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10160,13 +10166,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>52</v>
@@ -10178,7 +10184,7 @@
         <v>880</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10206,13 +10212,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>52</v>
@@ -10224,7 +10230,7 @@
         <v>780</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -10252,13 +10258,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>52</v>
@@ -10270,7 +10276,7 @@
         <v>780</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -10298,13 +10304,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>52</v>
@@ -10316,7 +10322,7 @@
         <v>880</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -10344,13 +10350,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>52</v>
@@ -10362,7 +10368,7 @@
         <v>1280</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -10390,13 +10396,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>52</v>
@@ -10408,7 +10414,7 @@
         <v>1780</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -10436,13 +10442,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>52</v>
@@ -10454,7 +10460,7 @@
         <v>1180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -10482,13 +10488,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>52</v>
@@ -10500,7 +10506,7 @@
         <v>1280</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -10528,13 +10534,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>52</v>
@@ -10546,7 +10552,7 @@
         <v>1780</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -10574,13 +10580,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>52</v>
@@ -10592,7 +10598,7 @@
         <v>2480</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -10620,13 +10626,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>52</v>
@@ -10666,13 +10672,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>52</v>
@@ -10684,7 +10690,7 @@
         <v>980</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -10712,13 +10718,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>52</v>
@@ -10730,7 +10736,7 @@
         <v>1650</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -10758,13 +10764,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>52</v>
@@ -10776,7 +10782,7 @@
         <v>1100</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -10804,13 +10810,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>52</v>
@@ -10822,7 +10828,7 @@
         <v>980</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -10850,13 +10856,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>52</v>
@@ -10896,13 +10902,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>52</v>
@@ -10914,7 +10920,7 @@
         <v>1680</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -10942,13 +10948,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>52</v>
@@ -10960,7 +10966,7 @@
         <v>980</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -10988,13 +10994,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>52</v>
@@ -11006,7 +11012,7 @@
         <v>1080</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11034,13 +11040,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>52</v>
@@ -11052,7 +11058,7 @@
         <v>1480</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11080,13 +11086,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>52</v>
@@ -11098,7 +11104,7 @@
         <v>3480</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11126,13 +11132,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>52</v>
@@ -11144,7 +11150,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11172,13 +11178,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>52</v>
@@ -11190,7 +11196,7 @@
         <v>1680</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11218,13 +11224,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>52</v>
@@ -11236,7 +11242,7 @@
         <v>2680</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -11264,13 +11270,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>52</v>
@@ -11282,7 +11288,7 @@
         <v>3680</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -11310,13 +11316,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>52</v>
@@ -11356,13 +11362,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>58</v>
@@ -11374,7 +11380,7 @@
         <v>111</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -11383,19 +11389,19 @@
         <v>0</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="L151" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M151" s="19" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N151" s="20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="O151" s="9" t="s">
         <v>100</v>
@@ -11410,13 +11416,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>58</v>
@@ -11428,7 +11434,7 @@
         <v>111</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -11437,19 +11443,19 @@
         <v>0</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L152" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M152" s="19" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N152" s="20" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="O152" s="9" t="s">
         <v>100</v>
@@ -11464,13 +11470,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>58</v>
@@ -11482,7 +11488,7 @@
         <v>111</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H153" s="15" t="b">
         <v>0</v>
@@ -11491,19 +11497,19 @@
         <v>0</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L153" s="9" t="s">
         <v>185</v>
       </c>
       <c r="M153" s="19" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N153" s="20" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O153" s="9" t="s">
         <v>100</v>
@@ -11518,13 +11524,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D154" s="25" t="s">
         <v>58</v>
@@ -11536,7 +11542,7 @@
         <v>111</v>
       </c>
       <c r="G154" s="25" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H154" s="22" t="b">
         <v>0</v>
@@ -11545,19 +11551,19 @@
         <v>0</v>
       </c>
       <c r="J154" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="L154" s="25" t="s">
         <v>185</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="O154" s="25" t="s">
         <v>100</v>
@@ -11572,13 +11578,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>61</v>
@@ -11590,7 +11596,7 @@
         <v>200</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H155" s="22" t="b">
         <v>0</v>
@@ -11599,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -11618,13 +11624,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>61</v>
@@ -11636,7 +11642,7 @@
         <v>241</v>
       </c>
       <c r="G156" s="25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H156" s="22" t="b">
         <v>0</v>
@@ -11645,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
@@ -11664,13 +11670,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>65</v>
@@ -11682,7 +11688,7 @@
         <v>200</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H157" s="22" t="b">
         <v>0</v>
@@ -11691,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
@@ -11710,13 +11716,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>65</v>
@@ -11728,7 +11734,7 @@
         <v>200</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H158" s="22" t="b">
         <v>0</v>
@@ -11737,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -11756,13 +11762,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>65</v>
@@ -11774,7 +11780,7 @@
         <v>200</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H159" s="22" t="b">
         <v>0</v>
@@ -11783,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -11802,13 +11808,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>65</v>
@@ -11820,7 +11826,7 @@
         <v>240</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H160" s="22" t="b">
         <v>0</v>
@@ -11829,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -11848,13 +11854,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>72</v>
@@ -11875,11 +11881,11 @@
         <v>0</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="28" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M161" s="19"/>
       <c r="N161" s="20"/>
@@ -11896,13 +11902,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>72</v>
@@ -11923,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -11942,13 +11948,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>72</v>
@@ -11969,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -11988,13 +11994,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>72</v>
@@ -12015,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
@@ -12034,13 +12040,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>72</v>
@@ -12061,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -2464,11 +2464,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2514,13 +2514,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2535,13 +2528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2550,9 +2536,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2560,15 +2545,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2583,10 +2567,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2605,9 +2612,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2620,21 +2626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -2642,18 +2633,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2666,13 +2666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,25 +2684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,13 +2702,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,37 +2738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2786,13 +2762,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2804,7 +2816,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,37 +2846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2932,6 +2932,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2957,183 +3002,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4166,8 +4166,8 @@
   <sheetPr/>
   <dimension ref="A1:R165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818">
   <si>
     <t>id</t>
   </si>
@@ -2411,19 +2411,37 @@
     <t>160</t>
   </si>
   <si>
+    <t>Kiwi Banana Mousse</t>
+  </si>
+  <si>
+    <t>猕猴桃香蕉慕斯</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>White cheese lemon pomelo Mousse</t>
+  </si>
+  <si>
+    <t>白乳酪柠檬柚慕斯</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>Opera</t>
   </si>
   <si>
     <t>歌剧院</t>
   </si>
   <si>
-    <t>dessert</t>
-  </si>
-  <si>
     <t>巧克力味,橙子味</t>
   </si>
   <si>
-    <t>161</t>
+    <t>163</t>
   </si>
   <si>
     <t>Valrhono Caramel Chocklate Ban</t>
@@ -2432,7 +2450,7 @@
     <t>法芙娜焦糖巧克力</t>
   </si>
   <si>
-    <t>162</t>
+    <t>164</t>
   </si>
   <si>
     <t>Pumpkin Cheese Cake</t>
@@ -2441,7 +2459,7 @@
     <t>南瓜芝士蛋糕</t>
   </si>
   <si>
-    <t>163</t>
+    <t>165</t>
   </si>
   <si>
     <t>Tarte au fromage framboise</t>
@@ -2450,7 +2468,7 @@
     <t>覆盆子芝士塔</t>
   </si>
   <si>
-    <t>164</t>
+    <t>166</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -2464,11 +2482,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2520,26 +2538,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2551,26 +2553,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2581,8 +2568,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2597,6 +2599,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2605,8 +2621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2620,16 +2637,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2650,10 +2668,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2672,7 +2690,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,19 +2726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,13 +2738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,7 +2768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2744,7 +2786,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,61 +2822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2828,25 +2834,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2918,15 +2936,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2947,17 +2956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2973,6 +2976,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,132 +3023,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4164,10 +4182,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11874,19 +11892,17 @@
       <c r="G161" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H161" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="22" t="b">
-        <v>0</v>
+      <c r="H161" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>798</v>
       </c>
       <c r="K161" s="9"/>
-      <c r="L161" s="28" t="s">
-        <v>799</v>
-      </c>
+      <c r="L161" s="28"/>
       <c r="M161" s="19"/>
       <c r="N161" s="20"/>
       <c r="O161" s="25" t="s">
@@ -11902,13 +11918,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="C162" s="25" t="s">
         <v>801</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>802</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>72</v>
@@ -11922,17 +11938,17 @@
       <c r="G162" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H162" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="22" t="b">
-        <v>0</v>
+      <c r="H162" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>798</v>
       </c>
       <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="L162" s="28"/>
       <c r="M162" s="19"/>
       <c r="N162" s="20"/>
       <c r="O162" s="25" t="s">
@@ -11948,13 +11964,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="B163" s="28" t="s">
+      <c r="C163" s="25" t="s">
         <v>804</v>
-      </c>
-      <c r="C163" s="25" t="s">
-        <v>805</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>72</v>
@@ -11978,7 +11994,9 @@
         <v>798</v>
       </c>
       <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="L163" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="M163" s="19"/>
       <c r="N163" s="20"/>
       <c r="O163" s="25" t="s">
@@ -12025,8 +12043,8 @@
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
-      <c r="M164" s="20"/>
-      <c r="N164" s="9"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="20"/>
       <c r="O164" s="25" t="s">
         <v>100</v>
       </c>
@@ -12042,7 +12060,7 @@
       <c r="A165" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="28" t="s">
         <v>810</v>
       </c>
       <c r="C165" s="25" t="s">
@@ -12071,8 +12089,8 @@
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
-      <c r="M165" s="20"/>
-      <c r="N165" s="9"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="20"/>
       <c r="O165" s="25" t="s">
         <v>100</v>
       </c>
@@ -12083,6 +12101,98 @@
         <v>101</v>
       </c>
       <c r="R165" s="19"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:18">
+      <c r="A166" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E166" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H166" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P166" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q166" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R166" s="19"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:18">
+      <c r="A167" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E167" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="H167" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P167" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q167" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="R167" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815">
   <si>
     <t>id</t>
   </si>
@@ -2460,15 +2460,6 @@
   </si>
   <si>
     <t>165</t>
-  </si>
-  <si>
-    <t>Tarte au fromage framboise</t>
-  </si>
-  <si>
-    <t>覆盆子芝士塔</t>
-  </si>
-  <si>
-    <t>166</t>
   </si>
   <si>
     <t>Match Cake</t>
@@ -4182,10 +4173,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+      <selection activeCell="A165" sqref="A165:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12148,52 +12139,6 @@
       </c>
       <c r="R166" s="19"/>
     </row>
-    <row r="167" customHeight="1" spans="1:18">
-      <c r="A167" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="B167" s="25" t="s">
-        <v>816</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E167" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G167" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H167" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="20"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="P167" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q167" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="R167" s="19"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B75" r:id="rId1" display="Suntory Whisky Toki Blended Whisky" tooltip="http://www.baidu.com/link?url=ws6cxNIhWmVA1gbrUgFMR62qAFpM_6JATWStakQnEQKhSBNYodQmeb88qGA0m-SOOk13BdAXFLY6N-jzc6ScdW-NuZ_ykdq6VbHmH_8D72tOJJrzR8BygWSxnfNnFjL5"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827">
   <si>
     <t>id</t>
   </si>
@@ -780,6 +780,9 @@
     <t>80</t>
   </si>
   <si>
+    <t>80/Glass</t>
+  </si>
+  <si>
     <t>Gin/Dolin dry</t>
   </si>
   <si>
@@ -810,7 +813,7 @@
     <t>金汤力</t>
   </si>
   <si>
-    <t>70</t>
+    <t>78</t>
   </si>
   <si>
     <t>78/Glass</t>
@@ -841,9 +844,6 @@
   </si>
   <si>
     <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>78</t>
   </si>
   <si>
     <t>Gin/Lime juice</t>
@@ -889,7 +889,10 @@
     <t>莫吉托</t>
   </si>
   <si>
-    <t>72/Glass</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/Glass</t>
   </si>
   <si>
     <t>Rum/Lime juice/Soda</t>
@@ -904,9 +907,6 @@
     <t>戴其力</t>
   </si>
   <si>
-    <t>76/Glass</t>
-  </si>
-  <si>
     <t>Rum/Limejuice</t>
   </si>
   <si>
@@ -922,6 +922,9 @@
     <t>90</t>
   </si>
   <si>
+    <t>90/Glass</t>
+  </si>
+  <si>
     <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
   </si>
   <si>
@@ -950,9 +953,6 @@
   </si>
   <si>
     <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>86/Glass</t>
   </si>
   <si>
     <t>Maker’s mark  Whiskey /lemon juice/Angostura bitters</t>
@@ -999,9 +999,6 @@
   </si>
   <si>
     <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>80/Glass</t>
   </si>
   <si>
     <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
@@ -2512,10 +2509,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -2555,7 +2552,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2568,15 +2572,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2599,17 +2642,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2636,47 +2672,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2690,18 +2694,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2714,7 +2711,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,7 +2753,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2744,7 +2789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,19 +2807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2780,13 +2837,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2798,103 +2879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2966,26 +2963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3007,35 +2995,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3055,149 +3017,184 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4260,8 +4257,8 @@
   <sheetPr/>
   <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5518,7 +5515,7 @@
         <v>253</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>0</v>
@@ -5534,10 +5531,10 @@
         <v>226</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>103</v>
@@ -5552,13 +5549,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>244</v>
@@ -5583,13 +5580,13 @@
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>103</v>
@@ -5607,10 +5604,10 @@
         <v>221</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>244</v>
@@ -5619,10 +5616,10 @@
         <v>96</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H26" s="15" t="b">
         <v>0</v>
@@ -5638,10 +5635,10 @@
         <v>208</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>103</v>
@@ -5659,10 +5656,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>244</v>
@@ -5674,7 +5671,7 @@
         <v>144</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="H27" s="15" t="b">
         <v>0</v>
@@ -5690,10 +5687,10 @@
         <v>188</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>103</v>
@@ -5708,13 +5705,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>244</v>
@@ -5723,10 +5720,10 @@
         <v>96</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H28" s="15" t="b">
         <v>0</v>
@@ -5827,10 +5824,10 @@
         <v>96</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H30" s="15" t="b">
         <v>0</v>
@@ -5879,10 +5876,10 @@
         <v>96</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
@@ -5898,10 +5895,10 @@
         <v>188</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>103</v>
@@ -5919,10 +5916,10 @@
         <v>62</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>244</v>
@@ -5931,10 +5928,10 @@
         <v>96</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
@@ -5986,7 +5983,7 @@
         <v>300</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H33" s="15" t="b">
         <v>0</v>
@@ -6002,16 +5999,16 @@
         <v>208</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q33" s="15" t="b">
         <v>1</v>
@@ -6023,10 +6020,10 @@
         <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>244</v>
@@ -6038,7 +6035,7 @@
         <v>144</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="H34" s="15" t="b">
         <v>0</v>
@@ -6054,10 +6051,10 @@
         <v>235</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>103</v>
@@ -6072,13 +6069,13 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>244</v>
@@ -6090,7 +6087,7 @@
         <v>144</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="H35" s="15" t="b">
         <v>0</v>
@@ -6142,7 +6139,7 @@
         <v>144</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="H36" s="15" t="b">
         <v>0</v>
@@ -6194,7 +6191,7 @@
         <v>253</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="H37" s="15" t="b">
         <v>0</v>
@@ -6246,7 +6243,7 @@
         <v>144</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="H38" s="15" t="b">
         <v>0</v>
@@ -6262,10 +6259,10 @@
         <v>188</v>
       </c>
       <c r="M38" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="N38" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>103</v>
@@ -6283,10 +6280,10 @@
         <v>128</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>244</v>
@@ -6298,7 +6295,7 @@
         <v>253</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="H39" s="15" t="b">
         <v>0</v>
@@ -6311,13 +6308,13 @@
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="N39" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="N39" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>103</v>
@@ -6332,13 +6329,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>244</v>
@@ -6350,7 +6347,7 @@
         <v>144</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="H40" s="15" t="b">
         <v>0</v>
@@ -6366,10 +6363,10 @@
         <v>235</v>
       </c>
       <c r="M40" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="N40" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>339</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>103</v>
@@ -6387,10 +6384,10 @@
         <v>229</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>244</v>
@@ -6399,10 +6396,10 @@
         <v>96</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="H41" s="15" t="b">
         <v>0</v>
@@ -6418,10 +6415,10 @@
         <v>188</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="N41" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>103</v>
@@ -6436,13 +6433,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>244</v>
@@ -6454,7 +6451,7 @@
         <v>300</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H42" s="15" t="b">
         <v>0</v>
@@ -6470,10 +6467,10 @@
         <v>188</v>
       </c>
       <c r="M42" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="N42" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>103</v>
@@ -6491,22 +6488,22 @@
         <v>158</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="E43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="H43" s="15" t="b">
         <v>0</v>
@@ -6534,25 +6531,25 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="H44" s="15" t="b">
         <v>0</v>
@@ -6580,25 +6577,25 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="H45" s="15" t="b">
         <v>0</v>
@@ -6626,25 +6623,25 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="H46" s="15" t="b">
         <v>0</v>
@@ -6672,25 +6669,25 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>373</v>
-      </c>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="H47" s="15" t="b">
         <v>0</v>
@@ -6718,25 +6715,25 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="D48" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F48" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="H48" s="15" t="b">
         <v>0</v>
@@ -6764,25 +6761,25 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="G49" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>381</v>
       </c>
       <c r="H49" s="15" t="b">
         <v>0</v>
@@ -6810,25 +6807,25 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>385</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>386</v>
       </c>
       <c r="H50" s="15" t="b">
         <v>0</v>
@@ -6856,25 +6853,25 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>390</v>
       </c>
       <c r="H51" s="15" t="b">
         <v>0</v>
@@ -6902,25 +6899,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="G52" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>395</v>
       </c>
       <c r="H52" s="15" t="b">
         <v>0</v>
@@ -6951,22 +6948,22 @@
         <v>107</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="H53" s="15" t="b">
         <v>0</v>
@@ -6994,25 +6991,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>404</v>
       </c>
       <c r="H54" s="15" t="b">
         <v>0</v>
@@ -7040,13 +7037,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>34</v>
@@ -7058,7 +7055,7 @@
         <v>860</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H55" s="15" t="b">
         <v>0</v>
@@ -7086,13 +7083,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>410</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>34</v>
@@ -7104,7 +7101,7 @@
         <v>960</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H56" s="15" t="b">
         <v>0</v>
@@ -7135,10 +7132,10 @@
         <v>114</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>34</v>
@@ -7150,7 +7147,7 @@
         <v>860</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H57" s="15" t="b">
         <v>0</v>
@@ -7178,13 +7175,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>34</v>
@@ -7196,7 +7193,7 @@
         <v>1080</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H58" s="15" t="b">
         <v>0</v>
@@ -7227,10 +7224,10 @@
         <v>120</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>34</v>
@@ -7242,7 +7239,7 @@
         <v>1180</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H59" s="15" t="b">
         <v>0</v>
@@ -7270,13 +7267,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>34</v>
@@ -7288,7 +7285,7 @@
         <v>1080</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H60" s="15" t="b">
         <v>0</v>
@@ -7316,13 +7313,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>34</v>
@@ -7334,7 +7331,7 @@
         <v>1100</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H61" s="15" t="b">
         <v>0</v>
@@ -7362,16 +7359,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>96</v>
@@ -7380,7 +7377,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H62" s="15" t="b">
         <v>0</v>
@@ -7408,13 +7405,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>435</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>34</v>
@@ -7426,7 +7423,7 @@
         <v>1100</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H63" s="15" t="b">
         <v>0</v>
@@ -7454,13 +7451,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="C64" s="12" t="s">
         <v>437</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>438</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>34</v>
@@ -7472,7 +7469,7 @@
         <v>1180</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H64" s="15" t="b">
         <v>0</v>
@@ -7500,13 +7497,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>34</v>
@@ -7518,7 +7515,7 @@
         <v>880</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H65" s="15" t="b">
         <v>0</v>
@@ -7546,13 +7543,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>34</v>
@@ -7564,7 +7561,7 @@
         <v>1280</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H66" s="15" t="b">
         <v>0</v>
@@ -7592,16 +7589,16 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>96</v>
@@ -7610,7 +7607,7 @@
         <v>880</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H67" s="15" t="b">
         <v>0</v>
@@ -7638,13 +7635,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
@@ -7656,7 +7653,7 @@
         <v>1100</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H68" s="15" t="b">
         <v>0</v>
@@ -7687,10 +7684,10 @@
         <v>97</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>37</v>
@@ -7702,7 +7699,7 @@
         <v>2650</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H69" s="15" t="b">
         <v>0</v>
@@ -7730,13 +7727,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>37</v>
@@ -7748,7 +7745,7 @@
         <v>880</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H70" s="15" t="b">
         <v>0</v>
@@ -7776,13 +7773,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>37</v>
@@ -7794,7 +7791,7 @@
         <v>1050</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H71" s="15" t="b">
         <v>0</v>
@@ -7822,13 +7819,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>37</v>
@@ -7840,7 +7837,7 @@
         <v>880</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H72" s="15" t="b">
         <v>0</v>
@@ -7868,13 +7865,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
@@ -7886,7 +7883,7 @@
         <v>1700</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H73" s="15" t="b">
         <v>0</v>
@@ -7914,13 +7911,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>40</v>
@@ -7932,7 +7929,7 @@
         <v>880</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H74" s="15" t="b">
         <v>0</v>
@@ -7960,13 +7957,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>40</v>
@@ -7978,7 +7975,7 @@
         <v>1400</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H75" s="15" t="b">
         <v>0</v>
@@ -8006,13 +8003,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="C76" s="11" t="s">
         <v>482</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>483</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>40</v>
@@ -8024,7 +8021,7 @@
         <v>1800</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H76" s="15" t="b">
         <v>0</v>
@@ -8052,13 +8049,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="C77" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>487</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>40</v>
@@ -8070,7 +8067,7 @@
         <v>1080</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H77" s="15" t="b">
         <v>0</v>
@@ -8098,13 +8095,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="C78" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>491</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>40</v>
@@ -8116,7 +8113,7 @@
         <v>1550</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H78" s="15" t="b">
         <v>0</v>
@@ -8144,13 +8141,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>493</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>494</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>40</v>
@@ -8162,7 +8159,7 @@
         <v>2050</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H79" s="15" t="b">
         <v>0</v>
@@ -8190,13 +8187,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B80" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="C80" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>498</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>40</v>
@@ -8208,7 +8205,7 @@
         <v>2850</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H80" s="15" t="b">
         <v>0</v>
@@ -8239,10 +8236,10 @@
         <v>253</v>
       </c>
       <c r="B81" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>500</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>501</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>40</v>
@@ -8254,7 +8251,7 @@
         <v>900</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H81" s="15" t="b">
         <v>0</v>
@@ -8282,13 +8279,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B82" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="C82" s="11" t="s">
         <v>504</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>505</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>40</v>
@@ -8300,7 +8297,7 @@
         <v>1650</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H82" s="15" t="b">
         <v>0</v>
@@ -8328,13 +8325,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="C83" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>509</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>40</v>
@@ -8346,7 +8343,7 @@
         <v>2350</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H83" s="15" t="b">
         <v>0</v>
@@ -8374,13 +8371,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="C84" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>40</v>
@@ -8392,7 +8389,7 @@
         <v>2180</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H84" s="15" t="b">
         <v>0</v>
@@ -8420,13 +8417,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="C85" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>517</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>40</v>
@@ -8438,7 +8435,7 @@
         <v>4980</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H85" s="15" t="b">
         <v>0</v>
@@ -8466,13 +8463,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="C86" s="11" t="s">
         <v>520</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>521</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>40</v>
@@ -8484,7 +8481,7 @@
         <v>17800</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
@@ -8512,13 +8509,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="C87" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -8530,7 +8527,7 @@
         <v>2080</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -8558,13 +8555,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B88" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="C88" s="11" t="s">
         <v>528</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>529</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -8576,7 +8573,7 @@
         <v>4880</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -8607,10 +8604,10 @@
         <v>144</v>
       </c>
       <c r="B89" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>531</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>532</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -8622,7 +8619,7 @@
         <v>17800</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
@@ -8650,13 +8647,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B90" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="C90" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>535</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -8668,7 +8665,7 @@
         <v>2180</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -8699,10 +8696,10 @@
         <v>300</v>
       </c>
       <c r="B91" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>537</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>40</v>
@@ -8714,7 +8711,7 @@
         <v>9800</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
@@ -8742,13 +8739,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="C92" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>542</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>40</v>
@@ -8760,7 +8757,7 @@
         <v>15000</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
@@ -8788,13 +8785,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="11" t="s">
         <v>545</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>546</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>40</v>
@@ -8806,7 +8803,7 @@
         <v>2080</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -8834,13 +8831,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="C94" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>40</v>
@@ -8852,7 +8849,7 @@
         <v>11000</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
@@ -8880,16 +8877,16 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>96</v>
@@ -8898,7 +8895,7 @@
         <v>1080</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -8926,13 +8923,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B96" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="C96" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>558</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>43</v>
@@ -8944,7 +8941,7 @@
         <v>980</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -8972,13 +8969,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="C97" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>562</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>43</v>
@@ -8990,7 +8987,7 @@
         <v>1180</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -9018,13 +9015,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="C98" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>566</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>43</v>
@@ -9036,7 +9033,7 @@
         <v>1280</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -9067,10 +9064,10 @@
         <v>232</v>
       </c>
       <c r="B99" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>569</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>43</v>
@@ -9082,7 +9079,7 @@
         <v>2400</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9110,13 +9107,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B100" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="C100" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>43</v>
@@ -9128,7 +9125,7 @@
         <v>3880</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9156,13 +9153,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="C101" s="11" t="s">
         <v>576</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>577</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>43</v>
@@ -9174,7 +9171,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9202,13 +9199,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="C102" s="11" t="s">
         <v>579</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>580</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>43</v>
@@ -9220,7 +9217,7 @@
         <v>1180</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9248,13 +9245,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="C103" s="11" t="s">
         <v>582</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>583</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>43</v>
@@ -9266,7 +9263,7 @@
         <v>880</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9294,13 +9291,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="11" t="s">
         <v>586</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>587</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>43</v>
@@ -9312,7 +9309,7 @@
         <v>1480</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9340,13 +9337,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="C105" s="11" t="s">
         <v>590</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>591</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>43</v>
@@ -9358,7 +9355,7 @@
         <v>3680</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -9386,13 +9383,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B106" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="C106" s="11" t="s">
         <v>594</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>595</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>43</v>
@@ -9404,7 +9401,7 @@
         <v>1180</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -9432,13 +9429,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B107" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="C107" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>598</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>43</v>
@@ -9450,7 +9447,7 @@
         <v>2380</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -9478,13 +9475,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B108" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>46</v>
@@ -9496,7 +9493,7 @@
         <v>1380</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -9524,13 +9521,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B109" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="C109" s="11" t="s">
         <v>605</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>606</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>46</v>
@@ -9542,7 +9539,7 @@
         <v>1180</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H109" s="15" t="b">
         <v>0</v>
@@ -9570,13 +9567,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B110" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="C110" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>609</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>46</v>
@@ -9588,7 +9585,7 @@
         <v>1680</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -9616,13 +9613,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B111" s="23" t="s">
         <v>611</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="C111" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>613</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>46</v>
@@ -9634,7 +9631,7 @@
         <v>2180</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H111" s="15" t="b">
         <v>0</v>
@@ -9662,13 +9659,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B112" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="C112" s="11" t="s">
         <v>615</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>616</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>46</v>
@@ -9680,7 +9677,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -9708,13 +9705,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B113" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="C113" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
@@ -9726,7 +9723,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -9754,13 +9751,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>623</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>46</v>
@@ -9772,7 +9769,7 @@
         <v>1080</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H114" s="15" t="b">
         <v>0</v>
@@ -9800,13 +9797,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="C115" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>626</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>46</v>
@@ -9818,7 +9815,7 @@
         <v>1880</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -9846,13 +9843,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>630</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>46</v>
@@ -9864,7 +9861,7 @@
         <v>2680</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -9892,13 +9889,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B117" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="C117" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>46</v>
@@ -9910,7 +9907,7 @@
         <v>1380</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -9938,13 +9935,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B118" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="C118" s="11" t="s">
         <v>637</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>638</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>46</v>
@@ -9956,7 +9953,7 @@
         <v>1480</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -9984,13 +9981,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B119" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="11" t="s">
         <v>641</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>642</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>49</v>
@@ -10002,7 +9999,7 @@
         <v>1580</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -10030,13 +10027,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B120" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="C120" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>49</v>
@@ -10048,7 +10045,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -10076,13 +10073,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B121" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="C121" s="11" t="s">
         <v>648</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>649</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>49</v>
@@ -10094,7 +10091,7 @@
         <v>1380</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10122,13 +10119,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B122" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="C122" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>653</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>49</v>
@@ -10140,7 +10137,7 @@
         <v>1580</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10168,13 +10165,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B123" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="C123" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>49</v>
@@ -10186,7 +10183,7 @@
         <v>880</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10214,13 +10211,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="B124" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="C124" s="11" t="s">
         <v>659</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>660</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>49</v>
@@ -10232,7 +10229,7 @@
         <v>2380</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10260,13 +10257,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>52</v>
@@ -10278,7 +10275,7 @@
         <v>880</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10306,13 +10303,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>665</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>666</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>52</v>
@@ -10324,7 +10321,7 @@
         <v>780</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -10352,13 +10349,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="11" t="s">
         <v>669</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>670</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>52</v>
@@ -10370,7 +10367,7 @@
         <v>780</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -10398,13 +10395,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>52</v>
@@ -10416,7 +10413,7 @@
         <v>880</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -10444,13 +10441,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>52</v>
@@ -10462,7 +10459,7 @@
         <v>1280</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -10490,13 +10487,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>678</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>679</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>52</v>
@@ -10508,7 +10505,7 @@
         <v>1780</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -10536,13 +10533,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>682</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>683</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>52</v>
@@ -10554,7 +10551,7 @@
         <v>1180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -10582,13 +10579,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="C132" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>686</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>52</v>
@@ -10600,7 +10597,7 @@
         <v>1280</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -10628,13 +10625,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>689</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>52</v>
@@ -10646,7 +10643,7 @@
         <v>1780</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -10674,13 +10671,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>693</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>52</v>
@@ -10692,7 +10689,7 @@
         <v>2480</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -10720,13 +10717,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B135" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="C135" s="11" t="s">
         <v>696</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>697</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>52</v>
@@ -10738,7 +10735,7 @@
         <v>1180</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H135" s="15" t="b">
         <v>0</v>
@@ -10766,13 +10763,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B136" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="C136" s="11" t="s">
         <v>699</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>700</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>52</v>
@@ -10784,7 +10781,7 @@
         <v>980</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -10812,13 +10809,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B137" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="C137" s="11" t="s">
         <v>702</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>703</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>52</v>
@@ -10830,7 +10827,7 @@
         <v>1650</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -10858,13 +10855,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B138" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="C138" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>707</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>52</v>
@@ -10876,7 +10873,7 @@
         <v>1100</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -10904,13 +10901,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B139" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="C139" s="11" t="s">
         <v>710</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>711</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>52</v>
@@ -10922,7 +10919,7 @@
         <v>980</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -10950,13 +10947,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B140" s="23" t="s">
         <v>712</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="C140" s="11" t="s">
         <v>713</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>714</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>52</v>
@@ -10968,7 +10965,7 @@
         <v>1080</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H140" s="15" t="b">
         <v>0</v>
@@ -10996,13 +10993,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B141" s="23" t="s">
         <v>715</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="C141" s="11" t="s">
         <v>716</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>717</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>52</v>
@@ -11014,7 +11011,7 @@
         <v>1680</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -11042,13 +11039,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B142" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="C142" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>721</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>52</v>
@@ -11060,7 +11057,7 @@
         <v>980</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -11088,13 +11085,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="C143" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>724</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>52</v>
@@ -11106,7 +11103,7 @@
         <v>1080</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11134,13 +11131,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="C144" s="11" t="s">
         <v>727</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>728</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>52</v>
@@ -11152,7 +11149,7 @@
         <v>1480</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11180,13 +11177,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B145" s="23" t="s">
         <v>730</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="C145" s="11" t="s">
         <v>731</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>732</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>52</v>
@@ -11198,7 +11195,7 @@
         <v>3480</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11226,13 +11223,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="B146" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="C146" s="11" t="s">
         <v>735</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>736</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>52</v>
@@ -11244,7 +11241,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11272,13 +11269,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B147" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="C147" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>739</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>52</v>
@@ -11290,7 +11287,7 @@
         <v>1680</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11318,13 +11315,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B148" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="C148" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>52</v>
@@ -11336,7 +11333,7 @@
         <v>2680</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -11364,13 +11361,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B149" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="C149" s="11" t="s">
         <v>744</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>745</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>52</v>
@@ -11382,7 +11379,7 @@
         <v>3680</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -11410,13 +11407,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B150" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="C150" s="11" t="s">
         <v>748</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>749</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>52</v>
@@ -11428,7 +11425,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H150" s="15" t="b">
         <v>0</v>
@@ -11456,13 +11453,13 @@
     </row>
     <row r="151" customFormat="1" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B151" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="C151" s="11" t="s">
         <v>751</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>752</v>
       </c>
       <c r="D151" s="25" t="s">
         <v>55</v>
@@ -11474,7 +11471,7 @@
         <v>28</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -11502,13 +11499,13 @@
     </row>
     <row r="152" customFormat="1" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B152" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="C152" s="11" t="s">
         <v>755</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>756</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>55</v>
@@ -11520,7 +11517,7 @@
         <v>35</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -11548,13 +11545,13 @@
     </row>
     <row r="153" customFormat="1" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B153" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="B153" s="23" t="s">
+      <c r="C153" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>760</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>55</v>
@@ -11566,7 +11563,7 @@
         <v>30</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H153" s="15" t="b">
         <v>0</v>
@@ -11594,13 +11591,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B154" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="C154" s="25" t="s">
         <v>763</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>764</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>62</v>
@@ -11612,28 +11609,28 @@
         <v>114</v>
       </c>
       <c r="G154" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="H154" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="H154" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="9" t="s">
+      <c r="K154" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="K154" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="L154" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M154" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="N154" s="20" t="s">
         <v>768</v>
-      </c>
-      <c r="N154" s="20" t="s">
-        <v>769</v>
       </c>
       <c r="O154" s="9" t="s">
         <v>103</v>
@@ -11648,13 +11645,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B155" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="B155" s="27" t="s">
+      <c r="C155" s="25" t="s">
         <v>771</v>
-      </c>
-      <c r="C155" s="25" t="s">
-        <v>772</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>62</v>
@@ -11666,28 +11663,28 @@
         <v>114</v>
       </c>
       <c r="G155" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="H155" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="H155" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="9" t="s">
-        <v>766</v>
-      </c>
       <c r="K155" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M155" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="N155" s="20" t="s">
         <v>774</v>
-      </c>
-      <c r="N155" s="20" t="s">
-        <v>775</v>
       </c>
       <c r="O155" s="9" t="s">
         <v>103</v>
@@ -11702,13 +11699,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B156" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="B156" s="25" t="s">
+      <c r="C156" s="25" t="s">
         <v>777</v>
-      </c>
-      <c r="C156" s="25" t="s">
-        <v>778</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>62</v>
@@ -11720,28 +11717,28 @@
         <v>114</v>
       </c>
       <c r="G156" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="H156" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="H156" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="9" t="s">
-        <v>766</v>
-      </c>
       <c r="K156" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M156" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="N156" s="20" t="s">
         <v>780</v>
-      </c>
-      <c r="N156" s="20" t="s">
-        <v>781</v>
       </c>
       <c r="O156" s="9" t="s">
         <v>103</v>
@@ -11756,13 +11753,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B157" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="B157" s="25" t="s">
+      <c r="C157" s="25" t="s">
         <v>783</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>784</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>62</v>
@@ -11774,28 +11771,28 @@
         <v>114</v>
       </c>
       <c r="G157" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="H157" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="H157" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="25" t="s">
-        <v>766</v>
-      </c>
       <c r="K157" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L157" s="25" t="s">
         <v>188</v>
       </c>
       <c r="M157" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="N157" s="20" t="s">
         <v>786</v>
-      </c>
-      <c r="N157" s="20" t="s">
-        <v>787</v>
       </c>
       <c r="O157" s="25" t="s">
         <v>103</v>
@@ -11810,13 +11807,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B158" s="25" t="s">
         <v>788</v>
       </c>
-      <c r="B158" s="25" t="s">
+      <c r="C158" s="25" t="s">
         <v>789</v>
-      </c>
-      <c r="C158" s="25" t="s">
-        <v>790</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>65</v>
@@ -11828,7 +11825,7 @@
         <v>203</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H158" s="22" t="b">
         <v>0</v>
@@ -11837,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -11856,13 +11853,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B159" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B159" s="25" t="s">
+      <c r="C159" s="25" t="s">
         <v>793</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>794</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>65</v>
@@ -11874,7 +11871,7 @@
         <v>244</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H159" s="22" t="b">
         <v>0</v>
@@ -11883,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -11902,13 +11899,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B160" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="B160" s="25" t="s">
+      <c r="C160" s="25" t="s">
         <v>797</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>798</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>68</v>
@@ -11920,7 +11917,7 @@
         <v>203</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H160" s="22" t="b">
         <v>0</v>
@@ -11929,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -11948,13 +11945,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B161" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="C161" s="25" t="s">
         <v>800</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>801</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>68</v>
@@ -11966,7 +11963,7 @@
         <v>203</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H161" s="22" t="b">
         <v>0</v>
@@ -11975,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -11994,13 +11991,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B162" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="B162" s="25" t="s">
+      <c r="C162" s="25" t="s">
         <v>803</v>
-      </c>
-      <c r="C162" s="25" t="s">
-        <v>804</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>68</v>
@@ -12012,7 +12009,7 @@
         <v>203</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H162" s="22" t="b">
         <v>0</v>
@@ -12021,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -12040,13 +12037,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B163" s="25" t="s">
         <v>805</v>
       </c>
-      <c r="B163" s="25" t="s">
+      <c r="C163" s="25" t="s">
         <v>806</v>
-      </c>
-      <c r="C163" s="25" t="s">
-        <v>807</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>68</v>
@@ -12058,7 +12055,7 @@
         <v>243</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H163" s="22" t="b">
         <v>0</v>
@@ -12067,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -12086,13 +12083,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B164" s="25" t="s">
         <v>808</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="C164" s="25" t="s">
         <v>809</v>
-      </c>
-      <c r="C164" s="25" t="s">
-        <v>810</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>75</v>
@@ -12113,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="28"/>
@@ -12132,13 +12129,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B165" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="C165" s="25" t="s">
         <v>813</v>
-      </c>
-      <c r="C165" s="25" t="s">
-        <v>814</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>75</v>
@@ -12159,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="28"/>
@@ -12178,13 +12175,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B166" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="C166" s="25" t="s">
         <v>816</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>817</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>75</v>
@@ -12205,11 +12202,11 @@
         <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K166" s="9"/>
       <c r="L166" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M166" s="19"/>
       <c r="N166" s="20"/>
@@ -12226,13 +12223,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B167" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="C167" s="25" t="s">
         <v>820</v>
-      </c>
-      <c r="C167" s="25" t="s">
-        <v>821</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>75</v>
@@ -12253,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -12272,13 +12269,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B168" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="B168" s="28" t="s">
+      <c r="C168" s="25" t="s">
         <v>823</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>824</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>75</v>
@@ -12299,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -12318,13 +12315,13 @@
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B169" s="25" t="s">
         <v>825</v>
       </c>
-      <c r="B169" s="25" t="s">
+      <c r="C169" s="25" t="s">
         <v>826</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>827</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>75</v>
@@ -12345,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829">
   <si>
     <t>id</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>images/product/cocktail/Ramonth_Gin fizz.png</t>
+  </si>
+  <si>
+    <t>Beefeater Gin/Giffard curacao blue liqueur/Cream/Chocolate bitters/lemon juice/Vanilla syrup</t>
+  </si>
+  <si>
+    <t>必富达金酒/蓝橙利口酒/奶油/巧克力苦精/柠檬汁/香草糖浆</t>
   </si>
   <si>
     <t>25</t>
@@ -4257,8 +4263,8 @@
   <sheetPr/>
   <dimension ref="A1:R169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5263,16 +5269,16 @@
         <v>188</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="15" t="b">
         <v>1</v>
@@ -5281,13 +5287,13 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>184</v>
@@ -5311,22 +5317,22 @@
         <v>186</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="15" t="s">
         <v>104</v>
@@ -5338,10 +5344,10 @@
         <v>203</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>184</v>
@@ -5350,10 +5356,10 @@
         <v>96</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H21" s="15" t="b">
         <v>0</v>
@@ -5365,22 +5371,22 @@
         <v>186</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="15" t="b">
         <v>1</v>
@@ -5392,10 +5398,10 @@
         <v>184</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>184</v>
@@ -5419,22 +5425,22 @@
         <v>186</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="15" t="b">
         <v>1</v>
@@ -5443,13 +5449,13 @@
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>184</v>
@@ -5473,16 +5479,16 @@
         <v>186</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>208</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>103</v>
@@ -5497,25 +5503,25 @@
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H24" s="15" t="b">
         <v>0</v>
@@ -5528,19 +5534,19 @@
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q24" s="15" t="s">
         <v>104</v>
@@ -5549,16 +5555,16 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>96</v>
@@ -5580,19 +5586,19 @@
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q25" s="15" t="b">
         <v>1</v>
@@ -5601,25 +5607,25 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H26" s="15" t="b">
         <v>0</v>
@@ -5635,10 +5641,10 @@
         <v>208</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>103</v>
@@ -5656,13 +5662,13 @@
         <v>55</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>96</v>
@@ -5687,16 +5693,16 @@
         <v>188</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q27" s="15" t="b">
         <v>1</v>
@@ -5705,25 +5711,25 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H28" s="15" t="b">
         <v>0</v>
@@ -5739,16 +5745,16 @@
         <v>208</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="15" t="b">
         <v>1</v>
@@ -5760,13 +5766,13 @@
         <v>136</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>96</v>
@@ -5788,13 +5794,13 @@
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>103</v>
@@ -5809,25 +5815,25 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H30" s="15" t="b">
         <v>0</v>
@@ -5843,10 +5849,10 @@
         <v>188</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>103</v>
@@ -5861,25 +5867,25 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
@@ -5895,10 +5901,10 @@
         <v>188</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>103</v>
@@ -5916,22 +5922,22 @@
         <v>62</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
@@ -5947,16 +5953,16 @@
         <v>188</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -5968,22 +5974,22 @@
         <v>65</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H33" s="15" t="b">
         <v>0</v>
@@ -5999,16 +6005,16 @@
         <v>208</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="15" t="b">
         <v>1</v>
@@ -6020,13 +6026,13 @@
         <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>96</v>
@@ -6048,19 +6054,19 @@
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -6069,16 +6075,16 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>96</v>
@@ -6103,10 +6109,10 @@
         <v>208</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>103</v>
@@ -6121,16 +6127,16 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>96</v>
@@ -6152,19 +6158,19 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="15" t="b">
         <v>1</v>
@@ -6173,25 +6179,25 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H37" s="15" t="b">
         <v>0</v>
@@ -6207,10 +6213,10 @@
         <v>188</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>103</v>
@@ -6225,16 +6231,16 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>96</v>
@@ -6259,16 +6265,16 @@
         <v>188</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q38" s="15" t="b">
         <v>1</v>
@@ -6280,22 +6286,22 @@
         <v>128</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H39" s="15" t="b">
         <v>0</v>
@@ -6308,13 +6314,13 @@
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>103</v>
@@ -6329,16 +6335,16 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>96</v>
@@ -6360,19 +6366,19 @@
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q40" s="15" t="b">
         <v>1</v>
@@ -6381,22 +6387,22 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>185</v>
@@ -6415,16 +6421,16 @@
         <v>188</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="22" t="s">
         <v>104</v>
@@ -6433,25 +6439,25 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H42" s="15" t="b">
         <v>0</v>
@@ -6467,16 +6473,16 @@
         <v>188</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O42" s="9" t="s">
         <v>103</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q42" s="22" t="s">
         <v>104</v>
@@ -6488,22 +6494,22 @@
         <v>158</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H43" s="15" t="b">
         <v>0</v>
@@ -6531,25 +6537,25 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H44" s="15" t="b">
         <v>0</v>
@@ -6577,25 +6583,25 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H45" s="15" t="b">
         <v>0</v>
@@ -6623,25 +6629,25 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H46" s="15" t="b">
         <v>0</v>
@@ -6669,25 +6675,25 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H47" s="15" t="b">
         <v>0</v>
@@ -6715,25 +6721,25 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="E48" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H48" s="15" t="b">
         <v>0</v>
@@ -6761,25 +6767,25 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H49" s="15" t="b">
         <v>0</v>
@@ -6807,25 +6813,25 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H50" s="15" t="b">
         <v>0</v>
@@ -6853,25 +6859,25 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="E51" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H51" s="15" t="b">
         <v>0</v>
@@ -6899,25 +6905,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H52" s="15" t="b">
         <v>0</v>
@@ -6948,22 +6954,22 @@
         <v>107</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H53" s="15" t="b">
         <v>0</v>
@@ -6991,25 +6997,25 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H54" s="15" t="b">
         <v>0</v>
@@ -7037,13 +7043,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>34</v>
@@ -7055,7 +7061,7 @@
         <v>860</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H55" s="15" t="b">
         <v>0</v>
@@ -7083,13 +7089,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>34</v>
@@ -7101,7 +7107,7 @@
         <v>960</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H56" s="15" t="b">
         <v>0</v>
@@ -7132,10 +7138,10 @@
         <v>114</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>34</v>
@@ -7147,7 +7153,7 @@
         <v>860</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H57" s="15" t="b">
         <v>0</v>
@@ -7175,13 +7181,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>34</v>
@@ -7193,7 +7199,7 @@
         <v>1080</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H58" s="15" t="b">
         <v>0</v>
@@ -7224,10 +7230,10 @@
         <v>120</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>34</v>
@@ -7239,7 +7245,7 @@
         <v>1180</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H59" s="15" t="b">
         <v>0</v>
@@ -7267,13 +7273,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>34</v>
@@ -7285,7 +7291,7 @@
         <v>1080</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H60" s="15" t="b">
         <v>0</v>
@@ -7313,13 +7319,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>34</v>
@@ -7331,7 +7337,7 @@
         <v>1100</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H61" s="15" t="b">
         <v>0</v>
@@ -7359,16 +7365,16 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>96</v>
@@ -7377,7 +7383,7 @@
         <v>1100</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H62" s="15" t="b">
         <v>0</v>
@@ -7405,13 +7411,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>34</v>
@@ -7423,7 +7429,7 @@
         <v>1100</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H63" s="15" t="b">
         <v>0</v>
@@ -7451,13 +7457,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>34</v>
@@ -7469,7 +7475,7 @@
         <v>1180</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H64" s="15" t="b">
         <v>0</v>
@@ -7497,13 +7503,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>34</v>
@@ -7515,7 +7521,7 @@
         <v>880</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H65" s="15" t="b">
         <v>0</v>
@@ -7543,13 +7549,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>34</v>
@@ -7561,7 +7567,7 @@
         <v>1280</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H66" s="15" t="b">
         <v>0</v>
@@ -7589,16 +7595,16 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>96</v>
@@ -7607,7 +7613,7 @@
         <v>880</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H67" s="15" t="b">
         <v>0</v>
@@ -7635,13 +7641,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>37</v>
@@ -7653,7 +7659,7 @@
         <v>1100</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H68" s="15" t="b">
         <v>0</v>
@@ -7684,10 +7690,10 @@
         <v>97</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>37</v>
@@ -7699,7 +7705,7 @@
         <v>2650</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H69" s="15" t="b">
         <v>0</v>
@@ -7727,13 +7733,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>37</v>
@@ -7745,7 +7751,7 @@
         <v>880</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H70" s="15" t="b">
         <v>0</v>
@@ -7773,13 +7779,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>37</v>
@@ -7791,7 +7797,7 @@
         <v>1050</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H71" s="15" t="b">
         <v>0</v>
@@ -7819,13 +7825,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>37</v>
@@ -7837,7 +7843,7 @@
         <v>880</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H72" s="15" t="b">
         <v>0</v>
@@ -7865,13 +7871,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>37</v>
@@ -7883,7 +7889,7 @@
         <v>1700</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H73" s="15" t="b">
         <v>0</v>
@@ -7911,13 +7917,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>40</v>
@@ -7929,7 +7935,7 @@
         <v>880</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H74" s="15" t="b">
         <v>0</v>
@@ -7957,13 +7963,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>40</v>
@@ -7975,7 +7981,7 @@
         <v>1400</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H75" s="15" t="b">
         <v>0</v>
@@ -8003,13 +8009,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>40</v>
@@ -8021,7 +8027,7 @@
         <v>1800</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H76" s="15" t="b">
         <v>0</v>
@@ -8049,13 +8055,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>40</v>
@@ -8067,7 +8073,7 @@
         <v>1080</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H77" s="15" t="b">
         <v>0</v>
@@ -8095,13 +8101,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>40</v>
@@ -8113,7 +8119,7 @@
         <v>1550</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H78" s="15" t="b">
         <v>0</v>
@@ -8141,13 +8147,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>40</v>
@@ -8159,7 +8165,7 @@
         <v>2050</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H79" s="15" t="b">
         <v>0</v>
@@ -8187,13 +8193,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>40</v>
@@ -8205,7 +8211,7 @@
         <v>2850</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H80" s="15" t="b">
         <v>0</v>
@@ -8233,13 +8239,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>40</v>
@@ -8251,7 +8257,7 @@
         <v>900</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H81" s="15" t="b">
         <v>0</v>
@@ -8279,13 +8285,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>40</v>
@@ -8297,7 +8303,7 @@
         <v>1650</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H82" s="15" t="b">
         <v>0</v>
@@ -8325,13 +8331,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>40</v>
@@ -8343,7 +8349,7 @@
         <v>2350</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H83" s="15" t="b">
         <v>0</v>
@@ -8371,13 +8377,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>40</v>
@@ -8389,7 +8395,7 @@
         <v>2180</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H84" s="15" t="b">
         <v>0</v>
@@ -8417,13 +8423,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>40</v>
@@ -8435,7 +8441,7 @@
         <v>4980</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H85" s="15" t="b">
         <v>0</v>
@@ -8463,13 +8469,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>40</v>
@@ -8481,7 +8487,7 @@
         <v>17800</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H86" s="15" t="b">
         <v>0</v>
@@ -8509,13 +8515,13 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -8527,7 +8533,7 @@
         <v>2080</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H87" s="15" t="b">
         <v>0</v>
@@ -8555,13 +8561,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -8573,7 +8579,7 @@
         <v>4880</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H88" s="15" t="b">
         <v>0</v>
@@ -8604,10 +8610,10 @@
         <v>144</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -8619,7 +8625,7 @@
         <v>17800</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H89" s="15" t="b">
         <v>0</v>
@@ -8647,13 +8653,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -8665,7 +8671,7 @@
         <v>2180</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H90" s="15" t="b">
         <v>0</v>
@@ -8693,13 +8699,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>40</v>
@@ -8711,7 +8717,7 @@
         <v>9800</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H91" s="15" t="b">
         <v>0</v>
@@ -8739,13 +8745,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>40</v>
@@ -8757,7 +8763,7 @@
         <v>15000</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H92" s="15" t="b">
         <v>0</v>
@@ -8785,13 +8791,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>40</v>
@@ -8803,7 +8809,7 @@
         <v>2080</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H93" s="15" t="b">
         <v>0</v>
@@ -8831,13 +8837,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>40</v>
@@ -8849,7 +8855,7 @@
         <v>11000</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H94" s="15" t="b">
         <v>0</v>
@@ -8877,16 +8883,16 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>96</v>
@@ -8895,7 +8901,7 @@
         <v>1080</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H95" s="15" t="b">
         <v>0</v>
@@ -8923,13 +8929,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>43</v>
@@ -8941,7 +8947,7 @@
         <v>980</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H96" s="15" t="b">
         <v>0</v>
@@ -8969,13 +8975,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>43</v>
@@ -8987,7 +8993,7 @@
         <v>1180</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H97" s="15" t="b">
         <v>0</v>
@@ -9015,13 +9021,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>43</v>
@@ -9033,7 +9039,7 @@
         <v>1280</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H98" s="15" t="b">
         <v>0</v>
@@ -9061,13 +9067,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>43</v>
@@ -9079,7 +9085,7 @@
         <v>2400</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H99" s="15" t="b">
         <v>0</v>
@@ -9107,13 +9113,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>43</v>
@@ -9125,7 +9131,7 @@
         <v>3880</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H100" s="15" t="b">
         <v>0</v>
@@ -9153,13 +9159,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>43</v>
@@ -9171,7 +9177,7 @@
         <v>980</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H101" s="15" t="b">
         <v>0</v>
@@ -9199,13 +9205,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>43</v>
@@ -9217,7 +9223,7 @@
         <v>1180</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H102" s="15" t="b">
         <v>0</v>
@@ -9245,13 +9251,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>43</v>
@@ -9263,7 +9269,7 @@
         <v>880</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H103" s="15" t="b">
         <v>0</v>
@@ -9291,13 +9297,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>43</v>
@@ -9309,7 +9315,7 @@
         <v>1480</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H104" s="15" t="b">
         <v>0</v>
@@ -9337,13 +9343,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>43</v>
@@ -9355,7 +9361,7 @@
         <v>3680</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H105" s="15" t="b">
         <v>0</v>
@@ -9383,13 +9389,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>43</v>
@@ -9401,7 +9407,7 @@
         <v>1180</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H106" s="15" t="b">
         <v>0</v>
@@ -9429,13 +9435,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>43</v>
@@ -9447,7 +9453,7 @@
         <v>2380</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H107" s="15" t="b">
         <v>0</v>
@@ -9475,13 +9481,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>46</v>
@@ -9493,7 +9499,7 @@
         <v>1380</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H108" s="15" t="b">
         <v>0</v>
@@ -9521,13 +9527,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>46</v>
@@ -9539,7 +9545,7 @@
         <v>1180</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H109" s="15" t="b">
         <v>0</v>
@@ -9567,13 +9573,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>46</v>
@@ -9585,7 +9591,7 @@
         <v>1680</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H110" s="15" t="b">
         <v>0</v>
@@ -9613,13 +9619,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>46</v>
@@ -9631,7 +9637,7 @@
         <v>2180</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H111" s="15" t="b">
         <v>0</v>
@@ -9659,13 +9665,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>46</v>
@@ -9677,7 +9683,7 @@
         <v>980</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H112" s="15" t="b">
         <v>0</v>
@@ -9705,13 +9711,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>46</v>
@@ -9723,7 +9729,7 @@
         <v>1280</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H113" s="15" t="b">
         <v>0</v>
@@ -9751,13 +9757,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>46</v>
@@ -9769,7 +9775,7 @@
         <v>1080</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H114" s="15" t="b">
         <v>0</v>
@@ -9797,13 +9803,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>46</v>
@@ -9815,7 +9821,7 @@
         <v>1880</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H115" s="15" t="b">
         <v>0</v>
@@ -9843,13 +9849,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>46</v>
@@ -9861,7 +9867,7 @@
         <v>2680</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H116" s="15" t="b">
         <v>0</v>
@@ -9889,13 +9895,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>46</v>
@@ -9907,7 +9913,7 @@
         <v>1380</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H117" s="15" t="b">
         <v>0</v>
@@ -9935,13 +9941,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>46</v>
@@ -9953,7 +9959,7 @@
         <v>1480</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H118" s="15" t="b">
         <v>0</v>
@@ -9981,13 +9987,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>49</v>
@@ -9999,7 +10005,7 @@
         <v>1580</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H119" s="15" t="b">
         <v>0</v>
@@ -10027,13 +10033,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>49</v>
@@ -10045,7 +10051,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H120" s="15" t="b">
         <v>0</v>
@@ -10073,13 +10079,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D121" s="25" t="s">
         <v>49</v>
@@ -10091,7 +10097,7 @@
         <v>1380</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H121" s="15" t="b">
         <v>0</v>
@@ -10119,13 +10125,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D122" s="25" t="s">
         <v>49</v>
@@ -10137,7 +10143,7 @@
         <v>1580</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H122" s="15" t="b">
         <v>0</v>
@@ -10165,13 +10171,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>49</v>
@@ -10183,7 +10189,7 @@
         <v>880</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H123" s="15" t="b">
         <v>0</v>
@@ -10211,13 +10217,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>49</v>
@@ -10229,7 +10235,7 @@
         <v>2380</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H124" s="15" t="b">
         <v>0</v>
@@ -10257,13 +10263,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D125" s="25" t="s">
         <v>52</v>
@@ -10275,7 +10281,7 @@
         <v>880</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H125" s="15" t="b">
         <v>0</v>
@@ -10303,13 +10309,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D126" s="25" t="s">
         <v>52</v>
@@ -10321,7 +10327,7 @@
         <v>780</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H126" s="15" t="b">
         <v>0</v>
@@ -10349,13 +10355,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D127" s="25" t="s">
         <v>52</v>
@@ -10367,7 +10373,7 @@
         <v>780</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H127" s="15" t="b">
         <v>0</v>
@@ -10395,13 +10401,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>52</v>
@@ -10413,7 +10419,7 @@
         <v>880</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H128" s="15" t="b">
         <v>0</v>
@@ -10441,13 +10447,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>52</v>
@@ -10459,7 +10465,7 @@
         <v>1280</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H129" s="15" t="b">
         <v>0</v>
@@ -10487,13 +10493,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D130" s="25" t="s">
         <v>52</v>
@@ -10505,7 +10511,7 @@
         <v>1780</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H130" s="15" t="b">
         <v>0</v>
@@ -10533,13 +10539,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D131" s="25" t="s">
         <v>52</v>
@@ -10551,7 +10557,7 @@
         <v>1180</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H131" s="15" t="b">
         <v>0</v>
@@ -10579,13 +10585,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D132" s="25" t="s">
         <v>52</v>
@@ -10597,7 +10603,7 @@
         <v>1280</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H132" s="15" t="b">
         <v>0</v>
@@ -10625,13 +10631,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>52</v>
@@ -10643,7 +10649,7 @@
         <v>1780</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H133" s="15" t="b">
         <v>0</v>
@@ -10671,13 +10677,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>52</v>
@@ -10689,7 +10695,7 @@
         <v>2480</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H134" s="15" t="b">
         <v>0</v>
@@ -10717,13 +10723,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>52</v>
@@ -10735,7 +10741,7 @@
         <v>1180</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H135" s="15" t="b">
         <v>0</v>
@@ -10763,13 +10769,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D136" s="25" t="s">
         <v>52</v>
@@ -10781,7 +10787,7 @@
         <v>980</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H136" s="15" t="b">
         <v>0</v>
@@ -10809,13 +10815,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>52</v>
@@ -10827,7 +10833,7 @@
         <v>1650</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H137" s="15" t="b">
         <v>0</v>
@@ -10855,13 +10861,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D138" s="25" t="s">
         <v>52</v>
@@ -10873,7 +10879,7 @@
         <v>1100</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H138" s="15" t="b">
         <v>0</v>
@@ -10901,13 +10907,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D139" s="25" t="s">
         <v>52</v>
@@ -10919,7 +10925,7 @@
         <v>980</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H139" s="15" t="b">
         <v>0</v>
@@ -10947,13 +10953,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D140" s="25" t="s">
         <v>52</v>
@@ -10965,7 +10971,7 @@
         <v>1080</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H140" s="15" t="b">
         <v>0</v>
@@ -10993,13 +10999,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D141" s="25" t="s">
         <v>52</v>
@@ -11011,7 +11017,7 @@
         <v>1680</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H141" s="15" t="b">
         <v>0</v>
@@ -11039,13 +11045,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D142" s="25" t="s">
         <v>52</v>
@@ -11057,7 +11063,7 @@
         <v>980</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H142" s="15" t="b">
         <v>0</v>
@@ -11085,13 +11091,13 @@
     </row>
     <row r="143" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D143" s="25" t="s">
         <v>52</v>
@@ -11103,7 +11109,7 @@
         <v>1080</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H143" s="15" t="b">
         <v>0</v>
@@ -11131,13 +11137,13 @@
     </row>
     <row r="144" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>52</v>
@@ -11149,7 +11155,7 @@
         <v>1480</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H144" s="15" t="b">
         <v>0</v>
@@ -11177,13 +11183,13 @@
     </row>
     <row r="145" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>52</v>
@@ -11195,7 +11201,7 @@
         <v>3480</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H145" s="15" t="b">
         <v>0</v>
@@ -11223,13 +11229,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D146" s="25" t="s">
         <v>52</v>
@@ -11241,7 +11247,7 @@
         <v>1280</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H146" s="15" t="b">
         <v>0</v>
@@ -11269,13 +11275,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>52</v>
@@ -11287,7 +11293,7 @@
         <v>1680</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H147" s="15" t="b">
         <v>0</v>
@@ -11315,13 +11321,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D148" s="25" t="s">
         <v>52</v>
@@ -11333,7 +11339,7 @@
         <v>2680</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H148" s="15" t="b">
         <v>0</v>
@@ -11361,13 +11367,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D149" s="25" t="s">
         <v>52</v>
@@ -11379,7 +11385,7 @@
         <v>3680</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H149" s="15" t="b">
         <v>0</v>
@@ -11407,13 +11413,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D150" s="25" t="s">
         <v>52</v>
@@ -11425,7 +11431,7 @@
         <v>1080</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H150" s="15" t="b">
         <v>0</v>
@@ -11453,13 +11459,13 @@
     </row>
     <row r="151" customFormat="1" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D151" s="25" t="s">
         <v>55</v>
@@ -11471,7 +11477,7 @@
         <v>28</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H151" s="15" t="b">
         <v>0</v>
@@ -11499,13 +11505,13 @@
     </row>
     <row r="152" customFormat="1" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D152" s="25" t="s">
         <v>55</v>
@@ -11517,7 +11523,7 @@
         <v>35</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H152" s="15" t="b">
         <v>0</v>
@@ -11545,13 +11551,13 @@
     </row>
     <row r="153" customFormat="1" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>55</v>
@@ -11563,7 +11569,7 @@
         <v>30</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H153" s="15" t="b">
         <v>0</v>
@@ -11591,13 +11597,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>62</v>
@@ -11609,7 +11615,7 @@
         <v>114</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H154" s="15" t="b">
         <v>0</v>
@@ -11618,19 +11624,19 @@
         <v>0</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="L154" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M154" s="19" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N154" s="20" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="O154" s="9" t="s">
         <v>103</v>
@@ -11645,13 +11651,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>62</v>
@@ -11663,7 +11669,7 @@
         <v>114</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H155" s="15" t="b">
         <v>0</v>
@@ -11672,19 +11678,19 @@
         <v>0</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="L155" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M155" s="19" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N155" s="20" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O155" s="9" t="s">
         <v>103</v>
@@ -11699,13 +11705,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>62</v>
@@ -11717,7 +11723,7 @@
         <v>114</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H156" s="15" t="b">
         <v>0</v>
@@ -11726,19 +11732,19 @@
         <v>0</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="L156" s="9" t="s">
         <v>188</v>
       </c>
       <c r="M156" s="19" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N156" s="20" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O156" s="9" t="s">
         <v>103</v>
@@ -11753,13 +11759,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D157" s="25" t="s">
         <v>62</v>
@@ -11771,7 +11777,7 @@
         <v>114</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H157" s="22" t="b">
         <v>0</v>
@@ -11780,19 +11786,19 @@
         <v>0</v>
       </c>
       <c r="J157" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="L157" s="25" t="s">
         <v>188</v>
       </c>
       <c r="M157" s="19" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="N157" s="20" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="O157" s="25" t="s">
         <v>103</v>
@@ -11807,13 +11813,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>65</v>
@@ -11825,7 +11831,7 @@
         <v>203</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H158" s="22" t="b">
         <v>0</v>
@@ -11834,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
@@ -11853,13 +11859,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>65</v>
@@ -11868,10 +11874,10 @@
         <v>96</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H159" s="22" t="b">
         <v>0</v>
@@ -11880,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
@@ -11899,13 +11905,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>68</v>
@@ -11917,7 +11923,7 @@
         <v>203</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H160" s="22" t="b">
         <v>0</v>
@@ -11926,7 +11932,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
@@ -11945,13 +11951,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>68</v>
@@ -11963,7 +11969,7 @@
         <v>203</v>
       </c>
       <c r="G161" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H161" s="22" t="b">
         <v>0</v>
@@ -11972,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
@@ -11991,13 +11997,13 @@
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>68</v>
@@ -12009,7 +12015,7 @@
         <v>203</v>
       </c>
       <c r="G162" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H162" s="22" t="b">
         <v>0</v>
@@ -12018,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
@@ -12037,13 +12043,13 @@
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>68</v>
@@ -12052,10 +12058,10 @@
         <v>96</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G163" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H163" s="22" t="b">
         <v>0</v>
@@ -12064,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="25" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
@@ -12083,13 +12089,13 @@
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>75</v>
@@ -12110,7 +12116,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="28"/>
@@ -12129,13 +12135,13 @@
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>75</v>
@@ -12156,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="28"/>
@@ -12175,13 +12181,13 @@
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>75</v>
@@ -12202,11 +12208,11 @@
         <v>0</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K166" s="9"/>
       <c r="L166" s="28" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M166" s="19"/>
       <c r="N166" s="20"/>
@@ -12223,13 +12229,13 @@
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>75</v>
@@ -12250,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
@@ -12269,13 +12275,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>75</v>
@@ -12296,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
@@ -12315,13 +12321,13 @@
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="4" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>75</v>
@@ -12342,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865">
   <si>
     <t>id</t>
   </si>
@@ -2593,6 +2593,9 @@
   </si>
   <si>
     <t>法芙娜焦糖巧克力</t>
+  </si>
+  <si>
+    <t>images/product/Dessert/法芙娜焦糖巧克力.png</t>
   </si>
   <si>
     <t>172</t>
@@ -3722,7 +3725,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4367,8 +4370,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="G159" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -12637,7 +12640,7 @@
         <v>839</v>
       </c>
       <c r="K172" s="11" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="L172" s="11"/>
       <c r="M172" s="21"/>
@@ -12655,13 +12658,13 @@
     </row>
     <row r="173" customHeight="1" spans="1:18">
       <c r="A173" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D173" s="11" t="s">
         <v>80</v>
@@ -12685,7 +12688,7 @@
         <v>839</v>
       </c>
       <c r="K173" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L173" s="11"/>
       <c r="M173" s="21"/>
@@ -12703,13 +12706,13 @@
     </row>
     <row r="174" customHeight="1" spans="1:18">
       <c r="A174" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D174" s="11" t="s">
         <v>80</v>
@@ -12733,7 +12736,7 @@
         <v>839</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L174" s="11"/>
       <c r="M174" s="22"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="5620" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -4319,8 +4319,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -4319,8 +4319,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -354,934 +354,934 @@
     <t>奶油蘑菇培根温泉蛋意面</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55/份</t>
+  </si>
+  <si>
+    <t>images/product/food/温泉蛋意面.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Vegetables</t>
+  </si>
+  <si>
+    <t>意面/火腿/搭配蔬菜</t>
+  </si>
+  <si>
+    <t>Little angel spaghetti with cream and ham</t>
+  </si>
+  <si>
+    <t>小恶魔蕃茄海鲜意面</t>
+  </si>
+  <si>
+    <t>images/product/food/小恶魔.jpg</t>
+  </si>
+  <si>
+    <t>微辣</t>
+  </si>
+  <si>
+    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
+  </si>
+  <si>
+    <t>意面/海虹/鱿鱼圈/虾仁</t>
+  </si>
+  <si>
+    <t>小天使奶油火腿意面</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>58/份</t>
+  </si>
+  <si>
+    <t>images/product/food/小天使.jpg</t>
+  </si>
+  <si>
+    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
+  </si>
+  <si>
+    <t>意面/火腿/培根/时蔬</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Small wonton in Jinling Lane</t>
+  </si>
+  <si>
+    <t>金陵巷内小馄饨</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>38/份</t>
+  </si>
+  <si>
+    <t>images/product/food/小馄饨.jpg</t>
+  </si>
+  <si>
+    <t>Homemade wonton/soup</t>
+  </si>
+  <si>
+    <t>自制馄饨/高汤</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Macaroni in cone</t>
+  </si>
+  <si>
+    <t>蛋筒洋芋泥</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>28/份</t>
+  </si>
+  <si>
+    <t>images/product/food/洋芋泥.jpg</t>
+  </si>
+  <si>
+    <t>Slow boiled mashed potato/Flavor sauce</t>
+  </si>
+  <si>
+    <t>慢煮土豆泥/风味酱汁</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>German sausage platter</t>
+  </si>
+  <si>
+    <t>德式香肠拼盘</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>88/份</t>
+  </si>
+  <si>
+    <t>images/product/food/香肠拼盘.jpg</t>
+  </si>
+  <si>
+    <t>German sausage/Potato fillet/Seasonal vegetable salad</t>
+  </si>
+  <si>
+    <t>德式香肠/土豆角/时蔬沙拉</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Spare ribs with garlic</t>
+  </si>
+  <si>
+    <t>蒜香排骨</t>
+  </si>
+  <si>
+    <t>images/product/food/蒜香排骨.jpg</t>
+  </si>
+  <si>
+    <t>Pork ribs/Garlic/Special marinade</t>
+  </si>
+  <si>
+    <t>猪肋排/蒜/特制腌料</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Three flavors of sea salt and sweet potato</t>
+  </si>
+  <si>
+    <t>海盐粗薯三味</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>42/份</t>
+  </si>
+  <si>
+    <t>images/product/food/粗薯.jpg</t>
+  </si>
+  <si>
+    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
+  </si>
+  <si>
+    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Crispy chicken</t>
+  </si>
+  <si>
+    <t>香酥麦克鸡块</t>
+  </si>
+  <si>
+    <t>images/product/food/麦克鸡块.jpg</t>
+  </si>
+  <si>
+    <t>Chicken/flour/tomato sauce</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>Crispy fried cod balls</t>
+  </si>
+  <si>
+    <t>酥炸鳕鱼球</t>
+  </si>
+  <si>
+    <t>images/product/food/鳕鱼球.png</t>
+  </si>
+  <si>
+    <t>COD/flour/tomato sauce</t>
+  </si>
+  <si>
+    <t>鳕鱼/面粉/蕃茄酱</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Crispy fried chicken and rice flower</t>
+  </si>
+  <si>
+    <t>酥炸鸡米花</t>
+  </si>
+  <si>
+    <t>32/份</t>
+  </si>
+  <si>
+    <t>images/product/food/鸡米花.jpg</t>
+  </si>
+  <si>
+    <t>Chicken/flour/spices/ketchup</t>
+  </si>
+  <si>
+    <t>鸡肉/面粉/香料/蕃茄酱</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>For example</t>
+  </si>
+  <si>
+    <t>举个“栗子”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 </t>
+  </si>
+  <si>
+    <t>88/Glass</t>
+  </si>
+  <si>
+    <t>alcoholic drink</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/For_example.png</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>Chestnut fruit paste/Chestnut mud/Albumen powder/Stolichnaya Vodka/Chinese wolfberry tea/Dolin rouge</t>
+  </si>
+  <si>
+    <t>栗子果泥/栗子泥/蛋白粉/苏联红伏特加/枸杞茶/杜林红</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Jin xuan balalaika</t>
+  </si>
+  <si>
+    <t>金萱巴拉莱卡</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Jin_xuan_balalaka.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour</t>
+  </si>
+  <si>
+    <t>Milk fragrant Jin Xuan/Cointreau/Lime</t>
+  </si>
+  <si>
+    <t>奶香金萱伏特加/君度/青柠</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Hot toddy</t>
+  </si>
+  <si>
+    <t>热托蒂</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hot_toddy.png</t>
+  </si>
+  <si>
+    <t>Johnnie walker black label/Cinnamon/Clove/Vanilla/Honey/Orange peel</t>
+  </si>
+  <si>
+    <t>黑方/肉桂/丁香/香叶/蜂蜜/柳橙皮</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Mulled wine</t>
+  </si>
+  <si>
+    <t>热红酒</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Mulled_wine.png</t>
+  </si>
+  <si>
+    <t>Red wine/Cinnamon/Clove/Longan/Brown sugar</t>
+  </si>
+  <si>
+    <t>红酒/肉桂/丁香/龙眼/红糖</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Cyber pink</t>
+  </si>
+  <si>
+    <t>赛博粉客</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Cyber_pink.png</t>
+  </si>
+  <si>
+    <t>Vodka/Lichi juice/Wine/Rose water/Rose syrup</t>
+  </si>
+  <si>
+    <t>伏特加/荔枝汁/红酒/玫瑰水/玫瑰糖浆</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Lost in</t>
+  </si>
+  <si>
+    <t>迷恋</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Lost_in.png</t>
+  </si>
+  <si>
+    <t>Osmanthus milu/Croft sherry/ST-Germain liqueur/Bob's bitter</t>
+  </si>
+  <si>
+    <t>桂花米露/奶油雪莉酒/接骨木花利口酒/Bob's 甘草苦酒</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Berry larry</t>
+  </si>
+  <si>
+    <t>满载的莓果车</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Berry_larry.png</t>
+  </si>
+  <si>
+    <t>Beefeater Gin/Coffee liqueur/Monin raspberry/Cranberry juice/lemon juice/Raspberry puree</t>
+  </si>
+  <si>
+    <t>必富达金酒/咖啡利口酒/莫林覆盆子糖浆/蔓越莓汁/柠檬汁/覆盆子果泥</t>
+  </si>
+  <si>
+    <t>Perfumer</t>
+  </si>
+  <si>
+    <t>调香师</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Perfumer.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Bitter</t>
+  </si>
+  <si>
+    <t>Aperol/Kyoho murasaki/Pineapple juice/Grapefruit Bitters/Lemon juice</t>
+  </si>
+  <si>
+    <t>阿佩罗/巨峰紫/凤梨汁/西柚苦精/新鲜柠檬汁</t>
+  </si>
+  <si>
+    <t>Long river ice tea</t>
+  </si>
+  <si>
+    <t>长江冰茶</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Long_riverr_ice_tea.png</t>
+  </si>
+  <si>
+    <t>Homemade Chrysanthemum Gin/Homemade Wolfberry Osmanthus syrup/Lemon juice/Grapefruit juice</t>
+  </si>
+  <si>
+    <t>自制菊花金酒/自制桂花枸杞糖/新鲜柠檬汁/新鲜西柚汁</t>
+  </si>
+  <si>
+    <t>Ramonth Gin fizz</t>
+  </si>
+  <si>
+    <t>雷蒙金菲士</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Ramonth_Gin fizz.png</t>
+  </si>
+  <si>
+    <t>Beefeater Gin/Giffard curacao blue liqueur/Cream/Chocolate bitters/lemon juice/Vanilla syrup</t>
+  </si>
+  <si>
+    <t>必富达金酒/蓝橙利口酒/奶油/巧克力苦精/柠檬汁/香草糖浆</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Salted duck</t>
+  </si>
+  <si>
+    <t>咸水鸭</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/saltied_duck.png</t>
+  </si>
+  <si>
+    <t>Salty</t>
+  </si>
+  <si>
+    <t>Salted duck Rum/Lilei blanc/Orange bitter</t>
+  </si>
+  <si>
+    <t>自制咸水鸭朗姆/利莱白/橙味苦精</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>RT Negroni</t>
+  </si>
+  <si>
+    <t>RT 尼格罗尼</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>98/Glass</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/RT_Negroni.png</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter</t>
+  </si>
+  <si>
+    <t>Nordes Gin/Fernet branca/Sweet vermouth</t>
+  </si>
+  <si>
+    <t>诺德斯金酒/费内特布兰卡/安缇卡味美思</t>
+  </si>
+  <si>
+    <t>Control C</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Control_C.png</t>
+  </si>
+  <si>
+    <t>Bacardi Rum 8Y/Campari/Frangelico liqueur/Angostura bitter/Lemon juice</t>
+  </si>
+  <si>
+    <t>百加得8年/金巴利/榛子利口酒/安歌苦酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Control V</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Control_V.png</t>
+  </si>
+  <si>
+    <t>Laphroaig 10Y/Suze liqueur/Prucia liqueur/lemon juice</t>
+  </si>
+  <si>
+    <t>拉弗格10年/苏泽利口酒/芙乐夏利口酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>马提尼</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80/Glass</t>
+  </si>
+  <si>
+    <t>Gin/Dolin dry</t>
+  </si>
+  <si>
+    <t>金酒/杜林干</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>尼格罗尼</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter+Spicy</t>
+  </si>
+  <si>
+    <t>Gin/Vermoth/Campari</t>
+  </si>
+  <si>
+    <t>金酒/味美思/金巴利</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Gin&amp;Tonic</t>
+  </si>
+  <si>
+    <t>金汤力</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>78/Glass</t>
+  </si>
+  <si>
+    <t>Gin/Tonic water</t>
+  </si>
+  <si>
+    <t>金酒/汤力水</t>
+  </si>
+  <si>
+    <t>Singapore sling</t>
+  </si>
+  <si>
+    <t>新加坡司令</t>
+  </si>
+  <si>
+    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
+  </si>
+  <si>
+    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>Gimlet</t>
+  </si>
+  <si>
+    <t>琴姆勒</t>
+  </si>
+  <si>
+    <t>Gin/Lime juice</t>
+  </si>
+  <si>
+    <t>金酒/青柠汁</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t>薄暮</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Gin/Vodka/Lillrt blanc</t>
+  </si>
+  <si>
+    <t>金酒/伏特加/利莱白</t>
+  </si>
+  <si>
+    <t>Clover club</t>
+  </si>
+  <si>
+    <t>三叶草俱乐部</t>
+  </si>
+  <si>
+    <t>Gin/Lemon juice/Raspberry syrup/Vermouth/Egg white</t>
+  </si>
+  <si>
+    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Mojito</t>
+  </si>
+  <si>
+    <t>莫吉托</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/Glass</t>
+  </si>
+  <si>
+    <t>Rum/Lime juice/Soda</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁/苏打水</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>戴其力</t>
+  </si>
+  <si>
+    <t>Rum/Limejuice</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90/Glass</t>
+  </si>
+  <si>
+    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
+  </si>
+  <si>
+    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Old fashioned</t>
+  </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye/Angostura bitters/Orange bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
+  </si>
+  <si>
+    <t>Whiskey sour</t>
+  </si>
+  <si>
+    <t>威士忌酸</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey /lemon juice/Angostura bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>God father</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
+  </si>
+  <si>
+    <t>泰斯卡10年/黑方/蒂萨诺利口酒</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>大都会</t>
+  </si>
+  <si>
+    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Long island ice tea</t>
+  </si>
+  <si>
+    <t>长岛冰茶</t>
+  </si>
+  <si>
+    <t>Vodka/White Rum/Gin/Tequila/Conitreau/Lemon juice /Cola</t>
+  </si>
+  <si>
+    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
+  </si>
+  <si>
+    <t>Moscow mule</t>
+  </si>
+  <si>
+    <t>莫斯科骡子</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Spicy</t>
+  </si>
+  <si>
+    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
+  </si>
+  <si>
+    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Rosite</t>
+  </si>
+  <si>
+    <t>萝西塔</t>
+  </si>
+  <si>
+    <t>Olmeca silver Tequila/ Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
+  </si>
+  <si>
+    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Jack rose</t>
+  </si>
+  <si>
+    <t>杰克玫瑰</t>
+  </si>
+  <si>
+    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
+  </si>
+  <si>
+    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Side car</t>
+  </si>
+  <si>
+    <t>边车</t>
+  </si>
+  <si>
+    <t>Brandy/Cointreau/lemon juice</t>
+  </si>
+  <si>
+    <t>白兰地/君度/柠檬汁</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Amon petit amour</t>
+  </si>
+  <si>
+    <t>心上人半干红葡萄酒</t>
+  </si>
+  <si>
+    <t>24+241</t>
+  </si>
+  <si>
+    <t>55/Glass</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Sontti syrah cabernet vino d’Italia</t>
+  </si>
+  <si>
+    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>268/Bottle</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>The black Shiraz</t>
+  </si>
+  <si>
+    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>458/Bottle</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1374 Chateau laulan ducos</t>
+  </si>
+  <si>
+    <t>1374乐朗公爵古堡干红葡萄酒</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>698/Bottle</t>
+  </si>
+  <si>
+    <t>Camarero</t>
+  </si>
+  <si>
+    <t>企鹅侍者白葡萄酒</t>
+  </si>
+  <si>
+    <t>24+242</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Vereinigte hospitien riesling kabinett</t>
+  </si>
+  <si>
+    <t>赛琳娜雷司令典藏白葡萄酒</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
-    <t>52/份</t>
-  </si>
-  <si>
-    <t>images/product/food/温泉蛋意面.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Vegetables</t>
-  </si>
-  <si>
-    <t>意面/火腿/搭配蔬菜</t>
-  </si>
-  <si>
-    <t>Little angel spaghetti with cream and ham</t>
-  </si>
-  <si>
-    <t>小恶魔蕃茄海鲜意面</t>
+    <t>Chateau lafn sauternes</t>
+  </si>
+  <si>
+    <t>拉枫酒庄贵腐甜白葡萄酒</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>588/Bottle</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Canti di vigna</t>
+  </si>
+  <si>
+    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
+  </si>
+  <si>
+    <t>24+243</t>
+  </si>
+  <si>
+    <t>45/Glass</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Truffle hunter leda</t>
+  </si>
+  <si>
+    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>258/Bottle</t>
+  </si>
+  <si>
+    <t>Perrier-Jouet</t>
+  </si>
+  <si>
+    <t>巴黎之花香槟</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>1180/Bottle</t>
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>56/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小恶魔.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/Rainbow/Squid ring/Shrimp</t>
-  </si>
-  <si>
-    <t>意面/海虹/鱿鱼圈/虾仁</t>
-  </si>
-  <si>
-    <t>小天使奶油火腿意面</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>58/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小天使.jpg</t>
-  </si>
-  <si>
-    <t>Pasta/HAM/Bacon/Seasonal Vegetable</t>
-  </si>
-  <si>
-    <t>意面/火腿/培根/时蔬</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Small wonton in Jinling Lane</t>
-  </si>
-  <si>
-    <t>金陵巷内小馄饨</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>38/份</t>
-  </si>
-  <si>
-    <t>images/product/food/小馄饨.jpg</t>
-  </si>
-  <si>
-    <t>Homemade wonton/soup</t>
-  </si>
-  <si>
-    <t>自制馄饨/高汤</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Macaroni in cone</t>
-  </si>
-  <si>
-    <t>蛋筒洋芋泥</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>28/份</t>
-  </si>
-  <si>
-    <t>images/product/food/洋芋泥.jpg</t>
-  </si>
-  <si>
-    <t>Slow boiled mashed potato/Flavor sauce</t>
-  </si>
-  <si>
-    <t>慢煮土豆泥/风味酱汁</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>German sausage platter</t>
-  </si>
-  <si>
-    <t>德式香肠拼盘</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>88/份</t>
-  </si>
-  <si>
-    <t>images/product/food/香肠拼盘.jpg</t>
-  </si>
-  <si>
-    <t>German sausage/Potato fillet/Seasonal vegetable salad</t>
-  </si>
-  <si>
-    <t>德式香肠/土豆角/时蔬沙拉</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Spare ribs with garlic</t>
-  </si>
-  <si>
-    <t>蒜香排骨</t>
-  </si>
-  <si>
-    <t>images/product/food/蒜香排骨.jpg</t>
-  </si>
-  <si>
-    <t>Pork ribs/Garlic/Special marinade</t>
-  </si>
-  <si>
-    <t>猪肋排/蒜/特制腌料</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Three flavors of sea salt and sweet potato</t>
-  </si>
-  <si>
-    <t>海盐粗薯三味</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>42/份</t>
-  </si>
-  <si>
-    <t>images/product/food/粗薯.jpg</t>
-  </si>
-  <si>
-    <t>Tapioca/Wasabi/Ketchup/Thousand island sauce</t>
-  </si>
-  <si>
-    <t>粗薯/黄芥末/番茄酱/千岛酱</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Crispy chicken</t>
-  </si>
-  <si>
-    <t>香酥麦克鸡块</t>
-  </si>
-  <si>
-    <t>images/product/food/麦克鸡块.jpg</t>
-  </si>
-  <si>
-    <t>Chicken/flour/tomato sauce</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>Crispy fried cod balls</t>
-  </si>
-  <si>
-    <t>酥炸鳕鱼球</t>
-  </si>
-  <si>
-    <t>images/product/food/鳕鱼球.png</t>
-  </si>
-  <si>
-    <t>COD/flour/tomato sauce</t>
-  </si>
-  <si>
-    <t>鳕鱼/面粉/蕃茄酱</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Crispy fried chicken and rice flower</t>
-  </si>
-  <si>
-    <t>酥炸鸡米花</t>
-  </si>
-  <si>
-    <t>32/份</t>
-  </si>
-  <si>
-    <t>images/product/food/鸡米花.jpg</t>
-  </si>
-  <si>
-    <t>Chicken/flour/spices/ketchup</t>
-  </si>
-  <si>
-    <t>鸡肉/面粉/香料/蕃茄酱</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>For example</t>
-  </si>
-  <si>
-    <t>举个“栗子”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88 </t>
-  </si>
-  <si>
-    <t>88/Glass</t>
-  </si>
-  <si>
-    <t>alcoholic drink</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/For_example.png</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>Chestnut fruit paste/Chestnut mud/Albumen powder/Stolichnaya Vodka/Chinese wolfberry tea/Dolin rouge</t>
-  </si>
-  <si>
-    <t>栗子果泥/栗子泥/蛋白粉/苏联红伏特加/枸杞茶/杜林红</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Jin xuan balalaika</t>
-  </si>
-  <si>
-    <t>金萱巴拉莱卡</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Jin_xuan_balalaka.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour</t>
-  </si>
-  <si>
-    <t>Milk fragrant Jin Xuan/Cointreau/Lime</t>
-  </si>
-  <si>
-    <t>奶香金萱伏特加/君度/青柠</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Hot toddy</t>
-  </si>
-  <si>
-    <t>热托蒂</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hot_toddy.png</t>
-  </si>
-  <si>
-    <t>Johnnie walker black label/Cinnamon/Clove/Vanilla/Honey/Orange peel</t>
-  </si>
-  <si>
-    <t>黑方/肉桂/丁香/香叶/蜂蜜/柳橙皮</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Mulled wine</t>
-  </si>
-  <si>
-    <t>热红酒</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Mulled_wine.png</t>
-  </si>
-  <si>
-    <t>Red wine/Cinnamon/Clove/Longan/Brown sugar</t>
-  </si>
-  <si>
-    <t>红酒/肉桂/丁香/龙眼/红糖</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Cyber pink</t>
-  </si>
-  <si>
-    <t>赛博粉客</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Cyber_pink.png</t>
-  </si>
-  <si>
-    <t>Vodka/Lichi juice/Wine/Rose water/Rose syrup</t>
-  </si>
-  <si>
-    <t>伏特加/荔枝汁/红酒/玫瑰水/玫瑰糖浆</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Lost in</t>
-  </si>
-  <si>
-    <t>迷恋</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Lost_in.png</t>
-  </si>
-  <si>
-    <t>Osmanthus milu/Croft sherry/ST-Germain liqueur/Bob's bitter</t>
-  </si>
-  <si>
-    <t>桂花米露/奶油雪莉酒/接骨木花利口酒/Bob's 甘草苦酒</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Berry larry</t>
-  </si>
-  <si>
-    <t>满载的莓果车</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Berry_larry.png</t>
-  </si>
-  <si>
-    <t>Beefeater Gin/Coffee liqueur/Monin raspberry/Cranberry juice/lemon juice/Raspberry puree</t>
-  </si>
-  <si>
-    <t>必富达金酒/咖啡利口酒/莫林覆盆子糖浆/蔓越莓汁/柠檬汁/覆盆子果泥</t>
-  </si>
-  <si>
-    <t>Perfumer</t>
-  </si>
-  <si>
-    <t>调香师</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Perfumer.png</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Bitter</t>
-  </si>
-  <si>
-    <t>Aperol/Kyoho murasaki/Pineapple juice/Grapefruit Bitters/Lemon juice</t>
-  </si>
-  <si>
-    <t>阿佩罗/巨峰紫/凤梨汁/西柚苦精/新鲜柠檬汁</t>
-  </si>
-  <si>
-    <t>Long river ice tea</t>
-  </si>
-  <si>
-    <t>长江冰茶</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Long_riverr_ice_tea.png</t>
-  </si>
-  <si>
-    <t>Homemade Chrysanthemum Gin/Homemade Wolfberry Osmanthus syrup/Lemon juice/Grapefruit juice</t>
-  </si>
-  <si>
-    <t>自制菊花金酒/自制桂花枸杞糖/新鲜柠檬汁/新鲜西柚汁</t>
-  </si>
-  <si>
-    <t>Ramonth Gin fizz</t>
-  </si>
-  <si>
-    <t>雷蒙金菲士</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Ramonth_Gin fizz.png</t>
-  </si>
-  <si>
-    <t>Beefeater Gin/Giffard curacao blue liqueur/Cream/Chocolate bitters/lemon juice/Vanilla syrup</t>
-  </si>
-  <si>
-    <t>必富达金酒/蓝橙利口酒/奶油/巧克力苦精/柠檬汁/香草糖浆</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Salted duck</t>
-  </si>
-  <si>
-    <t>咸水鸭</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/saltied_duck.png</t>
-  </si>
-  <si>
-    <t>Salty</t>
-  </si>
-  <si>
-    <t>Salted duck Rum/Lilei blanc/Orange bitter</t>
-  </si>
-  <si>
-    <t>自制咸水鸭朗姆/利莱白/橙味苦精</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>RT Negroni</t>
-  </si>
-  <si>
-    <t>RT 尼格罗尼</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>98/Glass</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/RT_Negroni.png</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter</t>
-  </si>
-  <si>
-    <t>Nordes Gin/Fernet branca/Sweet vermouth</t>
-  </si>
-  <si>
-    <t>诺德斯金酒/费内特布兰卡/安缇卡味美思</t>
-  </si>
-  <si>
-    <t>Control C</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Control_C.png</t>
-  </si>
-  <si>
-    <t>Bacardi Rum 8Y/Campari/Frangelico liqueur/Angostura bitter/Lemon juice</t>
-  </si>
-  <si>
-    <t>百加得8年/金巴利/榛子利口酒/安歌苦酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Control V</t>
-  </si>
-  <si>
-    <t>粘贴</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Control_V.png</t>
-  </si>
-  <si>
-    <t>Laphroaig 10Y/Suze liqueur/Prucia liqueur/lemon juice</t>
-  </si>
-  <si>
-    <t>拉弗格10年/苏泽利口酒/芙乐夏利口酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>马提尼</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80/Glass</t>
-  </si>
-  <si>
-    <t>Gin/Dolin dry</t>
-  </si>
-  <si>
-    <t>金酒/杜林干</t>
-  </si>
-  <si>
-    <t>Negroni</t>
-  </si>
-  <si>
-    <t>尼格罗尼</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter+Spicy</t>
-  </si>
-  <si>
-    <t>Gin/Vermoth/Campari</t>
-  </si>
-  <si>
-    <t>金酒/味美思/金巴利</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Gin&amp;Tonic</t>
-  </si>
-  <si>
-    <t>金汤力</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>78/Glass</t>
-  </si>
-  <si>
-    <t>Gin/Tonic water</t>
-  </si>
-  <si>
-    <t>金酒/汤力水</t>
-  </si>
-  <si>
-    <t>Singapore sling</t>
-  </si>
-  <si>
-    <t>新加坡司令</t>
-  </si>
-  <si>
-    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
-  </si>
-  <si>
-    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>Gimlet</t>
-  </si>
-  <si>
-    <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>Gin/Lime juice</t>
-  </si>
-  <si>
-    <t>金酒/青柠汁</t>
-  </si>
-  <si>
-    <t>Vesper</t>
-  </si>
-  <si>
-    <t>薄暮</t>
-  </si>
-  <si>
-    <t>Pure</t>
-  </si>
-  <si>
-    <t>Gin/Vodka/Lillrt blanc</t>
-  </si>
-  <si>
-    <t>金酒/伏特加/利莱白</t>
-  </si>
-  <si>
-    <t>Clover club</t>
-  </si>
-  <si>
-    <t>三叶草俱乐部</t>
-  </si>
-  <si>
-    <t>Gin/Lemon juice/Raspberry syrup/Vermouth/Egg white</t>
-  </si>
-  <si>
-    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Mojito</t>
-  </si>
-  <si>
-    <t>莫吉托</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70/Glass</t>
-  </si>
-  <si>
-    <t>Rum/Lime juice/Soda</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁/苏打水</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Daiquiri</t>
-  </si>
-  <si>
-    <t>戴其力</t>
-  </si>
-  <si>
-    <t>Rum/Limejuice</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90/Glass</t>
-  </si>
-  <si>
-    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
-  </si>
-  <si>
-    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Old fashioned</t>
-  </si>
-  <si>
-    <t>古典</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/Rittenhouse rye/Angostura bitters/Orange bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
-  </si>
-  <si>
-    <t>Whiskey sour</t>
-  </si>
-  <si>
-    <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey /lemon juice/Angostura bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>God father</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
-  </si>
-  <si>
-    <t>泰斯卡10年/黑方/蒂萨诺利口酒</t>
-  </si>
-  <si>
-    <t>Cosmopolitan</t>
-  </si>
-  <si>
-    <t>大都会</t>
-  </si>
-  <si>
-    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Long island ice tea</t>
-  </si>
-  <si>
-    <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>Vodka/White Rum/Gin/Tequila/Conitreau/Lemon juice /Cola</t>
-  </si>
-  <si>
-    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
-  </si>
-  <si>
-    <t>Moscow mule</t>
-  </si>
-  <si>
-    <t>莫斯科骡子</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Spicy</t>
-  </si>
-  <si>
-    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
-  </si>
-  <si>
-    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Rosite</t>
-  </si>
-  <si>
-    <t>萝西塔</t>
-  </si>
-  <si>
-    <t>Olmeca silver Tequila/ Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
-  </si>
-  <si>
-    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Jack rose</t>
-  </si>
-  <si>
-    <t>杰克玫瑰</t>
-  </si>
-  <si>
-    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
-  </si>
-  <si>
-    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Side car</t>
-  </si>
-  <si>
-    <t>边车</t>
-  </si>
-  <si>
-    <t>Brandy/Cointreau/lemon juice</t>
-  </si>
-  <si>
-    <t>白兰地/君度/柠檬汁</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Amon petit amour</t>
-  </si>
-  <si>
-    <t>心上人半干红葡萄酒</t>
-  </si>
-  <si>
-    <t>24+241</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>55/Glass</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Sontti syrah cabernet vino d’Italia</t>
-  </si>
-  <si>
-    <t>十四行诗赤霞珠西拉干红葡萄酒</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>268/Bottle</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>The black Shiraz</t>
-  </si>
-  <si>
-    <t>伯顿酒庄铁牌西拉红葡萄酒</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>458/Bottle</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1374 Chateau laulan ducos</t>
-  </si>
-  <si>
-    <t>1374乐朗公爵古堡干红葡萄酒</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>698/Bottle</t>
-  </si>
-  <si>
-    <t>Camarero</t>
-  </si>
-  <si>
-    <t>企鹅侍者白葡萄酒</t>
-  </si>
-  <si>
-    <t>24+242</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Vereinigte hospitien riesling kabinett</t>
-  </si>
-  <si>
-    <t>赛琳娜雷司令典藏白葡萄酒</t>
-  </si>
-  <si>
-    <t>Chateau lafn sauternes</t>
-  </si>
-  <si>
-    <t>拉枫酒庄贵腐甜白葡萄酒</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>588/Bottle</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Canti di vigna</t>
-  </si>
-  <si>
-    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
-  </si>
-  <si>
-    <t>24+243</t>
-  </si>
-  <si>
-    <t>45/Glass</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Truffle hunter leda</t>
-  </si>
-  <si>
-    <t>松露猎人阿斯蒂莫斯卡托低醇低泡甜白起泡酒</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>258/Bottle</t>
-  </si>
-  <si>
-    <t>Perrier-Jouet</t>
-  </si>
-  <si>
-    <t>巴黎之花香槟</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>1180/Bottle</t>
   </si>
   <si>
     <t xml:space="preserve">Armand de brignac ace of spades gold brut </t>
@@ -2618,11 +2618,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2668,7 +2668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2676,23 +2676,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2701,6 +2717,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2714,7 +2737,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2736,15 +2767,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2759,38 +2798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2800,14 +2808,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2820,7 +2820,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2832,67 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,79 +2982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2994,13 +3000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,11 +3051,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3064,17 +3085,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3110,167 +3120,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4319,8 +4319,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4520,10 +4520,10 @@
         <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H4" s="11" t="b">
         <v>0</v>
@@ -4535,14 +4535,16 @@
         <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="O4" s="7">
         <v>1</v>
@@ -4563,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>100</v>
@@ -4572,10 +4574,10 @@
         <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="H5" s="11" t="b">
         <v>0</v>
@@ -4587,14 +4589,16 @@
         <v>104</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>97</v>
@@ -4609,13 +4613,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>100</v>
@@ -4624,10 +4628,10 @@
         <v>101</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="H6" s="11" t="b">
         <v>0</v>
@@ -4639,14 +4643,14 @@
         <v>104</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>108</v>
@@ -4661,13 +4665,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>100</v>
@@ -4676,10 +4680,10 @@
         <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="H7" s="11" t="b">
         <v>0</v>
@@ -4691,14 +4695,14 @@
         <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>108</v>
@@ -4713,13 +4717,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>100</v>
@@ -4728,10 +4732,10 @@
         <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H8" s="11" t="b">
         <v>0</v>
@@ -4743,14 +4747,14 @@
         <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>108</v>
@@ -4765,13 +4769,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>100</v>
@@ -4780,10 +4784,10 @@
         <v>101</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="H9" s="11" t="b">
         <v>0</v>
@@ -4795,14 +4799,14 @@
         <v>104</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>108</v>
@@ -4817,13 +4821,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>100</v>
@@ -4832,10 +4836,10 @@
         <v>101</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H10" s="11" t="b">
         <v>0</v>
@@ -4847,14 +4851,14 @@
         <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>108</v>
@@ -4869,13 +4873,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>100</v>
@@ -4884,10 +4888,10 @@
         <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="11" t="b">
         <v>0</v>
@@ -4899,14 +4903,14 @@
         <v>104</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>108</v>
@@ -4924,10 +4928,10 @@
         <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>100</v>
@@ -4936,10 +4940,10 @@
         <v>101</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="H12" s="11" t="b">
         <v>0</v>
@@ -4951,14 +4955,14 @@
         <v>104</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>108</v>
@@ -4973,13 +4977,13 @@
     </row>
     <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>100</v>
@@ -4991,7 +4995,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="11" t="b">
         <v>0</v>
@@ -5003,14 +5007,14 @@
         <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>108</v>
@@ -5025,13 +5029,13 @@
     </row>
     <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -5040,10 +5044,10 @@
         <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="10" t="b">
         <v>1</v>
@@ -5052,25 +5056,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="M14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="O14" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="11" t="b">
         <v>1</v>
@@ -5079,13 +5083,13 @@
     </row>
     <row r="15" customHeight="1" spans="1:18">
       <c r="A15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
@@ -5094,10 +5098,10 @@
         <v>101</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H15" s="10" t="b">
         <v>1</v>
@@ -5106,25 +5110,25 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q15" s="11" t="b">
         <v>1</v>
@@ -5133,13 +5137,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
@@ -5148,10 +5152,10 @@
         <v>101</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="H16" s="10" t="b">
         <v>1</v>
@@ -5160,25 +5164,25 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="O16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>109</v>
@@ -5187,13 +5191,13 @@
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>15</v>
@@ -5202,10 +5206,10 @@
         <v>101</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="10" t="b">
         <v>1</v>
@@ -5214,25 +5218,25 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="O17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>109</v>
@@ -5241,13 +5245,13 @@
     </row>
     <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>19</v>
@@ -5256,10 +5260,10 @@
         <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="11" t="b">
         <v>0</v>
@@ -5268,25 +5272,25 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="O18" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="11" t="b">
         <v>1</v>
@@ -5295,13 +5299,13 @@
     </row>
     <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
@@ -5310,10 +5314,10 @@
         <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H19" s="11" t="b">
         <v>0</v>
@@ -5322,25 +5326,25 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="N19" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="11" t="b">
         <v>1</v>
@@ -5349,13 +5353,13 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
@@ -5364,10 +5368,10 @@
         <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="11" t="b">
         <v>0</v>
@@ -5376,25 +5380,25 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="N20" s="15" t="s">
-        <v>233</v>
-      </c>
       <c r="O20" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="11" t="b">
         <v>1</v>
@@ -5403,13 +5407,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>19</v>
@@ -5418,10 +5422,10 @@
         <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="11" t="b">
         <v>0</v>
@@ -5430,25 +5434,25 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="O21" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="11" t="b">
         <v>1</v>
@@ -5460,10 +5464,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>19</v>
@@ -5472,10 +5476,10 @@
         <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H22" s="11" t="b">
         <v>0</v>
@@ -5484,25 +5488,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="O22" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="11" t="b">
         <v>1</v>
@@ -5514,10 +5518,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>19</v>
@@ -5526,10 +5530,10 @@
         <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="11" t="b">
         <v>0</v>
@@ -5538,25 +5542,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="Q23" s="11" t="b">
         <v>1</v>
@@ -5568,10 +5572,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>19</v>
@@ -5580,10 +5584,10 @@
         <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H24" s="11" t="b">
         <v>0</v>
@@ -5592,25 +5596,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="M24" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="O24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>109</v>
@@ -5619,13 +5623,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>19</v>
@@ -5634,37 +5638,37 @@
         <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="M25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="N25" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="O25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="11" t="b">
         <v>1</v>
@@ -5673,13 +5677,13 @@
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>19</v>
@@ -5688,10 +5692,10 @@
         <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H26" s="11" t="b">
         <v>0</v>
@@ -5700,25 +5704,25 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="Q26" s="11" t="b">
         <v>1</v>
@@ -5730,10 +5734,10 @@
         <v>61</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>19</v>
@@ -5742,10 +5746,10 @@
         <v>101</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H27" s="11" t="b">
         <v>0</v>
@@ -5754,19 +5758,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>108</v>
@@ -5781,13 +5785,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>22</v>
@@ -5796,11 +5800,11 @@
         <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="H28" s="11" t="b">
         <v>0</v>
       </c>
@@ -5808,23 +5812,23 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="N28" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="O28" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>109</v>
@@ -5833,13 +5837,13 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>22</v>
@@ -5848,10 +5852,10 @@
         <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>0</v>
@@ -5860,23 +5864,23 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="N29" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="O29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="11" t="b">
         <v>1</v>
@@ -5885,13 +5889,13 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>22</v>
@@ -5900,11 +5904,11 @@
         <v>101</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H30" s="11" t="b">
         <v>0</v>
       </c>
@@ -5912,23 +5916,23 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M30" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="N30" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="O30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="11" t="b">
         <v>1</v>
@@ -5937,13 +5941,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>22</v>
@@ -5952,10 +5956,10 @@
         <v>101</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>0</v>
@@ -5964,23 +5968,23 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="N31" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="O31" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q31" s="11" t="b">
         <v>1</v>
@@ -5992,10 +5996,10 @@
         <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>22</v>
@@ -6004,11 +6008,11 @@
         <v>101</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H32" s="11" t="b">
         <v>0</v>
       </c>
@@ -6016,23 +6020,23 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="O32" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q32" s="11" t="b">
         <v>1</v>
@@ -6044,10 +6048,10 @@
         <v>70</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>22</v>
@@ -6056,10 +6060,10 @@
         <v>101</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H33" s="11" t="b">
         <v>0</v>
@@ -6068,17 +6072,17 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="N33" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>108</v>
@@ -6096,10 +6100,10 @@
         <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>22</v>
@@ -6108,11 +6112,11 @@
         <v>101</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H34" s="11" t="b">
         <v>0</v>
       </c>
@@ -6120,23 +6124,23 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="N34" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="N34" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="O34" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="11" t="b">
         <v>1</v>
@@ -6145,13 +6149,13 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>22</v>
@@ -6160,11 +6164,11 @@
         <v>101</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="H35" s="11" t="b">
         <v>0</v>
       </c>
@@ -6172,23 +6176,23 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="N35" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="N35" s="15" t="s">
-        <v>320</v>
-      </c>
       <c r="O35" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="11" t="b">
         <v>1</v>
@@ -6197,13 +6201,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>22</v>
@@ -6212,11 +6216,11 @@
         <v>101</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H36" s="11" t="b">
         <v>0</v>
       </c>
@@ -6224,23 +6228,23 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>325</v>
-      </c>
       <c r="O36" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="11" t="b">
         <v>1</v>
@@ -6249,13 +6253,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>22</v>
@@ -6264,11 +6268,11 @@
         <v>101</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="H37" s="11" t="b">
         <v>0</v>
       </c>
@@ -6276,23 +6280,23 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M37" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="O37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="Q37" s="11" t="b">
         <v>1</v>
@@ -6301,13 +6305,13 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>22</v>
@@ -6316,10 +6320,10 @@
         <v>101</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H38" s="11" t="b">
         <v>0</v>
@@ -6328,23 +6332,23 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M38" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="N38" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="N38" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="O38" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="11" t="b">
         <v>1</v>
@@ -6353,13 +6357,13 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>22</v>
@@ -6368,10 +6372,10 @@
         <v>101</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H39" s="11" t="b">
         <v>0</v>
@@ -6380,23 +6384,23 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="N39" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="N39" s="15" t="s">
-        <v>342</v>
-      </c>
       <c r="O39" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="11" t="b">
         <v>1</v>
@@ -6405,13 +6409,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>22</v>
@@ -6420,10 +6424,10 @@
         <v>101</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H40" s="11" t="b">
         <v>0</v>
@@ -6432,23 +6436,23 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M40" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="N40" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="N40" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="O40" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="11" t="b">
         <v>1</v>
@@ -6457,13 +6461,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>22</v>
@@ -6472,11 +6476,11 @@
         <v>101</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="H41" s="11" t="b">
         <v>0</v>
       </c>
@@ -6484,23 +6488,23 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M41" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="N41" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="N41" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="O41" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>109</v>
@@ -6509,13 +6513,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>22</v>
@@ -6524,10 +6528,10 @@
         <v>101</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H42" s="11" t="b">
         <v>0</v>
@@ -6536,23 +6540,23 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M42" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="N42" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="N42" s="15" t="s">
-        <v>356</v>
-      </c>
       <c r="O42" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="11" t="b">
         <v>1</v>
@@ -6561,13 +6565,13 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>22</v>
@@ -6576,11 +6580,11 @@
         <v>101</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="H43" s="11" t="b">
         <v>0</v>
       </c>
@@ -6588,23 +6592,23 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="N43" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="N43" s="15" t="s">
-        <v>361</v>
-      </c>
       <c r="O43" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q43" s="11" t="b">
         <v>1</v>
@@ -6613,13 +6617,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>22</v>
@@ -6628,10 +6632,10 @@
         <v>101</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H44" s="11" t="b">
         <v>0</v>
@@ -6640,23 +6644,23 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M44" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="N44" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="N44" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="O44" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="11" t="b">
         <v>1</v>
@@ -6665,13 +6669,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>22</v>
@@ -6680,11 +6684,11 @@
         <v>101</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="H45" s="11" t="b">
         <v>0</v>
       </c>
@@ -6692,23 +6696,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M45" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N45" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="N45" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="O45" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>109</v>
@@ -6717,13 +6721,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>22</v>
@@ -6732,11 +6736,11 @@
         <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="H46" s="11" t="b">
         <v>0</v>
       </c>
@@ -6744,23 +6748,23 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M46" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="N46" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="N46" s="15" t="s">
-        <v>376</v>
-      </c>
       <c r="O46" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>109</v>
@@ -6769,26 +6773,26 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="H47" s="11" t="b">
         <v>0</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="14"/>
@@ -6806,7 +6810,7 @@
         <v>108</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>109</v>
@@ -6815,26 +6819,26 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="D48" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="G48" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="H48" s="11" t="b">
         <v>0</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="14"/>
@@ -6861,26 +6865,26 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D49" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="G49" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>392</v>
-      </c>
       <c r="H49" s="11" t="b">
         <v>0</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="14"/>
@@ -6907,26 +6911,26 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="D50" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="G50" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="H50" s="11" t="b">
         <v>0</v>
       </c>
@@ -6934,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="14"/>
@@ -6953,25 +6957,25 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="E51" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H51" s="11" t="b">
         <v>0</v>
@@ -6980,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="14"/>
@@ -6999,25 +7003,25 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H52" s="11" t="b">
         <v>0</v>
@@ -7026,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="14"/>
@@ -7045,26 +7049,26 @@
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>402</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="H53" s="11" t="b">
         <v>0</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="14"/>
@@ -7091,26 +7095,26 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="H54" s="11" t="b">
         <v>0</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="14"/>
@@ -7137,26 +7141,26 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="D55" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="H55" s="11" t="b">
         <v>0</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="14"/>
@@ -7183,26 +7187,26 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="H56" s="11" t="b">
         <v>0</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="14"/>
@@ -7229,7 +7233,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="4" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>422</v>
@@ -7238,7 +7242,7 @@
         <v>423</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>101</v>
@@ -7256,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="14"/>
@@ -7284,7 +7288,7 @@
         <v>428</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>101</v>
@@ -7302,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="14"/>
@@ -7321,7 +7325,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>431</v>
@@ -7348,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
@@ -7394,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -7440,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -7486,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
@@ -7532,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
@@ -7578,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -7624,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -7670,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -7716,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
@@ -7753,7 +7757,7 @@
         <v>1180</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H68" s="11" t="b">
         <v>0</v>
@@ -7762,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -7808,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -7854,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
@@ -7873,7 +7877,7 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>474</v>
@@ -7900,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -7946,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
@@ -7992,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
@@ -8038,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -8084,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -8130,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
@@ -8176,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
@@ -8222,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
@@ -8241,7 +8245,7 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>505</v>
@@ -8268,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
@@ -8314,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
@@ -8333,7 +8337,7 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>512</v>
@@ -8360,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
@@ -8406,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
@@ -8452,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8498,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -8544,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
@@ -8590,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
@@ -8636,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
@@ -8682,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
@@ -8701,7 +8705,7 @@
     </row>
     <row r="89" customHeight="1" spans="1:18">
       <c r="A89" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>543</v>
@@ -8728,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
@@ -8774,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
@@ -8793,7 +8797,7 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>550</v>
@@ -8820,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -8866,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -8912,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -8958,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -9004,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -9050,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -9096,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -9142,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -9161,7 +9165,7 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>579</v>
@@ -9188,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -9234,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -9280,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -9326,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -9372,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -9418,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -9464,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -9510,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -9556,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -9602,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -9648,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -9694,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -9740,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -9786,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -9832,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -9878,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -9924,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -9970,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
@@ -10016,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
@@ -10062,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
@@ -10108,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
@@ -10154,7 +10158,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
@@ -10200,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
@@ -10246,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -10292,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -10338,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -10384,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
@@ -10430,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
@@ -10476,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
@@ -10522,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
@@ -10568,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
@@ -10614,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
@@ -10660,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
@@ -10706,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
@@ -10752,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
@@ -10798,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
@@ -10844,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
@@ -10890,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
@@ -10936,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
@@ -10982,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
@@ -11028,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
@@ -11074,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
@@ -11120,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
@@ -11166,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
@@ -11212,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -11258,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
@@ -11304,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
@@ -11350,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
@@ -11396,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
@@ -11442,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
@@ -11488,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
@@ -11534,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
@@ -11580,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
@@ -11626,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
@@ -11672,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
@@ -11718,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
@@ -11764,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
@@ -11810,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
@@ -11856,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
@@ -11890,7 +11894,7 @@
         <v>101</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>793</v>
@@ -11908,7 +11912,7 @@
         <v>795</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M158" s="7" t="s">
         <v>796</v>
@@ -11944,7 +11948,7 @@
         <v>101</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>793</v>
@@ -11962,7 +11966,7 @@
         <v>801</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M159" s="7" t="s">
         <v>802</v>
@@ -11998,7 +12002,7 @@
         <v>101</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>793</v>
@@ -12016,7 +12020,7 @@
         <v>807</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M160" s="7" t="s">
         <v>808</v>
@@ -12052,7 +12056,7 @@
         <v>101</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>119</v>
+        <v>421</v>
       </c>
       <c r="G161" s="18" t="s">
         <v>793</v>
@@ -12070,7 +12074,7 @@
         <v>813</v>
       </c>
       <c r="L161" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M161" s="7" t="s">
         <v>814</v>
@@ -12106,7 +12110,7 @@
         <v>101</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G162" s="18" t="s">
         <v>819</v>
@@ -12198,7 +12202,7 @@
         <v>101</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G164" s="18" t="s">
         <v>789</v>
@@ -12244,7 +12248,7 @@
         <v>101</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G165" s="18" t="s">
         <v>789</v>
@@ -12290,7 +12294,7 @@
         <v>101</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G166" s="18" t="s">
         <v>789</v>
@@ -12336,7 +12340,7 @@
         <v>101</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G167" s="18" t="s">
         <v>789</v>
@@ -12382,10 +12386,10 @@
         <v>101</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H168" s="10" t="b">
         <v>1</v>
@@ -12430,10 +12434,10 @@
         <v>101</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H169" s="10" t="b">
         <v>1</v>
@@ -12478,10 +12482,10 @@
         <v>101</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H170" s="10" t="b">
         <v>1</v>
@@ -12526,10 +12530,10 @@
         <v>101</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H171" s="10" t="b">
         <v>0</v>
@@ -12574,10 +12578,10 @@
         <v>101</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H172" s="10" t="b">
         <v>0</v>
@@ -12622,10 +12626,10 @@
         <v>101</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H173" s="10" t="b">
         <v>0</v>
@@ -12670,10 +12674,10 @@
         <v>101</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G174" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H174" s="10" t="b">
         <v>0</v>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -3624,15 +3624,15 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="11.4553571428571" style="22" customWidth="1"/>
     <col min="4" max="4" width="48.6517857142857" style="22" customWidth="1"/>
-    <col min="5" max="5" width="24.4017857142857" style="22" customWidth="1"/>
+    <col min="5" max="5" width="41.3660714285714" style="22" customWidth="1"/>
     <col min="6" max="6" width="26.6339285714286" style="23" customWidth="1"/>
     <col min="7" max="7" width="11.4553571428571" style="23" customWidth="1"/>
     <col min="8" max="8" width="17.1071428571429" style="22" customWidth="1"/>
@@ -4247,8 +4247,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D157" sqref="D47:D157"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="A1:R174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -1221,13 +1221,13 @@
     <t>53</t>
   </si>
   <si>
-    <t>Canti di vigna</t>
-  </si>
-  <si>
-    <t>悦葡布拉凯多甜红起泡葡萄酒</t>
-  </si>
-  <si>
-    <t>45/Glass</t>
+    <t>Meravigliose</t>
+  </si>
+  <si>
+    <t>美绚低醇起泡白葡萄酒</t>
+  </si>
+  <si>
+    <t>50/Glass</t>
   </si>
   <si>
     <t>54</t>
@@ -2595,10 +2595,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2631,21 +2631,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2660,8 +2645,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2675,15 +2669,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,9 +2698,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2723,45 +2754,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2780,6 +2773,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2790,19 +2790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,25 +2802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,67 +2832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2928,7 +2868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,7 +2910,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2952,25 +2964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3000,26 +3000,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3080,155 +3077,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4247,8 +4247,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="A1:R174"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -7038,7 +7038,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>403</v>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -2631,6 +2631,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2638,7 +2645,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2654,15 +2661,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2675,10 +2675,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2698,6 +2699,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2708,15 +2723,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2731,24 +2745,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2767,17 +2774,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2796,7 +2796,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,31 +2880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,13 +2892,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2862,67 +2952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,37 +2964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3000,6 +3000,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3017,21 +3035,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3077,20 +3080,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3100,85 +3100,85 @@
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3188,47 +3188,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4248,7 +4248,7 @@
   <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -3615,8 +3615,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4238,8 +4238,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A174"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="F109" sqref="A1:R174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="11020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -2127,7 +2127,7 @@
     <t>Hot spicy chicken</t>
   </si>
   <si>
-    <t>RT当红辣子鸡</t>
+    <t>ROOTINN当红辣子鸡</t>
   </si>
   <si>
     <t>68/份</t>
@@ -2585,11 +2585,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2642,16 +2642,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2665,16 +2665,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2682,31 +2674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2728,16 +2696,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2751,10 +2733,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2765,8 +2756,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2787,37 +2787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,25 +2805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,7 +2835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2883,13 +2847,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2907,36 +2919,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2949,19 +2931,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3001,7 +3001,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3017,15 +3017,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3085,135 +3076,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3615,7 +3615,7 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4238,8 +4238,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F109" sqref="A1:R174"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -2124,7 +2124,7 @@
     <t>145</t>
   </si>
   <si>
-    <t>Hot spicy chicken</t>
+    <t>ROOTINN Hot spicy chicken</t>
   </si>
   <si>
     <t>ROOTINN当红辣子鸡</t>
@@ -4238,8 +4238,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858">
   <si>
     <t>id</t>
   </si>
@@ -324,7 +324,7 @@
     <t xml:space="preserve">88 </t>
   </si>
   <si>
-    <t>88/Glass</t>
+    <t>88/杯</t>
   </si>
   <si>
     <t>alcoholic drink</t>
@@ -522,6 +522,9 @@
     <t>咸水鸭</t>
   </si>
   <si>
+    <t>z</t>
+  </si>
+  <si>
     <t>images/product/cocktail/saltied_duck.png</t>
   </si>
   <si>
@@ -546,7 +549,7 @@
     <t>98</t>
   </si>
   <si>
-    <t>98/Glass</t>
+    <t>98/杯</t>
   </si>
   <si>
     <t>images/product/cocktail/RT_Negroni.png</t>
@@ -603,7 +606,7 @@
     <t>80</t>
   </si>
   <si>
-    <t>80/Glass</t>
+    <t>80/杯</t>
   </si>
   <si>
     <t>Gin/Dolin dry</t>
@@ -636,7 +639,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>78/Glass</t>
+    <t>78/杯</t>
   </si>
   <si>
     <t>Gin/Tonic water</t>
@@ -711,7 +714,7 @@
     <t>70</t>
   </si>
   <si>
-    <t>70/Glass</t>
+    <t>70/杯</t>
   </si>
   <si>
     <t>Rum/Lime juice/Soda</t>
@@ -747,7 +750,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>90/Glass</t>
+    <t>90/杯</t>
   </si>
   <si>
     <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
@@ -894,7 +897,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>55/Glass</t>
+    <t>55/杯</t>
   </si>
   <si>
     <t>35</t>
@@ -909,7 +912,7 @@
     <t>268</t>
   </si>
   <si>
-    <t>268/Bottle</t>
+    <t>268/瓶</t>
   </si>
   <si>
     <t>36</t>
@@ -924,7 +927,7 @@
     <t>458</t>
   </si>
   <si>
-    <t>458/Bottle</t>
+    <t>458/瓶</t>
   </si>
   <si>
     <t>37</t>
@@ -939,7 +942,7 @@
     <t>698</t>
   </si>
   <si>
-    <t>698/Bottle</t>
+    <t>698/瓶</t>
   </si>
   <si>
     <t>38</t>
@@ -969,7 +972,7 @@
     <t>588</t>
   </si>
   <si>
-    <t>588/Bottle</t>
+    <t>588/瓶</t>
   </si>
   <si>
     <t>41</t>
@@ -981,7 +984,7 @@
     <t>美绚低醇起泡白葡萄酒</t>
   </si>
   <si>
-    <t>50/Glass</t>
+    <t>50/杯</t>
   </si>
   <si>
     <t>42</t>
@@ -996,7 +999,7 @@
     <t>258</t>
   </si>
   <si>
-    <t>258/Bottle</t>
+    <t>258/瓶</t>
   </si>
   <si>
     <t>43</t>
@@ -1011,7 +1014,7 @@
     <t>1180</t>
   </si>
   <si>
-    <t>1180/Bottle</t>
+    <t>1180/瓶</t>
   </si>
   <si>
     <t>44</t>
@@ -1026,7 +1029,7 @@
     <t>5680</t>
   </si>
   <si>
-    <t>5680/Bottle</t>
+    <t>5680/瓶</t>
   </si>
   <si>
     <t>45</t>
@@ -1041,7 +1044,7 @@
     <t>6480</t>
   </si>
   <si>
-    <t>6480/Bottle</t>
+    <t>6480/瓶</t>
   </si>
   <si>
     <t>46</t>
@@ -1053,7 +1056,7 @@
     <t>杰克丹尼</t>
   </si>
   <si>
-    <t>70/Glass+860/Bottle</t>
+    <t>70/杯+860/瓶</t>
   </si>
   <si>
     <t>47</t>
@@ -1065,7 +1068,7 @@
     <t>美格波本</t>
   </si>
   <si>
-    <t>85/Glass+960/Bottle</t>
+    <t>85/杯+960/瓶</t>
   </si>
   <si>
     <t>48</t>
@@ -1086,7 +1089,7 @@
     <t>水牛足迹</t>
   </si>
   <si>
-    <t>80/Glass+1080/Bottle</t>
+    <t>80/杯+1080/瓶</t>
   </si>
   <si>
     <t>Rittenhouse Straight Rye Whiskey</t>
@@ -1095,7 +1098,7 @@
     <t>瑞顿黑麦</t>
   </si>
   <si>
-    <t>90/Glass+1180/Bottle</t>
+    <t>90/杯+1180/瓶</t>
   </si>
   <si>
     <t>51</t>
@@ -1107,7 +1110,7 @@
     <t>波兰顿单桶（绿标）</t>
   </si>
   <si>
-    <t>1080/Bottle</t>
+    <t>1080/瓶</t>
   </si>
   <si>
     <t>52</t>
@@ -1119,7 +1122,7 @@
     <t>波兰顿单桶（黄标）</t>
   </si>
   <si>
-    <t>1100/Bottle</t>
+    <t>1100/瓶</t>
   </si>
   <si>
     <t>53</t>
@@ -1158,7 +1161,7 @@
     <t>诺不溪9年</t>
   </si>
   <si>
-    <t>880/Bottle</t>
+    <t>880/瓶</t>
   </si>
   <si>
     <t>57</t>
@@ -1170,7 +1173,7 @@
     <t>诺恩小溪肯塔基</t>
   </si>
   <si>
-    <t>1280/Bottle</t>
+    <t>1280/瓶</t>
   </si>
   <si>
     <t>58</t>
@@ -1185,7 +1188,7 @@
     <t>17+172</t>
   </si>
   <si>
-    <t>85/Glass+880/Bottle</t>
+    <t>85/杯+880/瓶</t>
   </si>
   <si>
     <t>59</t>
@@ -1197,7 +1200,7 @@
     <t>金方</t>
   </si>
   <si>
-    <t>90/Glass+1100/Bottle</t>
+    <t>90/杯+1100/瓶</t>
   </si>
   <si>
     <t>60</t>
@@ -1209,7 +1212,7 @@
     <t>蓝方</t>
   </si>
   <si>
-    <t>2650/Bottle</t>
+    <t>2650/瓶</t>
   </si>
   <si>
     <t>61</t>
@@ -1221,7 +1224,7 @@
     <t>百龄坛12年</t>
   </si>
   <si>
-    <t>50/Glass+880/Bottle</t>
+    <t>50/杯+880/瓶</t>
   </si>
   <si>
     <t>62</t>
@@ -1233,7 +1236,7 @@
     <t>百龄坛15年</t>
   </si>
   <si>
-    <t>65/Glass+1050/Bottle</t>
+    <t>65/杯+1050/瓶</t>
   </si>
   <si>
     <t>63</t>
@@ -1245,7 +1248,7 @@
     <t>芝华士12年</t>
   </si>
   <si>
-    <t>80/Glass+880/Bottle</t>
+    <t>80/杯+880/瓶</t>
   </si>
   <si>
     <t>64</t>
@@ -1257,7 +1260,7 @@
     <t>芝华士18年</t>
   </si>
   <si>
-    <t>110/Glass+1700/Bottle</t>
+    <t>110/杯+1700/瓶</t>
   </si>
   <si>
     <t>65</t>
@@ -1278,7 +1281,7 @@
     <t>三得利.季</t>
   </si>
   <si>
-    <t>100/Glass+1400/Bottle</t>
+    <t>100/杯+1400/瓶</t>
   </si>
   <si>
     <t>67</t>
@@ -1290,7 +1293,7 @@
     <t>一甲武士</t>
   </si>
   <si>
-    <t>120/Glass+1800/Bottle</t>
+    <t>120/杯+1800/瓶</t>
   </si>
   <si>
     <t>68</t>
@@ -1302,7 +1305,7 @@
     <t>富士山麓.樽熟50度</t>
   </si>
   <si>
-    <t>90/Glass+1080/Bottle</t>
+    <t>90/杯+1080/瓶</t>
   </si>
   <si>
     <t>69</t>
@@ -1314,7 +1317,7 @@
     <t>竹鹤（纯麦）</t>
   </si>
   <si>
-    <t>120/Glass+1550/Bottle</t>
+    <t>120/杯+1550/瓶</t>
   </si>
   <si>
     <t>Kurayoshi 8Y</t>
@@ -1323,7 +1326,7 @@
     <t>仓吉8年</t>
   </si>
   <si>
-    <t>120/Glass+2050/Bottle</t>
+    <t>120/杯+2050/瓶</t>
   </si>
   <si>
     <t>71</t>
@@ -1335,7 +1338,7 @@
     <t>仓吉12年</t>
   </si>
   <si>
-    <t>180/Glass+2850/Bottle</t>
+    <t>180/杯+2850/瓶</t>
   </si>
   <si>
     <t>72</t>
@@ -1347,7 +1350,7 @@
     <t>岩井.黑牌</t>
   </si>
   <si>
-    <t>90/Glass+900/Bottle</t>
+    <t>90/杯+900/瓶</t>
   </si>
   <si>
     <t>73</t>
@@ -1359,7 +1362,7 @@
     <t>知多</t>
   </si>
   <si>
-    <t>100/Glass+1650/Bottle</t>
+    <t>100/杯+1650/瓶</t>
   </si>
   <si>
     <t>74</t>
@@ -1371,7 +1374,7 @@
     <t>宫城峡</t>
   </si>
   <si>
-    <t>140/Glass+2350/Bottle</t>
+    <t>140/杯+2350/瓶</t>
   </si>
   <si>
     <t>75</t>
@@ -1383,7 +1386,7 @@
     <t>山崎.1923</t>
   </si>
   <si>
-    <t>120/Glass+2180/Bottle</t>
+    <t>120/杯+2180/瓶</t>
   </si>
   <si>
     <t>76</t>
@@ -1395,7 +1398,7 @@
     <t>山崎.12</t>
   </si>
   <si>
-    <t>240/Glass+4980/Bottle</t>
+    <t>240/杯+4980/瓶</t>
   </si>
   <si>
     <t>77</t>
@@ -1407,7 +1410,7 @@
     <t>山崎.18</t>
   </si>
   <si>
-    <t>17800/Bottle</t>
+    <t>17800/瓶</t>
   </si>
   <si>
     <t>Hakushu 1973</t>
@@ -1416,7 +1419,7 @@
     <t>白州.1973</t>
   </si>
   <si>
-    <t>100/Glass+2080/Bottle</t>
+    <t>100/杯+2080/瓶</t>
   </si>
   <si>
     <t>79</t>
@@ -1428,7 +1431,7 @@
     <t>白州.12</t>
   </si>
   <si>
-    <t>240/Glass+4880/Bottle</t>
+    <t>240/杯+4880/瓶</t>
   </si>
   <si>
     <t>Hakushu 18Y</t>
@@ -1446,7 +1449,7 @@
     <t>响.和风雅韵</t>
   </si>
   <si>
-    <t>110/Glass+2180/Bottle</t>
+    <t>110/杯+2180/瓶</t>
   </si>
   <si>
     <t>82</t>
@@ -1458,7 +1461,7 @@
     <t>响.17</t>
   </si>
   <si>
-    <t>9800/Bottle</t>
+    <t>9800/瓶</t>
   </si>
   <si>
     <t>83</t>
@@ -1470,7 +1473,7 @@
     <t>响.21</t>
   </si>
   <si>
-    <t>15000/Bottle</t>
+    <t>15000/瓶</t>
   </si>
   <si>
     <t>84</t>
@@ -1491,7 +1494,7 @@
     <t>余市.15</t>
   </si>
   <si>
-    <t>11000/Bottle</t>
+    <t>11000/瓶</t>
   </si>
   <si>
     <t>86</t>
@@ -1506,7 +1509,7 @@
     <t>17+174</t>
   </si>
   <si>
-    <t>105/Glass+1080/Bottle</t>
+    <t>105/杯+1080/瓶</t>
   </si>
   <si>
     <t>87</t>
@@ -1518,7 +1521,7 @@
     <t>格兰杰.10</t>
   </si>
   <si>
-    <t>90/Glass+980/Bottle</t>
+    <t>90/杯+980/瓶</t>
   </si>
   <si>
     <t>Glenmorangie 12Y Sherry Cask Finish</t>
@@ -1527,7 +1530,7 @@
     <t>格兰杰.12（雪莉桶）</t>
   </si>
   <si>
-    <t>100/Glass+1180/Bottle</t>
+    <t>100/杯+1180/瓶</t>
   </si>
   <si>
     <t>89</t>
@@ -1539,7 +1542,7 @@
     <t>达摩.12</t>
   </si>
   <si>
-    <t>90/Glass+1280/Bottle</t>
+    <t>90/杯+1280/瓶</t>
   </si>
   <si>
     <t>Dalmore 15Y</t>
@@ -1548,7 +1551,7 @@
     <t>达摩.15</t>
   </si>
   <si>
-    <t>210/Glass+2400/Bottle</t>
+    <t>210/杯+2400/瓶</t>
   </si>
   <si>
     <t>91</t>
@@ -1560,7 +1563,7 @@
     <t>达摩.18</t>
   </si>
   <si>
-    <t>225/Glass+3880/Bottle</t>
+    <t>225/杯+3880/瓶</t>
   </si>
   <si>
     <t>92</t>
@@ -1590,7 +1593,7 @@
     <t>艾柏迪.12</t>
   </si>
   <si>
-    <t>90/Glass+880/Bottle</t>
+    <t>90/杯+880/瓶</t>
   </si>
   <si>
     <t>95</t>
@@ -1602,7 +1605,7 @@
     <t>艾柏迪.16</t>
   </si>
   <si>
-    <t>120/Glass+1480/Bottle</t>
+    <t>120/杯+1480/瓶</t>
   </si>
   <si>
     <t>96</t>
@@ -1614,7 +1617,7 @@
     <t>艾柏迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3680/Bottle</t>
+    <t>200/杯+3680/瓶</t>
   </si>
   <si>
     <t>97</t>
@@ -1632,7 +1635,7 @@
     <t>福特尼.17</t>
   </si>
   <si>
-    <t>180/Glass+2380/Bottle</t>
+    <t>180/杯+2380/瓶</t>
   </si>
   <si>
     <t>99</t>
@@ -1644,7 +1647,7 @@
     <t>乐加维林.16</t>
   </si>
   <si>
-    <t>90/Glass+1380/Bottle</t>
+    <t>90/杯+1380/瓶</t>
   </si>
   <si>
     <t>100</t>
@@ -1665,7 +1668,7 @@
     <t>阿贝.乌干达</t>
   </si>
   <si>
-    <t>110/Glass+1680/Bottle</t>
+    <t>110/杯+1680/瓶</t>
   </si>
   <si>
     <t>102</t>
@@ -1695,7 +1698,7 @@
     <t>拉弗格.四分之一桶</t>
   </si>
   <si>
-    <t>100/Glass+1280/Bottle</t>
+    <t>100/杯+1280/瓶</t>
   </si>
   <si>
     <t>105</t>
@@ -1716,7 +1719,7 @@
     <t>波摩.15</t>
   </si>
   <si>
-    <t>110/Glass+1880/Bottle</t>
+    <t>110/杯+1880/瓶</t>
   </si>
   <si>
     <t>107</t>
@@ -1728,7 +1731,7 @@
     <t>波摩.18</t>
   </si>
   <si>
-    <t>150/Glass+2680/Bottle</t>
+    <t>150/杯+2680/瓶</t>
   </si>
   <si>
     <t>108</t>
@@ -1740,7 +1743,7 @@
     <t>布赫拉迪.经典</t>
   </si>
   <si>
-    <t>100/Glass+1380/Bottle</t>
+    <t>100/杯+1380/瓶</t>
   </si>
   <si>
     <t>109</t>
@@ -1752,7 +1755,7 @@
     <t>布赫拉迪.波夏10</t>
   </si>
   <si>
-    <t>100/Glass+1480/Bottle</t>
+    <t>100/杯+1480/瓶</t>
   </si>
   <si>
     <t>110</t>
@@ -1764,7 +1767,7 @@
     <t>云顶.10</t>
   </si>
   <si>
-    <t>100/Glass+1580/Bottle</t>
+    <t>100/杯+1580/瓶</t>
   </si>
   <si>
     <t>111</t>
@@ -1785,7 +1788,7 @@
     <t>朱拉.16</t>
   </si>
   <si>
-    <t>110/Glass+1380/Bottle</t>
+    <t>110/杯+1380/瓶</t>
   </si>
   <si>
     <t>113</t>
@@ -1797,7 +1800,7 @@
     <t>朱拉.预言</t>
   </si>
   <si>
-    <t>140/Glass+1580/Bottle</t>
+    <t>140/杯+1580/瓶</t>
   </si>
   <si>
     <t>114</t>
@@ -1836,7 +1839,7 @@
     <t>泰斯卡.风暴</t>
   </si>
   <si>
-    <t>90/Glass+780/Bottle</t>
+    <t>90/杯+780/瓶</t>
   </si>
   <si>
     <t>118</t>
@@ -1875,7 +1878,7 @@
     <t>麦卡伦.12雪莉桶</t>
   </si>
   <si>
-    <t>160/Glass+1780/Bottle</t>
+    <t>160/杯+1780/瓶</t>
   </si>
   <si>
     <t>122</t>
@@ -1905,7 +1908,7 @@
     <t>诗贝.12</t>
   </si>
   <si>
-    <t>130/Glass+1780/Bottle</t>
+    <t>130/杯+1780/瓶</t>
   </si>
   <si>
     <t>125</t>
@@ -1917,7 +1920,7 @@
     <t>诗贝.15</t>
   </si>
   <si>
-    <t>180/Glass+2480/Bottle</t>
+    <t>180/杯+2480/瓶</t>
   </si>
   <si>
     <t>126</t>
@@ -1947,7 +1950,7 @@
     <t>格兰花格.15</t>
   </si>
   <si>
-    <t>140/Glass+1650/Bottle</t>
+    <t>140/杯+1650/瓶</t>
   </si>
   <si>
     <t>129</t>
@@ -1959,7 +1962,7 @@
     <t>格兰花格.105</t>
   </si>
   <si>
-    <t>100/Glass+1100/Bottle</t>
+    <t>100/杯+1100/瓶</t>
   </si>
   <si>
     <t>130</t>
@@ -1989,7 +1992,7 @@
     <t>格兰威特.15</t>
   </si>
   <si>
-    <t>100/Glass+1680/Bottle</t>
+    <t>100/杯+1680/瓶</t>
   </si>
   <si>
     <t>133</t>
@@ -2010,7 +2013,7 @@
     <t>格兰菲迪.15</t>
   </si>
   <si>
-    <t>100/Glass+1080/Bottle</t>
+    <t>100/杯+1080/瓶</t>
   </si>
   <si>
     <t>135</t>
@@ -2022,7 +2025,7 @@
     <t>格兰菲迪.18</t>
   </si>
   <si>
-    <t>110/Glass+1480/Bottle</t>
+    <t>110/杯+1480/瓶</t>
   </si>
   <si>
     <t>136</t>
@@ -2034,7 +2037,7 @@
     <t>格兰菲迪.21</t>
   </si>
   <si>
-    <t>200/Glass+3480/Bottle</t>
+    <t>200/杯+3480/瓶</t>
   </si>
   <si>
     <t>137</t>
@@ -2073,7 +2076,7 @@
     <t>百富.21</t>
   </si>
   <si>
-    <t>230/Glass+3680/Bottle</t>
+    <t>230/杯+3680/瓶</t>
   </si>
   <si>
     <t>141</t>
@@ -2094,7 +2097,7 @@
     <t>朝日生啤</t>
   </si>
   <si>
-    <t>28/Bottle</t>
+    <t>28/瓶</t>
   </si>
   <si>
     <t>143</t>
@@ -2106,7 +2109,7 @@
     <t>1664玫瑰</t>
   </si>
   <si>
-    <t>35/Bottle</t>
+    <t>35/瓶</t>
   </si>
   <si>
     <t>144</t>
@@ -2118,7 +2121,7 @@
     <t>德国教士黑啤</t>
   </si>
   <si>
-    <t>30/Bottle</t>
+    <t>30/瓶</t>
   </si>
   <si>
     <t>145</t>
@@ -2373,7 +2376,7 @@
     <t>茉莉小姐</t>
   </si>
   <si>
-    <t>56/Glass</t>
+    <t>56/杯</t>
   </si>
   <si>
     <t>soft drink</t>
@@ -2451,7 +2454,7 @@
     <t>热牛奶</t>
   </si>
   <si>
-    <t>20/Bottle</t>
+    <t>20/杯</t>
   </si>
   <si>
     <t>162</t>
@@ -2463,7 +2466,7 @@
     <t>热可可</t>
   </si>
   <si>
-    <t>22/Bottle</t>
+    <t>22/杯</t>
   </si>
   <si>
     <t>163</t>
@@ -2475,6 +2478,9 @@
     <t>苏打水</t>
   </si>
   <si>
+    <t>20/听</t>
+  </si>
+  <si>
     <t>164</t>
   </si>
   <si>
@@ -2484,6 +2490,9 @@
     <t>汤力水</t>
   </si>
   <si>
+    <t>20/瓶听</t>
+  </si>
+  <si>
     <t>165</t>
   </si>
   <si>
@@ -2500,6 +2509,9 @@
   </si>
   <si>
     <t>红牛碳酸型</t>
+  </si>
+  <si>
+    <t>30/听</t>
   </si>
   <si>
     <t>167</t>
@@ -2585,11 +2597,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2628,10 +2640,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2651,22 +2687,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2675,59 +2696,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2742,10 +2710,62 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2757,16 +2777,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2781,7 +2793,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,25 +2937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2823,73 +2967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2899,79 +2977,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3007,6 +3034,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3017,21 +3068,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3047,17 +3083,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3079,107 +3104,103 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3188,42 +3209,48 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3281,6 +3308,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3293,7 +3326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3621,14 +3654,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.4553571428571" style="22" customWidth="1"/>
-    <col min="4" max="4" width="48.6517857142857" style="22" customWidth="1"/>
-    <col min="5" max="5" width="41.3660714285714" style="22" customWidth="1"/>
-    <col min="6" max="6" width="26.6339285714286" style="23" customWidth="1"/>
-    <col min="7" max="7" width="11.4553571428571" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17.1071428571429" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.4553571428571" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="11.4553571428571" style="24" customWidth="1"/>
+    <col min="1" max="3" width="11.4553571428571" style="24" customWidth="1"/>
+    <col min="4" max="4" width="48.6517857142857" style="24" customWidth="1"/>
+    <col min="5" max="5" width="41.3660714285714" style="24" customWidth="1"/>
+    <col min="6" max="6" width="26.6339285714286" style="25" customWidth="1"/>
+    <col min="7" max="7" width="11.4553571428571" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.1071428571429" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.4553571428571" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="11.4553571428571" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -4031,7 +4064,7 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="4" t="s">
@@ -4238,8 +4271,8 @@
   <sheetPr/>
   <dimension ref="A1:R174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4883,29 +4916,29 @@
       <c r="H12" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="11" t="b">
-        <v>0</v>
+      <c r="I12" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>123</v>
@@ -4917,10 +4950,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>17</v>
@@ -4929,10 +4962,10 @@
         <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="11" t="b">
         <v>0</v>
@@ -4944,22 +4977,22 @@
         <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="11" t="b">
         <v>1</v>
@@ -4971,10 +5004,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>17</v>
@@ -4998,22 +5031,22 @@
         <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="11" t="b">
         <v>1</v>
@@ -5025,10 +5058,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
@@ -5052,16 +5085,16 @@
         <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>151</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>108</v>
@@ -5079,10 +5112,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>20</v>
@@ -5091,10 +5124,10 @@
         <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H16" s="11" t="b">
         <v>0</v>
@@ -5107,19 +5140,19 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>123</v>
@@ -5131,10 +5164,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>20</v>
@@ -5159,19 +5192,19 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="11" t="b">
         <v>1</v>
@@ -5183,10 +5216,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>20</v>
@@ -5195,10 +5228,10 @@
         <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H18" s="11" t="b">
         <v>0</v>
@@ -5214,10 +5247,10 @@
         <v>151</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>108</v>
@@ -5235,10 +5268,10 @@
         <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>20</v>
@@ -5266,10 +5299,10 @@
         <v>114</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>108</v>
@@ -5284,13 +5317,13 @@
     </row>
     <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>20</v>
@@ -5299,10 +5332,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H20" s="11" t="b">
         <v>0</v>
@@ -5318,10 +5351,10 @@
         <v>151</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>108</v>
@@ -5339,10 +5372,10 @@
         <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>20</v>
@@ -5367,13 +5400,13 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>108</v>
@@ -5391,10 +5424,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
@@ -5403,10 +5436,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H22" s="11" t="b">
         <v>0</v>
@@ -5422,10 +5455,10 @@
         <v>114</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>108</v>
@@ -5440,13 +5473,13 @@
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>20</v>
@@ -5455,10 +5488,10 @@
         <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H23" s="11" t="b">
         <v>0</v>
@@ -5474,10 +5507,10 @@
         <v>114</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>108</v>
@@ -5492,13 +5525,13 @@
     </row>
     <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>20</v>
@@ -5507,10 +5540,10 @@
         <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H24" s="11" t="b">
         <v>0</v>
@@ -5526,10 +5559,10 @@
         <v>114</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>108</v>
@@ -5544,13 +5577,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
@@ -5559,10 +5592,10 @@
         <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H25" s="11" t="b">
         <v>0</v>
@@ -5578,16 +5611,16 @@
         <v>151</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="11" t="b">
         <v>1</v>
@@ -5599,10 +5632,10 @@
         <v>165</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>20</v>
@@ -5627,19 +5660,19 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="11" t="b">
         <v>1</v>
@@ -5648,13 +5681,13 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>20</v>
@@ -5682,10 +5715,10 @@
         <v>151</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>108</v>
@@ -5700,13 +5733,13 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>20</v>
@@ -5731,13 +5764,13 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>108</v>
@@ -5752,13 +5785,13 @@
     </row>
     <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>20</v>
@@ -5767,10 +5800,10 @@
         <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H29" s="11" t="b">
         <v>0</v>
@@ -5786,10 +5819,10 @@
         <v>114</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>108</v>
@@ -5804,13 +5837,13 @@
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>20</v>
@@ -5838,10 +5871,10 @@
         <v>114</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>108</v>
@@ -5856,13 +5889,13 @@
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>20</v>
@@ -5871,10 +5904,10 @@
         <v>100</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" s="11" t="b">
         <v>0</v>
@@ -5887,13 +5920,13 @@
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>108</v>
@@ -5911,10 +5944,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>20</v>
@@ -5939,19 +5972,19 @@
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="11" t="b">
         <v>1</v>
@@ -5963,10 +5996,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>20</v>
@@ -5994,10 +6027,10 @@
         <v>114</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>108</v>
@@ -6015,10 +6048,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
@@ -6027,10 +6060,10 @@
         <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H34" s="11" t="b">
         <v>0</v>
@@ -6046,16 +6079,16 @@
         <v>114</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>108</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>123</v>
@@ -6064,13 +6097,13 @@
     </row>
     <row r="35" customHeight="1" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>23</v>
@@ -6079,10 +6112,10 @@
         <v>100</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H35" s="11" t="b">
         <v>0</v>
@@ -6110,13 +6143,13 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>23</v>
@@ -6125,10 +6158,10 @@
         <v>100</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H36" s="11" t="b">
         <v>0</v>
@@ -6156,13 +6189,13 @@
     </row>
     <row r="37" customHeight="1" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>23</v>
@@ -6171,10 +6204,10 @@
         <v>100</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H37" s="11" t="b">
         <v>0</v>
@@ -6202,13 +6235,13 @@
     </row>
     <row r="38" customHeight="1" spans="1:18">
       <c r="A38" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>23</v>
@@ -6217,10 +6250,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H38" s="11" t="b">
         <v>0</v>
@@ -6248,13 +6281,13 @@
     </row>
     <row r="39" customHeight="1" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>26</v>
@@ -6263,10 +6296,10 @@
         <v>100</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H39" s="11" t="b">
         <v>0</v>
@@ -6294,13 +6327,13 @@
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="A40" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>26</v>
@@ -6309,10 +6342,10 @@
         <v>100</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H40" s="11" t="b">
         <v>0</v>
@@ -6340,13 +6373,13 @@
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>26</v>
@@ -6355,10 +6388,10 @@
         <v>100</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H41" s="11" t="b">
         <v>0</v>
@@ -6386,13 +6419,13 @@
     </row>
     <row r="42" customHeight="1" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>29</v>
@@ -6401,10 +6434,10 @@
         <v>100</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H42" s="11" t="b">
         <v>0</v>
@@ -6432,13 +6465,13 @@
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>29</v>
@@ -6447,10 +6480,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H43" s="11" t="b">
         <v>0</v>
@@ -6478,13 +6511,13 @@
     </row>
     <row r="44" customHeight="1" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>29</v>
@@ -6493,10 +6526,10 @@
         <v>100</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H44" s="11" t="b">
         <v>0</v>
@@ -6524,13 +6557,13 @@
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>29</v>
@@ -6539,10 +6572,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H45" s="11" t="b">
         <v>0</v>
@@ -6570,13 +6603,13 @@
     </row>
     <row r="46" customHeight="1" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>29</v>
@@ -6585,10 +6618,10 @@
         <v>100</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H46" s="11" t="b">
         <v>0</v>
@@ -6616,13 +6649,13 @@
     </row>
     <row r="47" customHeight="1" spans="1:18">
       <c r="A47" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>36</v>
@@ -6634,7 +6667,7 @@
         <v>860</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H47" s="11" t="b">
         <v>0</v>
@@ -6662,13 +6695,13 @@
     </row>
     <row r="48" customHeight="1" spans="1:18">
       <c r="A48" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>36</v>
@@ -6680,7 +6713,7 @@
         <v>960</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H48" s="11" t="b">
         <v>0</v>
@@ -6708,13 +6741,13 @@
     </row>
     <row r="49" customHeight="1" spans="1:18">
       <c r="A49" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>36</v>
@@ -6726,7 +6759,7 @@
         <v>860</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H49" s="11" t="b">
         <v>0</v>
@@ -6754,13 +6787,13 @@
     </row>
     <row r="50" customHeight="1" spans="1:18">
       <c r="A50" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>36</v>
@@ -6772,7 +6805,7 @@
         <v>1080</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H50" s="11" t="b">
         <v>0</v>
@@ -6800,13 +6833,13 @@
     </row>
     <row r="51" customHeight="1" spans="1:18">
       <c r="A51" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>36</v>
@@ -6818,7 +6851,7 @@
         <v>1180</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H51" s="11" t="b">
         <v>0</v>
@@ -6846,13 +6879,13 @@
     </row>
     <row r="52" customHeight="1" spans="1:18">
       <c r="A52" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>36</v>
@@ -6864,7 +6897,7 @@
         <v>1080</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H52" s="11" t="b">
         <v>0</v>
@@ -6892,13 +6925,13 @@
     </row>
     <row r="53" customHeight="1" spans="1:18">
       <c r="A53" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>36</v>
@@ -6910,7 +6943,7 @@
         <v>1100</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H53" s="11" t="b">
         <v>0</v>
@@ -6938,16 +6971,16 @@
     </row>
     <row r="54" customHeight="1" spans="1:18">
       <c r="A54" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>100</v>
@@ -6956,7 +6989,7 @@
         <v>1100</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H54" s="11" t="b">
         <v>0</v>
@@ -6984,13 +7017,13 @@
     </row>
     <row r="55" customHeight="1" spans="1:18">
       <c r="A55" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>36</v>
@@ -7002,7 +7035,7 @@
         <v>1100</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H55" s="11" t="b">
         <v>0</v>
@@ -7030,13 +7063,13 @@
     </row>
     <row r="56" customHeight="1" spans="1:18">
       <c r="A56" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>36</v>
@@ -7048,7 +7081,7 @@
         <v>1180</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H56" s="11" t="b">
         <v>0</v>
@@ -7076,13 +7109,13 @@
     </row>
     <row r="57" customHeight="1" spans="1:18">
       <c r="A57" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -7094,7 +7127,7 @@
         <v>880</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H57" s="11" t="b">
         <v>0</v>
@@ -7122,13 +7155,13 @@
     </row>
     <row r="58" customHeight="1" spans="1:18">
       <c r="A58" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>36</v>
@@ -7140,7 +7173,7 @@
         <v>1280</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H58" s="11" t="b">
         <v>0</v>
@@ -7168,16 +7201,16 @@
     </row>
     <row r="59" customHeight="1" spans="1:18">
       <c r="A59" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>100</v>
@@ -7186,7 +7219,7 @@
         <v>880</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H59" s="11" t="b">
         <v>0</v>
@@ -7214,13 +7247,13 @@
     </row>
     <row r="60" customHeight="1" spans="1:18">
       <c r="A60" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>39</v>
@@ -7232,7 +7265,7 @@
         <v>1100</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H60" s="11" t="b">
         <v>0</v>
@@ -7260,13 +7293,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:18">
       <c r="A61" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>39</v>
@@ -7278,7 +7311,7 @@
         <v>2650</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H61" s="11" t="b">
         <v>0</v>
@@ -7306,13 +7339,13 @@
     </row>
     <row r="62" customHeight="1" spans="1:18">
       <c r="A62" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>39</v>
@@ -7324,7 +7357,7 @@
         <v>880</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H62" s="11" t="b">
         <v>0</v>
@@ -7352,13 +7385,13 @@
     </row>
     <row r="63" customHeight="1" spans="1:18">
       <c r="A63" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>39</v>
@@ -7370,7 +7403,7 @@
         <v>1050</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H63" s="11" t="b">
         <v>0</v>
@@ -7398,13 +7431,13 @@
     </row>
     <row r="64" customHeight="1" spans="1:18">
       <c r="A64" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>39</v>
@@ -7416,7 +7449,7 @@
         <v>880</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H64" s="11" t="b">
         <v>0</v>
@@ -7444,13 +7477,13 @@
     </row>
     <row r="65" customHeight="1" spans="1:18">
       <c r="A65" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>39</v>
@@ -7462,7 +7495,7 @@
         <v>1700</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H65" s="11" t="b">
         <v>0</v>
@@ -7490,13 +7523,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:18">
       <c r="A66" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>42</v>
@@ -7508,7 +7541,7 @@
         <v>880</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H66" s="11" t="b">
         <v>0</v>
@@ -7536,13 +7569,13 @@
     </row>
     <row r="67" customHeight="1" spans="1:18">
       <c r="A67" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>42</v>
@@ -7554,7 +7587,7 @@
         <v>1400</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H67" s="11" t="b">
         <v>0</v>
@@ -7582,13 +7615,13 @@
     </row>
     <row r="68" customHeight="1" spans="1:18">
       <c r="A68" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>42</v>
@@ -7600,7 +7633,7 @@
         <v>1800</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H68" s="11" t="b">
         <v>0</v>
@@ -7628,13 +7661,13 @@
     </row>
     <row r="69" customHeight="1" spans="1:18">
       <c r="A69" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>42</v>
@@ -7646,7 +7679,7 @@
         <v>1080</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H69" s="11" t="b">
         <v>0</v>
@@ -7674,13 +7707,13 @@
     </row>
     <row r="70" customHeight="1" spans="1:18">
       <c r="A70" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>42</v>
@@ -7692,7 +7725,7 @@
         <v>1550</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H70" s="11" t="b">
         <v>0</v>
@@ -7720,13 +7753,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:18">
       <c r="A71" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>42</v>
@@ -7738,7 +7771,7 @@
         <v>2050</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H71" s="11" t="b">
         <v>0</v>
@@ -7766,13 +7799,13 @@
     </row>
     <row r="72" customHeight="1" spans="1:18">
       <c r="A72" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>42</v>
@@ -7784,7 +7817,7 @@
         <v>2850</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H72" s="11" t="b">
         <v>0</v>
@@ -7812,13 +7845,13 @@
     </row>
     <row r="73" customHeight="1" spans="1:18">
       <c r="A73" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>42</v>
@@ -7830,7 +7863,7 @@
         <v>900</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H73" s="11" t="b">
         <v>0</v>
@@ -7858,13 +7891,13 @@
     </row>
     <row r="74" customHeight="1" spans="1:18">
       <c r="A74" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>42</v>
@@ -7876,7 +7909,7 @@
         <v>1650</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H74" s="11" t="b">
         <v>0</v>
@@ -7904,13 +7937,13 @@
     </row>
     <row r="75" customHeight="1" spans="1:18">
       <c r="A75" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>42</v>
@@ -7922,7 +7955,7 @@
         <v>2350</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H75" s="11" t="b">
         <v>0</v>
@@ -7950,13 +7983,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:18">
       <c r="A76" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>42</v>
@@ -7968,7 +8001,7 @@
         <v>2180</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H76" s="11" t="b">
         <v>0</v>
@@ -7996,13 +8029,13 @@
     </row>
     <row r="77" customHeight="1" spans="1:18">
       <c r="A77" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>42</v>
@@ -8014,7 +8047,7 @@
         <v>4980</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H77" s="11" t="b">
         <v>0</v>
@@ -8042,13 +8075,13 @@
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>42</v>
@@ -8060,7 +8093,7 @@
         <v>17800</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H78" s="11" t="b">
         <v>0</v>
@@ -8088,13 +8121,13 @@
     </row>
     <row r="79" customHeight="1" spans="1:18">
       <c r="A79" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>42</v>
@@ -8106,7 +8139,7 @@
         <v>2080</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H79" s="11" t="b">
         <v>0</v>
@@ -8134,13 +8167,13 @@
     </row>
     <row r="80" customHeight="1" spans="1:18">
       <c r="A80" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>42</v>
@@ -8152,7 +8185,7 @@
         <v>4880</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H80" s="11" t="b">
         <v>0</v>
@@ -8180,13 +8213,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:18">
       <c r="A81" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>42</v>
@@ -8198,7 +8231,7 @@
         <v>17800</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H81" s="11" t="b">
         <v>0</v>
@@ -8226,13 +8259,13 @@
     </row>
     <row r="82" customHeight="1" spans="1:18">
       <c r="A82" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>42</v>
@@ -8244,7 +8277,7 @@
         <v>2180</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H82" s="11" t="b">
         <v>0</v>
@@ -8272,13 +8305,13 @@
     </row>
     <row r="83" customHeight="1" spans="1:18">
       <c r="A83" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>42</v>
@@ -8290,7 +8323,7 @@
         <v>9800</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H83" s="11" t="b">
         <v>0</v>
@@ -8318,13 +8351,13 @@
     </row>
     <row r="84" customHeight="1" spans="1:18">
       <c r="A84" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>42</v>
@@ -8336,7 +8369,7 @@
         <v>15000</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H84" s="11" t="b">
         <v>0</v>
@@ -8364,13 +8397,13 @@
     </row>
     <row r="85" customHeight="1" spans="1:18">
       <c r="A85" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>42</v>
@@ -8382,7 +8415,7 @@
         <v>2080</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H85" s="11" t="b">
         <v>0</v>
@@ -8410,13 +8443,13 @@
     </row>
     <row r="86" customHeight="1" spans="1:18">
       <c r="A86" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>42</v>
@@ -8428,7 +8461,7 @@
         <v>11000</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H86" s="11" t="b">
         <v>0</v>
@@ -8456,16 +8489,16 @@
     </row>
     <row r="87" customHeight="1" spans="1:18">
       <c r="A87" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>100</v>
@@ -8474,7 +8507,7 @@
         <v>1080</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H87" s="11" t="b">
         <v>0</v>
@@ -8502,13 +8535,13 @@
     </row>
     <row r="88" customHeight="1" spans="1:18">
       <c r="A88" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>45</v>
@@ -8520,7 +8553,7 @@
         <v>980</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H88" s="11" t="b">
         <v>0</v>
@@ -8551,10 +8584,10 @@
         <v>112</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>45</v>
@@ -8566,7 +8599,7 @@
         <v>1180</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H89" s="11" t="b">
         <v>0</v>
@@ -8594,13 +8627,13 @@
     </row>
     <row r="90" customHeight="1" spans="1:18">
       <c r="A90" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>45</v>
@@ -8612,7 +8645,7 @@
         <v>1280</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H90" s="11" t="b">
         <v>0</v>
@@ -8640,13 +8673,13 @@
     </row>
     <row r="91" customHeight="1" spans="1:18">
       <c r="A91" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>45</v>
@@ -8658,7 +8691,7 @@
         <v>2400</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H91" s="11" t="b">
         <v>0</v>
@@ -8686,13 +8719,13 @@
     </row>
     <row r="92" customHeight="1" spans="1:18">
       <c r="A92" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>45</v>
@@ -8704,7 +8737,7 @@
         <v>3880</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H92" s="11" t="b">
         <v>0</v>
@@ -8732,13 +8765,13 @@
     </row>
     <row r="93" customHeight="1" spans="1:18">
       <c r="A93" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>45</v>
@@ -8750,7 +8783,7 @@
         <v>980</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H93" s="11" t="b">
         <v>0</v>
@@ -8778,13 +8811,13 @@
     </row>
     <row r="94" customHeight="1" spans="1:18">
       <c r="A94" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>45</v>
@@ -8796,7 +8829,7 @@
         <v>1180</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H94" s="11" t="b">
         <v>0</v>
@@ -8824,13 +8857,13 @@
     </row>
     <row r="95" customHeight="1" spans="1:18">
       <c r="A95" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>45</v>
@@ -8842,7 +8875,7 @@
         <v>880</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H95" s="11" t="b">
         <v>0</v>
@@ -8870,13 +8903,13 @@
     </row>
     <row r="96" customHeight="1" spans="1:18">
       <c r="A96" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>45</v>
@@ -8888,7 +8921,7 @@
         <v>1480</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H96" s="11" t="b">
         <v>0</v>
@@ -8916,13 +8949,13 @@
     </row>
     <row r="97" customHeight="1" spans="1:18">
       <c r="A97" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>45</v>
@@ -8934,7 +8967,7 @@
         <v>3680</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H97" s="11" t="b">
         <v>0</v>
@@ -8962,13 +8995,13 @@
     </row>
     <row r="98" customHeight="1" spans="1:18">
       <c r="A98" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>45</v>
@@ -8980,7 +9013,7 @@
         <v>1180</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H98" s="11" t="b">
         <v>0</v>
@@ -9008,13 +9041,13 @@
     </row>
     <row r="99" customHeight="1" spans="1:18">
       <c r="A99" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>45</v>
@@ -9026,7 +9059,7 @@
         <v>2380</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H99" s="11" t="b">
         <v>0</v>
@@ -9054,13 +9087,13 @@
     </row>
     <row r="100" customHeight="1" spans="1:18">
       <c r="A100" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>49</v>
@@ -9072,7 +9105,7 @@
         <v>1380</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H100" s="11" t="b">
         <v>0</v>
@@ -9100,13 +9133,13 @@
     </row>
     <row r="101" customHeight="1" spans="1:18">
       <c r="A101" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>49</v>
@@ -9118,7 +9151,7 @@
         <v>1180</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H101" s="11" t="b">
         <v>0</v>
@@ -9146,13 +9179,13 @@
     </row>
     <row r="102" customHeight="1" spans="1:18">
       <c r="A102" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>49</v>
@@ -9164,7 +9197,7 @@
         <v>1680</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H102" s="11" t="b">
         <v>0</v>
@@ -9192,13 +9225,13 @@
     </row>
     <row r="103" customHeight="1" spans="1:18">
       <c r="A103" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>49</v>
@@ -9210,7 +9243,7 @@
         <v>2180</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H103" s="11" t="b">
         <v>0</v>
@@ -9238,13 +9271,13 @@
     </row>
     <row r="104" customHeight="1" spans="1:18">
       <c r="A104" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>49</v>
@@ -9256,7 +9289,7 @@
         <v>980</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H104" s="11" t="b">
         <v>0</v>
@@ -9284,13 +9317,13 @@
     </row>
     <row r="105" customHeight="1" spans="1:18">
       <c r="A105" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>49</v>
@@ -9302,7 +9335,7 @@
         <v>1280</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H105" s="11" t="b">
         <v>0</v>
@@ -9330,13 +9363,13 @@
     </row>
     <row r="106" customHeight="1" spans="1:18">
       <c r="A106" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>49</v>
@@ -9348,7 +9381,7 @@
         <v>1080</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H106" s="11" t="b">
         <v>0</v>
@@ -9376,13 +9409,13 @@
     </row>
     <row r="107" customHeight="1" spans="1:18">
       <c r="A107" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>49</v>
@@ -9394,7 +9427,7 @@
         <v>1880</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H107" s="11" t="b">
         <v>0</v>
@@ -9422,13 +9455,13 @@
     </row>
     <row r="108" customHeight="1" spans="1:18">
       <c r="A108" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>49</v>
@@ -9440,7 +9473,7 @@
         <v>2680</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H108" s="11" t="b">
         <v>0</v>
@@ -9468,13 +9501,13 @@
     </row>
     <row r="109" customHeight="1" spans="1:18">
       <c r="A109" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>49</v>
@@ -9486,7 +9519,7 @@
         <v>1380</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H109" s="11" t="b">
         <v>0</v>
@@ -9514,13 +9547,13 @@
     </row>
     <row r="110" customHeight="1" spans="1:18">
       <c r="A110" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>49</v>
@@ -9532,7 +9565,7 @@
         <v>1480</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H110" s="11" t="b">
         <v>0</v>
@@ -9560,13 +9593,13 @@
     </row>
     <row r="111" customHeight="1" spans="1:18">
       <c r="A111" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>52</v>
@@ -9578,7 +9611,7 @@
         <v>1580</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H111" s="11" t="b">
         <v>0</v>
@@ -9606,13 +9639,13 @@
     </row>
     <row r="112" customHeight="1" spans="1:18">
       <c r="A112" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>52</v>
@@ -9624,7 +9657,7 @@
         <v>880</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H112" s="11" t="b">
         <v>0</v>
@@ -9652,13 +9685,13 @@
     </row>
     <row r="113" customHeight="1" spans="1:18">
       <c r="A113" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>52</v>
@@ -9670,7 +9703,7 @@
         <v>1380</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H113" s="11" t="b">
         <v>0</v>
@@ -9698,13 +9731,13 @@
     </row>
     <row r="114" customHeight="1" spans="1:18">
       <c r="A114" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D114" s="18" t="s">
         <v>52</v>
@@ -9716,7 +9749,7 @@
         <v>1580</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H114" s="11" t="b">
         <v>0</v>
@@ -9744,13 +9777,13 @@
     </row>
     <row r="115" customHeight="1" spans="1:18">
       <c r="A115" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D115" s="18" t="s">
         <v>52</v>
@@ -9762,7 +9795,7 @@
         <v>880</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H115" s="11" t="b">
         <v>0</v>
@@ -9790,13 +9823,13 @@
     </row>
     <row r="116" customHeight="1" spans="1:18">
       <c r="A116" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>52</v>
@@ -9808,7 +9841,7 @@
         <v>2380</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H116" s="11" t="b">
         <v>0</v>
@@ -9836,13 +9869,13 @@
     </row>
     <row r="117" customHeight="1" spans="1:18">
       <c r="A117" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>52</v>
@@ -9854,7 +9887,7 @@
         <v>880</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H117" s="11" t="b">
         <v>0</v>
@@ -9882,13 +9915,13 @@
     </row>
     <row r="118" customHeight="1" spans="1:18">
       <c r="A118" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>52</v>
@@ -9900,7 +9933,7 @@
         <v>780</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H118" s="11" t="b">
         <v>0</v>
@@ -9928,13 +9961,13 @@
     </row>
     <row r="119" customHeight="1" spans="1:18">
       <c r="A119" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>55</v>
@@ -9946,7 +9979,7 @@
         <v>780</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H119" s="11" t="b">
         <v>0</v>
@@ -9974,13 +10007,13 @@
     </row>
     <row r="120" customHeight="1" spans="1:18">
       <c r="A120" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>55</v>
@@ -9992,7 +10025,7 @@
         <v>880</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H120" s="11" t="b">
         <v>0</v>
@@ -10020,13 +10053,13 @@
     </row>
     <row r="121" customHeight="1" spans="1:18">
       <c r="A121" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D121" s="18" t="s">
         <v>55</v>
@@ -10038,7 +10071,7 @@
         <v>1280</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H121" s="11" t="b">
         <v>0</v>
@@ -10066,13 +10099,13 @@
     </row>
     <row r="122" customHeight="1" spans="1:18">
       <c r="A122" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>55</v>
@@ -10084,7 +10117,7 @@
         <v>1780</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H122" s="11" t="b">
         <v>0</v>
@@ -10112,13 +10145,13 @@
     </row>
     <row r="123" customHeight="1" spans="1:18">
       <c r="A123" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>55</v>
@@ -10130,7 +10163,7 @@
         <v>1180</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H123" s="11" t="b">
         <v>0</v>
@@ -10158,13 +10191,13 @@
     </row>
     <row r="124" customHeight="1" spans="1:18">
       <c r="A124" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>55</v>
@@ -10176,7 +10209,7 @@
         <v>1280</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H124" s="11" t="b">
         <v>0</v>
@@ -10204,13 +10237,13 @@
     </row>
     <row r="125" customHeight="1" spans="1:18">
       <c r="A125" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>55</v>
@@ -10222,7 +10255,7 @@
         <v>1780</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H125" s="11" t="b">
         <v>0</v>
@@ -10250,13 +10283,13 @@
     </row>
     <row r="126" customHeight="1" spans="1:18">
       <c r="A126" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>55</v>
@@ -10268,7 +10301,7 @@
         <v>2480</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H126" s="11" t="b">
         <v>0</v>
@@ -10296,13 +10329,13 @@
     </row>
     <row r="127" customHeight="1" spans="1:18">
       <c r="A127" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>55</v>
@@ -10314,7 +10347,7 @@
         <v>1180</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H127" s="11" t="b">
         <v>0</v>
@@ -10342,13 +10375,13 @@
     </row>
     <row r="128" customHeight="1" spans="1:18">
       <c r="A128" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>55</v>
@@ -10360,7 +10393,7 @@
         <v>980</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H128" s="11" t="b">
         <v>0</v>
@@ -10388,13 +10421,13 @@
     </row>
     <row r="129" customHeight="1" spans="1:18">
       <c r="A129" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>55</v>
@@ -10406,7 +10439,7 @@
         <v>1650</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H129" s="11" t="b">
         <v>0</v>
@@ -10434,13 +10467,13 @@
     </row>
     <row r="130" customHeight="1" spans="1:18">
       <c r="A130" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>55</v>
@@ -10452,7 +10485,7 @@
         <v>1100</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H130" s="11" t="b">
         <v>0</v>
@@ -10480,13 +10513,13 @@
     </row>
     <row r="131" customHeight="1" spans="1:18">
       <c r="A131" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>55</v>
@@ -10498,7 +10531,7 @@
         <v>980</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H131" s="11" t="b">
         <v>0</v>
@@ -10526,13 +10559,13 @@
     </row>
     <row r="132" customHeight="1" spans="1:18">
       <c r="A132" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>55</v>
@@ -10544,7 +10577,7 @@
         <v>1080</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H132" s="11" t="b">
         <v>0</v>
@@ -10572,13 +10605,13 @@
     </row>
     <row r="133" customHeight="1" spans="1:18">
       <c r="A133" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>55</v>
@@ -10590,7 +10623,7 @@
         <v>1680</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H133" s="11" t="b">
         <v>0</v>
@@ -10618,13 +10651,13 @@
     </row>
     <row r="134" customHeight="1" spans="1:18">
       <c r="A134" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>55</v>
@@ -10636,7 +10669,7 @@
         <v>980</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H134" s="11" t="b">
         <v>0</v>
@@ -10664,13 +10697,13 @@
     </row>
     <row r="135" customHeight="1" spans="1:18">
       <c r="A135" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>55</v>
@@ -10682,7 +10715,7 @@
         <v>1080</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H135" s="11" t="b">
         <v>0</v>
@@ -10710,13 +10743,13 @@
     </row>
     <row r="136" customHeight="1" spans="1:18">
       <c r="A136" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>55</v>
@@ -10728,7 +10761,7 @@
         <v>1480</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H136" s="11" t="b">
         <v>0</v>
@@ -10756,13 +10789,13 @@
     </row>
     <row r="137" customHeight="1" spans="1:18">
       <c r="A137" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>55</v>
@@ -10774,7 +10807,7 @@
         <v>3480</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H137" s="11" t="b">
         <v>0</v>
@@ -10802,13 +10835,13 @@
     </row>
     <row r="138" customHeight="1" spans="1:18">
       <c r="A138" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D138" s="18" t="s">
         <v>55</v>
@@ -10820,7 +10853,7 @@
         <v>1280</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H138" s="11" t="b">
         <v>0</v>
@@ -10848,13 +10881,13 @@
     </row>
     <row r="139" customHeight="1" spans="1:18">
       <c r="A139" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D139" s="18" t="s">
         <v>55</v>
@@ -10866,7 +10899,7 @@
         <v>1680</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H139" s="11" t="b">
         <v>0</v>
@@ -10894,13 +10927,13 @@
     </row>
     <row r="140" customHeight="1" spans="1:18">
       <c r="A140" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>55</v>
@@ -10912,7 +10945,7 @@
         <v>2680</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H140" s="11" t="b">
         <v>0</v>
@@ -10940,13 +10973,13 @@
     </row>
     <row r="141" customHeight="1" spans="1:18">
       <c r="A141" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>55</v>
@@ -10958,7 +10991,7 @@
         <v>3680</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H141" s="11" t="b">
         <v>0</v>
@@ -10986,13 +11019,13 @@
     </row>
     <row r="142" customHeight="1" spans="1:18">
       <c r="A142" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>55</v>
@@ -11004,7 +11037,7 @@
         <v>1080</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H142" s="11" t="b">
         <v>0</v>
@@ -11032,13 +11065,13 @@
     </row>
     <row r="143" customFormat="1" customHeight="1" spans="1:18">
       <c r="A143" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D143" s="18" t="s">
         <v>58</v>
@@ -11050,7 +11083,7 @@
         <v>28</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H143" s="11" t="b">
         <v>0</v>
@@ -11078,13 +11111,13 @@
     </row>
     <row r="144" customFormat="1" customHeight="1" spans="1:18">
       <c r="A144" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>58</v>
@@ -11096,7 +11129,7 @@
         <v>35</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H144" s="11" t="b">
         <v>0</v>
@@ -11124,13 +11157,13 @@
     </row>
     <row r="145" customFormat="1" customHeight="1" spans="1:18">
       <c r="A145" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>58</v>
@@ -11142,7 +11175,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H145" s="11" t="b">
         <v>0</v>
@@ -11170,13 +11203,13 @@
     </row>
     <row r="146" customHeight="1" spans="1:18">
       <c r="A146" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>64</v>
@@ -11185,10 +11218,10 @@
         <v>100</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H146" s="10" t="b">
         <v>0</v>
@@ -11197,17 +11230,17 @@
         <v>1</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L146" s="5"/>
       <c r="M146" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N146" s="14" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O146" s="4" t="s">
         <v>46</v>
@@ -11222,13 +11255,13 @@
     </row>
     <row r="147" customHeight="1" spans="1:18">
       <c r="A147" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>64</v>
@@ -11237,10 +11270,10 @@
         <v>100</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H147" s="11" t="b">
         <v>0</v>
@@ -11249,17 +11282,17 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L147" s="15"/>
       <c r="M147" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N147" s="16" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O147" s="7" t="s">
         <v>108</v>
@@ -11274,13 +11307,13 @@
     </row>
     <row r="148" customHeight="1" spans="1:18">
       <c r="A148" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>64</v>
@@ -11289,10 +11322,10 @@
         <v>100</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H148" s="11" t="b">
         <v>0</v>
@@ -11301,19 +11334,19 @@
         <v>1</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K148" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L148" s="15" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N148" s="16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O148" s="7">
         <v>1</v>
@@ -11328,13 +11361,13 @@
     </row>
     <row r="149" customHeight="1" spans="1:18">
       <c r="A149" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>64</v>
@@ -11343,10 +11376,10 @@
         <v>100</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H149" s="11" t="b">
         <v>0</v>
@@ -11355,19 +11388,19 @@
         <v>1</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N149" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O149" s="7" t="s">
         <v>9</v>
@@ -11382,13 +11415,13 @@
     </row>
     <row r="150" customHeight="1" spans="1:18">
       <c r="A150" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>64</v>
@@ -11397,10 +11430,10 @@
         <v>100</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H150" s="11" t="b">
         <v>0</v>
@@ -11409,17 +11442,17 @@
         <v>1</v>
       </c>
       <c r="J150" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L150" s="15"/>
       <c r="M150" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N150" s="16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O150" s="7" t="s">
         <v>108</v>
@@ -11434,13 +11467,13 @@
     </row>
     <row r="151" customHeight="1" spans="1:18">
       <c r="A151" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>64</v>
@@ -11449,10 +11482,10 @@
         <v>100</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H151" s="11" t="b">
         <v>0</v>
@@ -11461,17 +11494,17 @@
         <v>0</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L151" s="15"/>
       <c r="M151" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N151" s="16" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O151" s="7" t="s">
         <v>108</v>
@@ -11486,13 +11519,13 @@
     </row>
     <row r="152" customHeight="1" spans="1:18">
       <c r="A152" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>64</v>
@@ -11504,7 +11537,7 @@
         <v>112</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H152" s="11" t="b">
         <v>0</v>
@@ -11513,17 +11546,17 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L152" s="15"/>
       <c r="M152" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N152" s="16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O152" s="7" t="s">
         <v>108</v>
@@ -11538,13 +11571,13 @@
     </row>
     <row r="153" customHeight="1" spans="1:18">
       <c r="A153" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>64</v>
@@ -11553,10 +11586,10 @@
         <v>100</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H153" s="11" t="b">
         <v>0</v>
@@ -11565,17 +11598,17 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L153" s="5"/>
       <c r="M153" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O153" s="7" t="s">
         <v>108</v>
@@ -11590,13 +11623,13 @@
     </row>
     <row r="154" customHeight="1" spans="1:18">
       <c r="A154" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>64</v>
@@ -11605,10 +11638,10 @@
         <v>100</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H154" s="11" t="b">
         <v>0</v>
@@ -11617,17 +11650,17 @@
         <v>0</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K154" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O154" s="7" t="s">
         <v>108</v>
@@ -11642,13 +11675,13 @@
     </row>
     <row r="155" customHeight="1" spans="1:18">
       <c r="A155" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>64</v>
@@ -11657,10 +11690,10 @@
         <v>100</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H155" s="11" t="b">
         <v>0</v>
@@ -11669,17 +11702,17 @@
         <v>0</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K155" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L155" s="5"/>
       <c r="M155" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O155" s="7" t="s">
         <v>108</v>
@@ -11694,13 +11727,13 @@
     </row>
     <row r="156" customHeight="1" spans="1:18">
       <c r="A156" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>64</v>
@@ -11709,10 +11742,10 @@
         <v>100</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H156" s="11" t="b">
         <v>0</v>
@@ -11721,17 +11754,17 @@
         <v>0</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L156" s="5"/>
       <c r="M156" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="O156" s="7" t="s">
         <v>108</v>
@@ -11746,13 +11779,13 @@
     </row>
     <row r="157" customHeight="1" spans="1:18">
       <c r="A157" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>64</v>
@@ -11764,7 +11797,7 @@
         <v>71</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H157" s="11" t="b">
         <v>0</v>
@@ -11773,17 +11806,17 @@
         <v>0</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L157" s="5"/>
       <c r="M157" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O157" s="7" t="s">
         <v>108</v>
@@ -11798,13 +11831,13 @@
     </row>
     <row r="158" customHeight="1" spans="1:18">
       <c r="A158" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>68</v>
@@ -11813,10 +11846,10 @@
         <v>100</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H158" s="11" t="b">
         <v>0</v>
@@ -11825,19 +11858,19 @@
         <v>0</v>
       </c>
       <c r="J158" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K158" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N158" s="16" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O158" s="7" t="s">
         <v>108</v>
@@ -11852,13 +11885,13 @@
     </row>
     <row r="159" customHeight="1" spans="1:18">
       <c r="A159" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>68</v>
@@ -11867,10 +11900,10 @@
         <v>100</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H159" s="11" t="b">
         <v>0</v>
@@ -11879,19 +11912,19 @@
         <v>0</v>
       </c>
       <c r="J159" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N159" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O159" s="7" t="s">
         <v>108</v>
@@ -11906,13 +11939,13 @@
     </row>
     <row r="160" customHeight="1" spans="1:18">
       <c r="A160" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>68</v>
@@ -11921,10 +11954,10 @@
         <v>100</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H160" s="11" t="b">
         <v>0</v>
@@ -11933,19 +11966,19 @@
         <v>0</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N160" s="16" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="O160" s="7" t="s">
         <v>108</v>
@@ -11960,13 +11993,13 @@
     </row>
     <row r="161" customHeight="1" spans="1:18">
       <c r="A161" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C161" s="18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>68</v>
@@ -11975,10 +12008,10 @@
         <v>100</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H161" s="10" t="b">
         <v>0</v>
@@ -11987,19 +12020,19 @@
         <v>0</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L161" s="18" t="s">
         <v>114</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N161" s="16" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O161" s="18" t="s">
         <v>108</v>
@@ -12007,20 +12040,20 @@
       <c r="P161" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q161" s="21" t="s">
+      <c r="Q161" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R161" s="7"/>
     </row>
     <row r="162" customHeight="1" spans="1:18">
       <c r="A162" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C162" s="18" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>71</v>
@@ -12028,11 +12061,11 @@
       <c r="E162" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G162" s="18" t="s">
-        <v>811</v>
+      <c r="G162" s="22" t="s">
+        <v>812</v>
       </c>
       <c r="H162" s="10" t="b">
         <v>0</v>
@@ -12041,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
@@ -12053,20 +12086,20 @@
       <c r="P162" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q162" s="21" t="s">
+      <c r="Q162" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R162" s="7"/>
     </row>
     <row r="163" customHeight="1" spans="1:18">
       <c r="A163" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>71</v>
@@ -12074,11 +12107,11 @@
       <c r="E163" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>815</v>
+      <c r="F163" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>816</v>
       </c>
       <c r="H163" s="10" t="b">
         <v>0</v>
@@ -12087,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
@@ -12099,20 +12132,20 @@
       <c r="P163" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q163" s="21" t="s">
+      <c r="Q163" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R163" s="7"/>
     </row>
     <row r="164" customHeight="1" spans="1:18">
       <c r="A164" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C164" s="18" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>74</v>
@@ -12120,11 +12153,11 @@
       <c r="E164" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F164" s="18" t="s">
+      <c r="F164" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G164" s="18" t="s">
-        <v>700</v>
+      <c r="G164" s="22" t="s">
+        <v>820</v>
       </c>
       <c r="H164" s="10" t="b">
         <v>0</v>
@@ -12133,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
@@ -12145,20 +12178,20 @@
       <c r="P164" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q164" s="21" t="s">
+      <c r="Q164" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R164" s="7"/>
     </row>
     <row r="165" customHeight="1" spans="1:18">
       <c r="A165" s="4" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C165" s="18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>74</v>
@@ -12166,11 +12199,11 @@
       <c r="E165" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F165" s="18" t="s">
+      <c r="F165" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G165" s="18" t="s">
-        <v>700</v>
+      <c r="G165" s="22" t="s">
+        <v>824</v>
       </c>
       <c r="H165" s="10" t="b">
         <v>0</v>
@@ -12179,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
@@ -12191,20 +12224,20 @@
       <c r="P165" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q165" s="21" t="s">
+      <c r="Q165" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R165" s="7"/>
     </row>
     <row r="166" customHeight="1" spans="1:18">
       <c r="A166" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C166" s="18" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>74</v>
@@ -12212,11 +12245,11 @@
       <c r="E166" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F166" s="18" t="s">
+      <c r="F166" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G166" s="18" t="s">
-        <v>700</v>
+      <c r="G166" s="22" t="s">
+        <v>820</v>
       </c>
       <c r="H166" s="10" t="b">
         <v>0</v>
@@ -12225,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
@@ -12237,20 +12270,20 @@
       <c r="P166" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q166" s="21" t="s">
+      <c r="Q166" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R166" s="7"/>
     </row>
     <row r="167" customHeight="1" spans="1:18">
       <c r="A167" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C167" s="18" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>74</v>
@@ -12258,11 +12291,11 @@
       <c r="E167" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F167" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="G167" s="18" t="s">
-        <v>700</v>
+      <c r="F167" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G167" s="22" t="s">
+        <v>831</v>
       </c>
       <c r="H167" s="10" t="b">
         <v>0</v>
@@ -12271,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
@@ -12283,20 +12316,20 @@
       <c r="P167" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q167" s="21" t="s">
+      <c r="Q167" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R167" s="7"/>
     </row>
     <row r="168" customHeight="1" spans="1:18">
       <c r="A168" s="4" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C168" s="18" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>81</v>
@@ -12305,10 +12338,10 @@
         <v>100</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H168" s="10" t="b">
         <v>1</v>
@@ -12317,10 +12350,10 @@
         <v>1</v>
       </c>
       <c r="J168" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="L168" s="20"/>
       <c r="M168" s="7"/>
@@ -12331,20 +12364,20 @@
       <c r="P168" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q168" s="21" t="s">
+      <c r="Q168" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R168" s="7"/>
     </row>
     <row r="169" customHeight="1" spans="1:18">
       <c r="A169" s="4" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>81</v>
@@ -12353,10 +12386,10 @@
         <v>100</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H169" s="10" t="b">
         <v>1</v>
@@ -12365,10 +12398,10 @@
         <v>1</v>
       </c>
       <c r="J169" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="L169" s="20"/>
       <c r="M169" s="7"/>
@@ -12379,20 +12412,20 @@
       <c r="P169" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q169" s="21" t="s">
+      <c r="Q169" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R169" s="7"/>
     </row>
     <row r="170" customHeight="1" spans="1:18">
       <c r="A170" s="4" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C170" s="18" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>81</v>
@@ -12401,10 +12434,10 @@
         <v>100</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H170" s="10" t="b">
         <v>1</v>
@@ -12413,10 +12446,10 @@
         <v>1</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K170" s="7" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="L170" s="20"/>
       <c r="M170" s="7"/>
@@ -12427,20 +12460,20 @@
       <c r="P170" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q170" s="21" t="s">
+      <c r="Q170" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R170" s="7"/>
     </row>
     <row r="171" customHeight="1" spans="1:18">
       <c r="A171" s="4" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>81</v>
@@ -12449,10 +12482,10 @@
         <v>100</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H171" s="10" t="b">
         <v>0</v>
@@ -12461,10 +12494,10 @@
         <v>0</v>
       </c>
       <c r="J171" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K171" s="7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="L171" s="20"/>
       <c r="M171" s="7"/>
@@ -12475,7 +12508,7 @@
       <c r="P171" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q171" s="21" t="s">
+      <c r="Q171" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R171" s="7"/>
@@ -12485,10 +12518,10 @@
         <v>36</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C172" s="18" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>81</v>
@@ -12497,10 +12530,10 @@
         <v>100</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H172" s="10" t="b">
         <v>0</v>
@@ -12509,10 +12542,10 @@
         <v>0</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
@@ -12523,7 +12556,7 @@
       <c r="P172" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q172" s="21" t="s">
+      <c r="Q172" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R172" s="7"/>
@@ -12533,10 +12566,10 @@
         <v>39</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C173" s="18" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>81</v>
@@ -12545,10 +12578,10 @@
         <v>100</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H173" s="10" t="b">
         <v>0</v>
@@ -12557,10 +12590,10 @@
         <v>0</v>
       </c>
       <c r="J173" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K173" s="7" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
@@ -12571,7 +12604,7 @@
       <c r="P173" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q173" s="21" t="s">
+      <c r="Q173" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R173" s="7"/>
@@ -12581,10 +12614,10 @@
         <v>42</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C174" s="18" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>81</v>
@@ -12593,10 +12626,10 @@
         <v>100</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H174" s="10" t="b">
         <v>0</v>
@@ -12605,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="L174" s="7"/>
       <c r="M174" s="16"/>
@@ -12619,7 +12652,7 @@
       <c r="P174" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q174" s="21" t="s">
+      <c r="Q174" s="23" t="s">
         <v>123</v>
       </c>
       <c r="R174" s="7"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -4599,7 +4599,7 @@
   <dimension ref="A1:R194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A194"/>
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -312,24 +312,114 @@
     <t>withIce</t>
   </si>
   <si>
+    <t>Cha-cha turtle</t>
+  </si>
+  <si>
+    <t>恰恰龟</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 </t>
+  </si>
+  <si>
+    <t>88/杯</t>
+  </si>
+  <si>
+    <t>alcoholic drink</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Cha_cha_turtle.png</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter</t>
+  </si>
+  <si>
+    <t>Guiling cream powder / Pisco brandy / Sherry / Montenegro / Honey</t>
+  </si>
+  <si>
+    <t>龟苓膏粉/皮斯科白兰地/雪利酒/蒙特内罗/蜂蜜</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Tell you a secre</t>
+  </si>
+  <si>
+    <t>告诉你个秘密</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Tellyou_a_secre.png</t>
+  </si>
+  <si>
+    <t>Sweet+Strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple brandy / Smog bubble / Jufeng Purple / Dulin rouge / suze  / Angostura </t>
+  </si>
+  <si>
+    <t>苹果白兰地/烟雾泡泡/巨峰紫/杜林红/苏姿/安歌</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>White and Why</t>
+  </si>
+  <si>
+    <t>白色秘密</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/White_and_Why.png</t>
+  </si>
+  <si>
+    <t>Sweet+Sour</t>
+  </si>
+  <si>
+    <t>Sparkling white wine /Peach syrup / Peach liqueur / Roku gin / Apple juice</t>
+  </si>
+  <si>
+    <t>白葡萄酒气泡酒/桃子糖浆/桃子利口酒/六一金酒/苹果汁</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Mood for love</t>
+  </si>
+  <si>
+    <t>花样年华</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Mood_for_love.png</t>
+  </si>
+  <si>
+    <t>Fresh and sweet</t>
+  </si>
+  <si>
+    <t>Medlar tea / Sloe Gin / Apple juice / Lemon juice / Bitter Truth Violet Liqueur</t>
+  </si>
+  <si>
+    <t>枸杞茶/黑刺李金酒/苹果汁/柠檬汁/比特储斯紫罗兰</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>For example</t>
   </si>
   <si>
     <t>举个“栗子”</t>
   </si>
   <si>
-    <t>RMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88 </t>
-  </si>
-  <si>
-    <t>88/杯</t>
-  </si>
-  <si>
-    <t>alcoholic drink</t>
-  </si>
-  <si>
     <t>images/product/cocktail/For_example.png</t>
   </si>
   <si>
@@ -342,34 +432,28 @@
     <t>栗子果泥/栗子泥/蛋白粉/苏联红伏特加/枸杞茶/杜林红</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Jin xuan balalaika</t>
   </si>
   <si>
     <t>金萱巴拉莱卡</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>images/product/cocktail/Jin_xuan_balalaka.png</t>
   </si>
   <si>
-    <t>Sweet+Sour</t>
-  </si>
-  <si>
     <t>Milk fragrant Jin Xuan/Cointreau/Lime</t>
   </si>
   <si>
     <t>奶香金萱伏特加/君度/青柠</t>
   </si>
   <si>
-    <t>20</t>
+    <t>7</t>
   </si>
   <si>
     <t>Hot toddy</t>
@@ -390,6 +474,9 @@
     <t>FALE</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Mulled wine</t>
   </si>
   <si>
@@ -403,93 +490,6 @@
   </si>
   <si>
     <t>红酒/肉桂/丁香/龙眼/红糖</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Cha-cha turtle</t>
-  </si>
-  <si>
-    <t>恰恰龟</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Cha_cha_turtle.png</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter</t>
-  </si>
-  <si>
-    <t>Guiling cream powder / Pisco brandy / Sherry / Montenegro / Honey</t>
-  </si>
-  <si>
-    <t>龟苓膏粉/皮斯科白兰地/雪利酒/蒙特内罗/蜂蜜</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Tell you a secre</t>
-  </si>
-  <si>
-    <t>告诉你个秘密</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Tellyou_a_secre.png</t>
-  </si>
-  <si>
-    <t>Sweet+Strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple brandy / Smog bubble / Jufeng Purple / Dulin rouge / suze  / Angostura </t>
-  </si>
-  <si>
-    <t>苹果白兰地/烟雾泡泡/巨峰紫/杜林红/苏姿/安歌</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>White and Why</t>
-  </si>
-  <si>
-    <t>白色秘密</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/White_and_Why.png</t>
-  </si>
-  <si>
-    <t>Sparkling white wine /Peach syrup / Peach liqueur / Roku gin / Apple juice</t>
-  </si>
-  <si>
-    <t>白葡萄酒气泡酒/桃子糖浆/桃子利口酒/六一金酒/苹果汁</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Mood for love</t>
-  </si>
-  <si>
-    <t>花样年华</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Mood_for_love.png</t>
-  </si>
-  <si>
-    <t>Fresh and sweet</t>
-  </si>
-  <si>
-    <t>Medlar tea / Sloe Gin / Apple juice / Lemon juice / Bitter Truth Violet Liqueur</t>
-  </si>
-  <si>
-    <t>枸杞茶/黑刺李金酒/苹果汁/柠檬汁/比特储斯紫罗兰</t>
   </si>
   <si>
     <t>9</t>
@@ -3524,11 +3524,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3572,14 +3572,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4033,7 +4033,7 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="b">
@@ -4058,7 +4058,7 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -4238,7 +4238,7 @@
       <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -4284,7 +4284,7 @@
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -4307,7 +4307,7 @@
       <c r="B14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -4330,7 +4330,7 @@
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -4353,7 +4353,7 @@
       <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4376,7 +4376,7 @@
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -4406,7 +4406,7 @@
       <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="14" t="b">
@@ -4454,7 +4454,7 @@
       <c r="D20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="14" t="b">
@@ -4548,7 +4548,7 @@
       <c r="D24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F24" s="14" t="b">
@@ -4598,8 +4598,8 @@
   <sheetPr/>
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="B170" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -4678,7 +4678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:18">
+    <row r="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -4703,36 +4703,34 @@
       <c r="H2" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>104</v>
       </c>
       <c r="L2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:18">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="26"/>
+    </row>
+    <row r="3" customFormat="1" customHeight="1" spans="1:18">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -4745,7 +4743,7 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -4757,36 +4755,34 @@
       <c r="H3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="26"/>
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -4799,7 +4795,7 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -4811,49 +4807,47 @@
       <c r="H4" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="15" t="s">
+      <c r="N4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:18">
+      <c r="O4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" customFormat="1" customHeight="1" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -4865,49 +4859,47 @@
       <c r="H5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="I5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:18">
+      <c r="M5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -4919,47 +4911,49 @@
       <c r="H6" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="26" t="s">
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="26" t="s">
+      <c r="M6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" customFormat="1" customHeight="1" spans="1:18">
+      <c r="N6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -4971,47 +4965,49 @@
       <c r="H7" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>140</v>
+      <c r="I7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="N7" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" s="26" t="s">
+      <c r="N7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" customFormat="1" customHeight="1" spans="1:18">
+      <c r="Q7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -5023,47 +5019,49 @@
       <c r="H8" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="26" t="s">
+      <c r="I8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="L8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="26" t="s">
+      <c r="N8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:18">
+      <c r="O8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -5075,32 +5073,34 @@
       <c r="H9" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="24" t="s">
+      <c r="I9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="26"/>
+      <c r="O9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="5" t="s">
@@ -5136,8 +5136,8 @@
       <c r="K10" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="22" t="s">
-        <v>114</v>
+      <c r="L10" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>162</v>
@@ -5149,7 +5149,7 @@
         <v>108</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="15" t="b">
         <v>1</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>164</v>
@@ -5190,8 +5190,8 @@
       <c r="K11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>114</v>
+      <c r="L11" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>167</v>
@@ -5203,7 +5203,7 @@
         <v>108</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="15" t="b">
         <v>1</v>
@@ -5244,8 +5244,8 @@
       <c r="K12" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L12" s="22" t="s">
-        <v>114</v>
+      <c r="L12" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>172</v>
@@ -5298,7 +5298,7 @@
       <c r="K13" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -5311,7 +5311,7 @@
         <v>108</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="15" t="b">
         <v>1</v>
@@ -5352,8 +5352,8 @@
       <c r="K14" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>114</v>
+      <c r="L14" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>183</v>
@@ -5365,7 +5365,7 @@
         <v>108</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="15" t="b">
         <v>1</v>
@@ -5406,8 +5406,8 @@
       <c r="K15" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>114</v>
+      <c r="L15" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>188</v>
@@ -5419,7 +5419,7 @@
         <v>108</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="15" t="b">
         <v>1</v>
@@ -5460,7 +5460,7 @@
       <c r="K16" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="24" t="s">
         <v>193</v>
       </c>
       <c r="M16" s="9" t="s">
@@ -5476,7 +5476,7 @@
         <v>196</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R16" s="5"/>
     </row>
@@ -5514,8 +5514,8 @@
       <c r="K17" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="22" t="s">
-        <v>133</v>
+      <c r="L17" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>202</v>
@@ -5568,8 +5568,8 @@
       <c r="K18" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="L18" s="22" t="s">
-        <v>133</v>
+      <c r="L18" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>207</v>
@@ -5622,7 +5622,7 @@
       <c r="K19" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M19" s="9" t="s">
@@ -5674,7 +5674,7 @@
         <v>103</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="24" t="s">
         <v>193</v>
       </c>
       <c r="M20" s="9" t="s">
@@ -5690,7 +5690,7 @@
         <v>196</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R20" s="5"/>
     </row>
@@ -5726,7 +5726,7 @@
         <v>103</v>
       </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="24" t="s">
         <v>224</v>
       </c>
       <c r="M21" s="9" t="s">
@@ -5778,7 +5778,7 @@
         <v>103</v>
       </c>
       <c r="K22" s="9"/>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M22" s="9" t="s">
@@ -5830,8 +5830,8 @@
         <v>103</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="22" t="s">
-        <v>114</v>
+      <c r="L23" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>236</v>
@@ -5843,7 +5843,7 @@
         <v>108</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="15" t="b">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>103</v>
       </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M24" s="9" t="s">
@@ -5895,7 +5895,7 @@
         <v>108</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="15" t="b">
         <v>1</v>
@@ -5934,7 +5934,7 @@
         <v>103</v>
       </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="24" t="s">
         <v>246</v>
       </c>
       <c r="M25" s="9" t="s">
@@ -5950,13 +5950,13 @@
         <v>35</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>249</v>
@@ -5986,8 +5986,8 @@
         <v>103</v>
       </c>
       <c r="K26" s="9"/>
-      <c r="L26" s="22" t="s">
-        <v>114</v>
+      <c r="L26" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>251</v>
@@ -6038,8 +6038,8 @@
         <v>103</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="22" t="s">
-        <v>114</v>
+      <c r="L27" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>258</v>
@@ -6090,8 +6090,8 @@
         <v>103</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="22" t="s">
-        <v>114</v>
+      <c r="L28" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>263</v>
@@ -6103,7 +6103,7 @@
         <v>108</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="15" t="b">
         <v>1</v>
@@ -6142,7 +6142,7 @@
         <v>103</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M29" s="9" t="s">
@@ -6194,8 +6194,8 @@
         <v>103</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="22" t="s">
-        <v>133</v>
+      <c r="L30" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>276</v>
@@ -6246,7 +6246,7 @@
         <v>103</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="24" t="s">
         <v>177</v>
       </c>
       <c r="M31" s="9" t="s">
@@ -6298,8 +6298,8 @@
         <v>103</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="22" t="s">
-        <v>133</v>
+      <c r="L32" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>284</v>
@@ -6311,7 +6311,7 @@
         <v>108</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -6350,8 +6350,8 @@
         <v>103</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="22" t="s">
-        <v>114</v>
+      <c r="L33" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>288</v>
@@ -6366,7 +6366,7 @@
         <v>26</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R33" s="5"/>
     </row>
@@ -6402,8 +6402,8 @@
         <v>103</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="22" t="s">
-        <v>114</v>
+      <c r="L34" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>292</v>
@@ -6415,7 +6415,7 @@
         <v>108</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -6454,7 +6454,7 @@
         <v>103</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="24" t="s">
         <v>297</v>
       </c>
       <c r="M35" s="9" t="s">
@@ -6476,7 +6476,7 @@
     </row>
     <row r="36" customHeight="1" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>300</v>
@@ -6506,8 +6506,8 @@
         <v>103</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="22" t="s">
-        <v>133</v>
+      <c r="L36" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>302</v>
@@ -6558,8 +6558,8 @@
         <v>103</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="22" t="s">
-        <v>114</v>
+      <c r="L37" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>307</v>
@@ -6571,10 +6571,10 @@
         <v>108</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R37" s="5"/>
     </row>
@@ -6610,8 +6610,8 @@
         <v>103</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="22" t="s">
-        <v>114</v>
+      <c r="L38" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>312</v>
@@ -6626,7 +6626,7 @@
         <v>209</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R38" s="5"/>
     </row>
@@ -6672,7 +6672,7 @@
         <v>108</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R39" s="32"/>
     </row>
@@ -6718,7 +6718,7 @@
         <v>108</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R40" s="32"/>
     </row>
@@ -6764,7 +6764,7 @@
         <v>108</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R41" s="32"/>
     </row>
@@ -6810,7 +6810,7 @@
         <v>108</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R42" s="32"/>
     </row>
@@ -6856,7 +6856,7 @@
         <v>108</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R43" s="32"/>
     </row>
@@ -6902,7 +6902,7 @@
         <v>108</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R44" s="32"/>
     </row>
@@ -6948,7 +6948,7 @@
         <v>108</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R45" s="32"/>
     </row>
@@ -6994,7 +6994,7 @@
         <v>108</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R46" s="32"/>
     </row>
@@ -7040,7 +7040,7 @@
         <v>108</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R47" s="32"/>
     </row>
@@ -7086,7 +7086,7 @@
         <v>108</v>
       </c>
       <c r="Q48" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R48" s="32"/>
     </row>
@@ -7132,7 +7132,7 @@
         <v>108</v>
       </c>
       <c r="Q49" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R49" s="32"/>
     </row>
@@ -7178,7 +7178,7 @@
         <v>108</v>
       </c>
       <c r="Q50" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R50" s="32"/>
     </row>
@@ -7224,7 +7224,7 @@
         <v>108</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R51" s="32"/>
     </row>
@@ -7270,7 +7270,7 @@
         <v>108</v>
       </c>
       <c r="Q52" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R52" s="32"/>
     </row>
@@ -7316,7 +7316,7 @@
         <v>108</v>
       </c>
       <c r="Q53" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R53" s="32"/>
     </row>
@@ -7362,7 +7362,7 @@
         <v>108</v>
       </c>
       <c r="Q54" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R54" s="32"/>
     </row>
@@ -7408,7 +7408,7 @@
         <v>108</v>
       </c>
       <c r="Q55" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R55" s="32"/>
     </row>
@@ -7454,7 +7454,7 @@
         <v>108</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R56" s="32"/>
     </row>
@@ -7500,7 +7500,7 @@
         <v>108</v>
       </c>
       <c r="Q57" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R57" s="32"/>
     </row>
@@ -7546,7 +7546,7 @@
         <v>108</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R58" s="32"/>
     </row>
@@ -7592,7 +7592,7 @@
         <v>108</v>
       </c>
       <c r="Q59" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R59" s="32"/>
     </row>
@@ -7638,7 +7638,7 @@
         <v>108</v>
       </c>
       <c r="Q60" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R60" s="32"/>
     </row>
@@ -7684,7 +7684,7 @@
         <v>108</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R61" s="32"/>
     </row>
@@ -7730,7 +7730,7 @@
         <v>108</v>
       </c>
       <c r="Q62" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R62" s="32"/>
     </row>
@@ -7776,7 +7776,7 @@
         <v>108</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R63" s="32"/>
     </row>
@@ -7822,7 +7822,7 @@
         <v>108</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R64" s="5"/>
     </row>
@@ -7868,7 +7868,7 @@
         <v>108</v>
       </c>
       <c r="Q65" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R65" s="5"/>
     </row>
@@ -7914,7 +7914,7 @@
         <v>108</v>
       </c>
       <c r="Q66" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R66" s="9"/>
     </row>
@@ -7960,7 +7960,7 @@
         <v>108</v>
       </c>
       <c r="Q67" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R67" s="9"/>
     </row>
@@ -8006,7 +8006,7 @@
         <v>108</v>
       </c>
       <c r="Q68" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R68" s="9"/>
     </row>
@@ -8052,7 +8052,7 @@
         <v>108</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R69" s="9"/>
     </row>
@@ -8098,7 +8098,7 @@
         <v>108</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R70" s="9"/>
     </row>
@@ -8144,7 +8144,7 @@
         <v>108</v>
       </c>
       <c r="Q71" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R71" s="9"/>
     </row>
@@ -8190,7 +8190,7 @@
         <v>108</v>
       </c>
       <c r="Q72" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R72" s="9"/>
     </row>
@@ -8236,7 +8236,7 @@
         <v>108</v>
       </c>
       <c r="Q73" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R73" s="9"/>
     </row>
@@ -8282,7 +8282,7 @@
         <v>108</v>
       </c>
       <c r="Q74" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R74" s="9"/>
     </row>
@@ -8328,7 +8328,7 @@
         <v>108</v>
       </c>
       <c r="Q75" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R75" s="9"/>
     </row>
@@ -8374,7 +8374,7 @@
         <v>108</v>
       </c>
       <c r="Q76" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R76" s="9"/>
     </row>
@@ -8420,7 +8420,7 @@
         <v>108</v>
       </c>
       <c r="Q77" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R77" s="9"/>
     </row>
@@ -8466,7 +8466,7 @@
         <v>108</v>
       </c>
       <c r="Q78" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R78" s="9"/>
     </row>
@@ -8512,7 +8512,7 @@
         <v>108</v>
       </c>
       <c r="Q79" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R79" s="9"/>
     </row>
@@ -8558,7 +8558,7 @@
         <v>108</v>
       </c>
       <c r="Q80" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R80" s="9"/>
     </row>
@@ -8604,7 +8604,7 @@
         <v>108</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R81" s="9"/>
     </row>
@@ -8650,7 +8650,7 @@
         <v>108</v>
       </c>
       <c r="Q82" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R82" s="9"/>
     </row>
@@ -8696,7 +8696,7 @@
         <v>108</v>
       </c>
       <c r="Q83" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R83" s="9"/>
     </row>
@@ -8742,7 +8742,7 @@
         <v>108</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R84" s="9"/>
     </row>
@@ -8788,7 +8788,7 @@
         <v>108</v>
       </c>
       <c r="Q85" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R85" s="9"/>
     </row>
@@ -8834,7 +8834,7 @@
         <v>108</v>
       </c>
       <c r="Q86" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R86" s="9"/>
     </row>
@@ -8880,7 +8880,7 @@
         <v>108</v>
       </c>
       <c r="Q87" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R87" s="9"/>
     </row>
@@ -8926,7 +8926,7 @@
         <v>108</v>
       </c>
       <c r="Q88" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R88" s="9"/>
     </row>
@@ -8972,7 +8972,7 @@
         <v>108</v>
       </c>
       <c r="Q89" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R89" s="9"/>
     </row>
@@ -9018,7 +9018,7 @@
         <v>108</v>
       </c>
       <c r="Q90" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R90" s="9"/>
     </row>
@@ -9064,7 +9064,7 @@
         <v>108</v>
       </c>
       <c r="Q91" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R91" s="9"/>
     </row>
@@ -9110,7 +9110,7 @@
         <v>108</v>
       </c>
       <c r="Q92" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R92" s="9"/>
     </row>
@@ -9156,7 +9156,7 @@
         <v>108</v>
       </c>
       <c r="Q93" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R93" s="9"/>
     </row>
@@ -9202,7 +9202,7 @@
         <v>108</v>
       </c>
       <c r="Q94" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R94" s="9"/>
     </row>
@@ -9248,7 +9248,7 @@
         <v>108</v>
       </c>
       <c r="Q95" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R95" s="9"/>
     </row>
@@ -9294,7 +9294,7 @@
         <v>108</v>
       </c>
       <c r="Q96" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R96" s="9"/>
     </row>
@@ -9340,7 +9340,7 @@
         <v>108</v>
       </c>
       <c r="Q97" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R97" s="9"/>
     </row>
@@ -9386,7 +9386,7 @@
         <v>108</v>
       </c>
       <c r="Q98" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R98" s="9"/>
     </row>
@@ -9432,7 +9432,7 @@
         <v>108</v>
       </c>
       <c r="Q99" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R99" s="9"/>
     </row>
@@ -9478,7 +9478,7 @@
         <v>108</v>
       </c>
       <c r="Q100" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R100" s="9"/>
     </row>
@@ -9524,7 +9524,7 @@
         <v>108</v>
       </c>
       <c r="Q101" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R101" s="9"/>
     </row>
@@ -9570,7 +9570,7 @@
         <v>108</v>
       </c>
       <c r="Q102" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R102" s="9"/>
     </row>
@@ -9616,7 +9616,7 @@
         <v>108</v>
       </c>
       <c r="Q103" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R103" s="9"/>
     </row>
@@ -9662,7 +9662,7 @@
         <v>108</v>
       </c>
       <c r="Q104" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R104" s="9"/>
     </row>
@@ -9708,7 +9708,7 @@
         <v>108</v>
       </c>
       <c r="Q105" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R105" s="9"/>
     </row>
@@ -9754,7 +9754,7 @@
         <v>108</v>
       </c>
       <c r="Q106" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R106" s="9"/>
     </row>
@@ -9800,7 +9800,7 @@
         <v>108</v>
       </c>
       <c r="Q107" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R107" s="9"/>
     </row>
@@ -9846,7 +9846,7 @@
         <v>108</v>
       </c>
       <c r="Q108" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R108" s="9"/>
     </row>
@@ -9892,7 +9892,7 @@
         <v>108</v>
       </c>
       <c r="Q109" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R109" s="9"/>
     </row>
@@ -9938,7 +9938,7 @@
         <v>108</v>
       </c>
       <c r="Q110" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R110" s="9"/>
     </row>
@@ -9984,7 +9984,7 @@
         <v>108</v>
       </c>
       <c r="Q111" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R111" s="9"/>
     </row>
@@ -10030,7 +10030,7 @@
         <v>108</v>
       </c>
       <c r="Q112" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R112" s="9"/>
     </row>
@@ -10076,7 +10076,7 @@
         <v>108</v>
       </c>
       <c r="Q113" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R113" s="9"/>
     </row>
@@ -10122,7 +10122,7 @@
         <v>108</v>
       </c>
       <c r="Q114" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R114" s="9"/>
     </row>
@@ -10168,7 +10168,7 @@
         <v>108</v>
       </c>
       <c r="Q115" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R115" s="9"/>
     </row>
@@ -10214,7 +10214,7 @@
         <v>108</v>
       </c>
       <c r="Q116" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R116" s="9"/>
     </row>
@@ -10260,7 +10260,7 @@
         <v>108</v>
       </c>
       <c r="Q117" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R117" s="9"/>
     </row>
@@ -10306,7 +10306,7 @@
         <v>108</v>
       </c>
       <c r="Q118" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R118" s="9"/>
     </row>
@@ -10352,7 +10352,7 @@
         <v>108</v>
       </c>
       <c r="Q119" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R119" s="9"/>
     </row>
@@ -10398,7 +10398,7 @@
         <v>108</v>
       </c>
       <c r="Q120" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R120" s="9"/>
     </row>
@@ -10444,7 +10444,7 @@
         <v>108</v>
       </c>
       <c r="Q121" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R121" s="9"/>
     </row>
@@ -10490,7 +10490,7 @@
         <v>108</v>
       </c>
       <c r="Q122" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R122" s="9"/>
     </row>
@@ -10536,7 +10536,7 @@
         <v>108</v>
       </c>
       <c r="Q123" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R123" s="9"/>
     </row>
@@ -10582,7 +10582,7 @@
         <v>108</v>
       </c>
       <c r="Q124" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R124" s="9"/>
     </row>
@@ -10628,7 +10628,7 @@
         <v>108</v>
       </c>
       <c r="Q125" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R125" s="9"/>
     </row>
@@ -10674,7 +10674,7 @@
         <v>108</v>
       </c>
       <c r="Q126" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R126" s="9"/>
     </row>
@@ -10720,7 +10720,7 @@
         <v>108</v>
       </c>
       <c r="Q127" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R127" s="9"/>
     </row>
@@ -10766,7 +10766,7 @@
         <v>108</v>
       </c>
       <c r="Q128" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R128" s="9"/>
     </row>
@@ -10812,7 +10812,7 @@
         <v>108</v>
       </c>
       <c r="Q129" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R129" s="9"/>
     </row>
@@ -10858,7 +10858,7 @@
         <v>108</v>
       </c>
       <c r="Q130" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R130" s="9"/>
     </row>
@@ -10904,7 +10904,7 @@
         <v>108</v>
       </c>
       <c r="Q131" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R131" s="9"/>
     </row>
@@ -10950,7 +10950,7 @@
         <v>108</v>
       </c>
       <c r="Q132" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R132" s="9"/>
     </row>
@@ -10996,7 +10996,7 @@
         <v>108</v>
       </c>
       <c r="Q133" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R133" s="9"/>
     </row>
@@ -11042,7 +11042,7 @@
         <v>108</v>
       </c>
       <c r="Q134" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R134" s="9"/>
     </row>
@@ -11088,7 +11088,7 @@
         <v>108</v>
       </c>
       <c r="Q135" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R135" s="9"/>
     </row>
@@ -11134,7 +11134,7 @@
         <v>108</v>
       </c>
       <c r="Q136" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R136" s="9"/>
     </row>
@@ -11180,7 +11180,7 @@
         <v>108</v>
       </c>
       <c r="Q137" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R137" s="9"/>
     </row>
@@ -11226,7 +11226,7 @@
         <v>108</v>
       </c>
       <c r="Q138" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R138" s="9"/>
     </row>
@@ -11272,7 +11272,7 @@
         <v>108</v>
       </c>
       <c r="Q139" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R139" s="9"/>
     </row>
@@ -11318,7 +11318,7 @@
         <v>108</v>
       </c>
       <c r="Q140" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R140" s="9"/>
     </row>
@@ -11364,7 +11364,7 @@
         <v>108</v>
       </c>
       <c r="Q141" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R141" s="9"/>
     </row>
@@ -11410,7 +11410,7 @@
         <v>108</v>
       </c>
       <c r="Q142" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R142" s="9"/>
     </row>
@@ -11456,7 +11456,7 @@
         <v>108</v>
       </c>
       <c r="Q143" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R143" s="9"/>
     </row>
@@ -11502,7 +11502,7 @@
         <v>108</v>
       </c>
       <c r="Q144" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R144" s="9"/>
     </row>
@@ -11548,7 +11548,7 @@
         <v>108</v>
       </c>
       <c r="Q145" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R145" s="9"/>
     </row>
@@ -11594,7 +11594,7 @@
         <v>108</v>
       </c>
       <c r="Q146" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R146" s="9"/>
     </row>
@@ -11640,7 +11640,7 @@
         <v>108</v>
       </c>
       <c r="Q147" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R147" s="9"/>
     </row>
@@ -11686,7 +11686,7 @@
         <v>108</v>
       </c>
       <c r="Q148" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R148" s="9"/>
     </row>
@@ -11732,7 +11732,7 @@
         <v>108</v>
       </c>
       <c r="Q149" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R149" s="9"/>
     </row>
@@ -11778,7 +11778,7 @@
         <v>108</v>
       </c>
       <c r="Q150" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R150" s="9"/>
     </row>
@@ -11824,7 +11824,7 @@
         <v>108</v>
       </c>
       <c r="Q151" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R151" s="9"/>
     </row>
@@ -11870,7 +11870,7 @@
         <v>108</v>
       </c>
       <c r="Q152" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R152" s="9"/>
     </row>
@@ -11916,7 +11916,7 @@
         <v>108</v>
       </c>
       <c r="Q153" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R153" s="9"/>
     </row>
@@ -11962,7 +11962,7 @@
         <v>108</v>
       </c>
       <c r="Q154" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R154" s="9"/>
     </row>
@@ -12008,7 +12008,7 @@
         <v>108</v>
       </c>
       <c r="Q155" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R155" s="9"/>
     </row>
@@ -12054,7 +12054,7 @@
         <v>108</v>
       </c>
       <c r="Q156" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R156" s="9"/>
     </row>
@@ -12100,7 +12100,7 @@
         <v>108</v>
       </c>
       <c r="Q157" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R157" s="9"/>
     </row>
@@ -12146,7 +12146,7 @@
         <v>108</v>
       </c>
       <c r="Q158" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R158" s="9"/>
     </row>
@@ -12192,7 +12192,7 @@
         <v>108</v>
       </c>
       <c r="Q159" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R159" s="9"/>
     </row>
@@ -12238,7 +12238,7 @@
         <v>108</v>
       </c>
       <c r="Q160" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R160" s="9"/>
     </row>
@@ -12284,7 +12284,7 @@
         <v>108</v>
       </c>
       <c r="Q161" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R161" s="9"/>
     </row>
@@ -12330,7 +12330,7 @@
         <v>108</v>
       </c>
       <c r="Q162" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R162" s="9"/>
     </row>
@@ -12376,7 +12376,7 @@
         <v>108</v>
       </c>
       <c r="Q163" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R163" s="32"/>
     </row>
@@ -12422,7 +12422,7 @@
         <v>108</v>
       </c>
       <c r="Q164" s="31" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R164" s="32"/>
     </row>
@@ -12430,10 +12430,10 @@
       <c r="A165" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="7" t="s">
         <v>777</v>
       </c>
       <c r="D165" s="5" t="s">
@@ -12460,7 +12460,7 @@
       <c r="K165" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="L165" s="6"/>
+      <c r="L165" s="7"/>
       <c r="M165" s="5" t="s">
         <v>781</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>108</v>
       </c>
       <c r="Q165" s="14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R165" s="5"/>
     </row>
@@ -12512,7 +12512,7 @@
       <c r="K166" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="L166" s="22"/>
+      <c r="L166" s="24"/>
       <c r="M166" s="9" t="s">
         <v>788</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>108</v>
       </c>
       <c r="Q166" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R166" s="9"/>
     </row>
@@ -12564,7 +12564,7 @@
       <c r="K167" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="L167" s="22" t="s">
+      <c r="L167" s="24" t="s">
         <v>794</v>
       </c>
       <c r="M167" s="9" t="s">
@@ -12580,7 +12580,7 @@
         <v>108</v>
       </c>
       <c r="Q167" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R167" s="9"/>
     </row>
@@ -12618,7 +12618,7 @@
       <c r="K168" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="L168" s="22" t="s">
+      <c r="L168" s="24" t="s">
         <v>794</v>
       </c>
       <c r="M168" s="9" t="s">
@@ -12634,7 +12634,7 @@
         <v>108</v>
       </c>
       <c r="Q168" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R168" s="9"/>
     </row>
@@ -12672,7 +12672,7 @@
       <c r="K169" s="9" t="s">
         <v>807</v>
       </c>
-      <c r="L169" s="22"/>
+      <c r="L169" s="24"/>
       <c r="M169" s="9" t="s">
         <v>808</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>108</v>
       </c>
       <c r="Q169" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R169" s="9"/>
     </row>
@@ -12724,7 +12724,7 @@
       <c r="K170" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="L170" s="22"/>
+      <c r="L170" s="24"/>
       <c r="M170" s="9" t="s">
         <v>815</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>108</v>
       </c>
       <c r="Q170" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R170" s="5"/>
     </row>
@@ -12776,7 +12776,7 @@
       <c r="K171" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="L171" s="22"/>
+      <c r="L171" s="24"/>
       <c r="M171" s="9" t="s">
         <v>822</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>108</v>
       </c>
       <c r="Q171" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R171" s="5"/>
     </row>
@@ -12798,10 +12798,10 @@
       <c r="A172" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="7" t="s">
         <v>825</v>
       </c>
       <c r="D172" s="5" t="s">
@@ -12828,7 +12828,7 @@
       <c r="K172" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="L172" s="6"/>
+      <c r="L172" s="7"/>
       <c r="M172" s="5" t="s">
         <v>827</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>108</v>
       </c>
       <c r="Q172" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R172" s="5"/>
     </row>
@@ -12850,10 +12850,10 @@
       <c r="A173" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="7" t="s">
         <v>830</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -12880,7 +12880,7 @@
       <c r="K173" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="L173" s="6"/>
+      <c r="L173" s="7"/>
       <c r="M173" s="5" t="s">
         <v>833</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>108</v>
       </c>
       <c r="Q173" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R173" s="5"/>
     </row>
@@ -12902,10 +12902,10 @@
       <c r="A174" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D174" s="5" t="s">
@@ -12932,7 +12932,7 @@
       <c r="K174" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="L174" s="6"/>
+      <c r="L174" s="7"/>
       <c r="M174" s="5" t="s">
         <v>838</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>108</v>
       </c>
       <c r="Q174" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R174" s="5"/>
     </row>
@@ -12954,10 +12954,10 @@
       <c r="A175" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="7" t="s">
         <v>841</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -12984,7 +12984,7 @@
       <c r="K175" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="L175" s="6"/>
+      <c r="L175" s="7"/>
       <c r="M175" s="5" t="s">
         <v>843</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>108</v>
       </c>
       <c r="Q175" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R175" s="5"/>
     </row>
@@ -13006,10 +13006,10 @@
       <c r="A176" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="7" t="s">
         <v>846</v>
       </c>
       <c r="D176" s="5" t="s">
@@ -13036,7 +13036,7 @@
       <c r="K176" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="L176" s="6"/>
+      <c r="L176" s="7"/>
       <c r="M176" s="5" t="s">
         <v>849</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>108</v>
       </c>
       <c r="Q176" s="15" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R176" s="5"/>
     </row>
@@ -13135,7 +13135,7 @@
         <v>860</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M178" s="9" t="s">
         <v>861</v>
@@ -13189,7 +13189,7 @@
         <v>866</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M179" s="9" t="s">
         <v>867</v>
@@ -13243,7 +13243,7 @@
         <v>872</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M180" s="9" t="s">
         <v>873</v>
@@ -13297,7 +13297,7 @@
         <v>878</v>
       </c>
       <c r="L181" s="34" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M181" s="9" t="s">
         <v>879</v>
@@ -13312,7 +13312,7 @@
         <v>108</v>
       </c>
       <c r="Q181" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R181" s="9"/>
     </row>
@@ -13358,7 +13358,7 @@
         <v>108</v>
       </c>
       <c r="Q182" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R182" s="9"/>
     </row>
@@ -13404,7 +13404,7 @@
         <v>108</v>
       </c>
       <c r="Q183" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R183" s="9"/>
     </row>
@@ -13450,7 +13450,7 @@
         <v>108</v>
       </c>
       <c r="Q184" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R184" s="9"/>
     </row>
@@ -13496,7 +13496,7 @@
         <v>108</v>
       </c>
       <c r="Q185" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R185" s="9"/>
     </row>
@@ -13542,7 +13542,7 @@
         <v>108</v>
       </c>
       <c r="Q186" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R186" s="9"/>
     </row>
@@ -13588,7 +13588,7 @@
         <v>108</v>
       </c>
       <c r="Q187" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R187" s="9"/>
     </row>
@@ -13636,7 +13636,7 @@
         <v>108</v>
       </c>
       <c r="Q188" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R188" s="9"/>
     </row>
@@ -13684,7 +13684,7 @@
         <v>108</v>
       </c>
       <c r="Q189" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R189" s="9"/>
     </row>
@@ -13732,7 +13732,7 @@
         <v>108</v>
       </c>
       <c r="Q190" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R190" s="9"/>
     </row>
@@ -13780,7 +13780,7 @@
         <v>108</v>
       </c>
       <c r="Q191" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R191" s="9"/>
     </row>
@@ -13828,7 +13828,7 @@
         <v>108</v>
       </c>
       <c r="Q192" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R192" s="9"/>
     </row>
@@ -13876,7 +13876,7 @@
         <v>108</v>
       </c>
       <c r="Q193" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R193" s="9"/>
     </row>
@@ -13924,7 +13924,7 @@
         <v>108</v>
       </c>
       <c r="Q194" s="45" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="R194" s="9"/>
     </row>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -357,7 +357,7 @@
     <t>88</t>
   </si>
   <si>
-    <t>images/product/cocktail/Tellyou_a_secre.png</t>
+    <t>images/product/cocktail/Tell_you_a_secre.png</t>
   </si>
   <si>
     <t>Sweet+Strong</t>
@@ -3976,7 +3976,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4598,8 +4598,8 @@
   <sheetPr/>
   <dimension ref="A1:R194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -666,6 +666,93 @@
     <t>19</t>
   </si>
   <si>
+    <t>Strawberry Mojito</t>
+  </si>
+  <si>
+    <t>草莓莫吉托</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>78/杯</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Strawberry_mojito.png</t>
+  </si>
+  <si>
+    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
+  </si>
+  <si>
+    <t>朗姆/青柠汁/莫林草莓糖浆</t>
+  </si>
+  <si>
+    <t>Espresso martini</t>
+  </si>
+  <si>
+    <t>咖啡马提尼</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Espresso_martini.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
+  </si>
+  <si>
+    <t>Pinky Point</t>
+  </si>
+  <si>
+    <t>粉点</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Pinky_point.png</t>
+  </si>
+  <si>
+    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
+  </si>
+  <si>
+    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
+  </si>
+  <si>
+    <t>Three Passions</t>
+  </si>
+  <si>
+    <t>激情</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Three_passions.png</t>
+  </si>
+  <si>
+    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
+  </si>
+  <si>
+    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
+  </si>
+  <si>
+    <t>Hightball</t>
+  </si>
+  <si>
+    <t>威士忌苏打</t>
+  </si>
+  <si>
+    <t>images/product/cocktail/Hightball.png</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Suntory kaku/Soda</t>
+  </si>
+  <si>
+    <t>三得利卡库/苏打水</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>Martini</t>
   </si>
   <si>
@@ -699,24 +786,24 @@
     <t>金酒/味美思/金巴利</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>Gin&amp;Tonic</t>
   </si>
   <si>
     <t>金汤力</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>78/杯</t>
-  </si>
-  <si>
     <t>Gin/Tonic water</t>
   </si>
   <si>
     <t>金酒/汤力水</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>Singapore sling</t>
   </si>
   <si>
@@ -729,6 +816,9 @@
     <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>Gimlet</t>
   </si>
   <si>
@@ -741,7 +831,7 @@
     <t>金酒/青柠汁</t>
   </si>
   <si>
-    <t>24</t>
+    <t>29</t>
   </si>
   <si>
     <t>Vesper</t>
@@ -750,9 +840,6 @@
     <t>薄暮</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
     <t>Gin/Vodka/Lillrt blanc</t>
   </si>
   <si>
@@ -771,9 +858,6 @@
     <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Mojito</t>
   </si>
   <si>
@@ -792,7 +876,7 @@
     <t>朗姆酒/青柠汁/苏打水</t>
   </si>
   <si>
-    <t>27</t>
+    <t>32</t>
   </si>
   <si>
     <t>Daiquiri</t>
@@ -807,7 +891,7 @@
     <t>朗姆酒/青柠汁</t>
   </si>
   <si>
-    <t>28</t>
+    <t>33</t>
   </si>
   <si>
     <t>Zombie</t>
@@ -831,7 +915,7 @@
     <t>50</t>
   </si>
   <si>
-    <t>29</t>
+    <t>34</t>
   </si>
   <si>
     <t>Old fashioned</t>
@@ -858,6 +942,9 @@
     <t>美格威士忌/柠檬汁/安歌苦酒</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>God father</t>
   </si>
   <si>
@@ -870,7 +957,7 @@
     <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
   </si>
   <si>
-    <t>32</t>
+    <t>37</t>
   </si>
   <si>
     <t>Cosmopolitan</t>
@@ -885,7 +972,7 @@
     <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
   </si>
   <si>
-    <t>33</t>
+    <t>38</t>
   </si>
   <si>
     <t>Long island ice tea</t>
@@ -900,7 +987,7 @@
     <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
   </si>
   <si>
-    <t>34</t>
+    <t>39</t>
   </si>
   <si>
     <t>Moscow mule</t>
@@ -930,7 +1017,7 @@
     <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
   </si>
   <si>
-    <t>36</t>
+    <t>41</t>
   </si>
   <si>
     <t>Jack rose</t>
@@ -945,7 +1032,7 @@
     <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
   </si>
   <si>
-    <t>37</t>
+    <t>42</t>
   </si>
   <si>
     <t>Side car</t>
@@ -958,93 +1045,6 @@
   </si>
   <si>
     <t>白兰地/君度/柠檬汁</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Strawberry Mojito</t>
-  </si>
-  <si>
-    <t>草莓莫吉托</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Strawberry_mojito.png</t>
-  </si>
-  <si>
-    <t>Bacardi Rum/Lime juice/Monin strawberry syrup</t>
-  </si>
-  <si>
-    <t>朗姆/青柠汁/莫林草莓糖浆</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Espresso martini</t>
-  </si>
-  <si>
-    <t>咖啡马提尼</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Espresso_martini.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Kahlua/Monin raspberry/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/卡鲁阿咖啡利口酒/莫林覆盆子/柠檬汁</t>
-  </si>
-  <si>
-    <t>Pinky Point</t>
-  </si>
-  <si>
-    <t>粉点</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Pinky_point.png</t>
-  </si>
-  <si>
-    <t>Vodka/Espresso/Prucia/Cranberry Juice/Monin peach blossom syrup</t>
-  </si>
-  <si>
-    <t>伏特加/意式浓缩/芙乐夏/蔓越莓汁/莫宁桃花糖浆</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Three Passions</t>
-  </si>
-  <si>
-    <t>激情</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Three_passions.png</t>
-  </si>
-  <si>
-    <t>Tequila/Passion fruit syrup/Lemon juice/Jasmine tea/Orange juice/Kumquat</t>
-  </si>
-  <si>
-    <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Hightball</t>
-  </si>
-  <si>
-    <t>威士忌苏打</t>
-  </si>
-  <si>
-    <t>images/product/cocktail/Hightball.png</t>
-  </si>
-  <si>
-    <t>Suntory kaku/Soda</t>
-  </si>
-  <si>
-    <t>三得利卡库/苏打水</t>
   </si>
   <si>
     <t>43</t>
@@ -4102,7 +4102,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D20" sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4724,8 +4724,8 @@
   <sheetPr/>
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5768,275 +5768,285 @@
       </c>
       <c r="R19" s="24"/>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="20" customFormat="1" customHeight="1" spans="1:18">
       <c r="A20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>217</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>218</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="24" t="s">
+      <c r="H20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="L20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q20" s="15" t="s">
+      <c r="N20" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="17" t="s">
         <v>151</v>
       </c>
       <c r="R20" s="24"/>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="21" customFormat="1" customHeight="1" spans="1:18">
       <c r="A21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>223</v>
       </c>
+      <c r="C21" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="L21" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q21" s="15" t="b">
-        <v>1</v>
+      <c r="N21" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="R21" s="24"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="22" customFormat="1" customHeight="1" spans="1:18">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>228</v>
       </c>
+      <c r="C22" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="D22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>229</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G22" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="H22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" s="24" t="s">
+      <c r="L22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="15" t="b">
-        <v>1</v>
+      <c r="O22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="R22" s="24"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="23" customFormat="1" customHeight="1" spans="1:18">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="L23" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="O23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q23" s="15" t="b">
-        <v>1</v>
+      <c r="N23" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="R23" s="24"/>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="24" customFormat="1" customHeight="1" spans="1:18">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>238</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>229</v>
+      <c r="E24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="N24" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q24" s="15" t="b">
-        <v>1</v>
+      <c r="L24" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="R24" s="24"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A25" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>20</v>
@@ -6045,10 +6055,10 @@
         <v>100</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="H25" s="15" t="b">
         <v>0</v>
@@ -6061,19 +6071,19 @@
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="8" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P25" s="9">
-        <v>35</v>
+      <c r="P25" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="Q25" s="15" t="s">
         <v>151</v>
@@ -6085,10 +6095,10 @@
         <v>109</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
@@ -6097,10 +6107,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="H26" s="15" t="b">
         <v>0</v>
@@ -6113,19 +6123,19 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="15" t="b">
         <v>1</v>
@@ -6134,13 +6144,13 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>20</v>
@@ -6149,10 +6159,10 @@
         <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H27" s="15" t="b">
         <v>0</v>
@@ -6165,13 +6175,13 @@
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>108</v>
@@ -6186,13 +6196,13 @@
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>20</v>
@@ -6201,10 +6211,10 @@
         <v>100</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="H28" s="15" t="b">
         <v>0</v>
@@ -6220,10 +6230,10 @@
         <v>121</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>108</v>
@@ -6238,13 +6248,13 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A29" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>20</v>
@@ -6253,10 +6263,10 @@
         <v>100</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="H29" s="15" t="b">
         <v>0</v>
@@ -6272,16 +6282,16 @@
         <v>177</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="15" t="b">
         <v>1</v>
@@ -6321,7 +6331,7 @@
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="8" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>274</v>
@@ -6332,11 +6342,11 @@
       <c r="O30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P30" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q30" s="15" t="b">
-        <v>1</v>
+      <c r="P30" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="R30" s="24"/>
     </row>
@@ -6357,10 +6367,10 @@
         <v>100</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
@@ -6373,7 +6383,7 @@
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="8" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="M31" s="24" t="s">
         <v>278</v>
@@ -6409,10 +6419,10 @@
         <v>100</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
@@ -6425,19 +6435,19 @@
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -6446,13 +6456,13 @@
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A33" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>20</v>
@@ -6480,31 +6490,31 @@
         <v>121</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="Q33" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R33" s="24"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A34" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
@@ -6513,10 +6523,10 @@
         <v>100</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="H34" s="15" t="b">
         <v>0</v>
@@ -6529,19 +6539,19 @@
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -6550,13 +6560,13 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A35" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
@@ -6565,10 +6575,10 @@
         <v>100</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="H35" s="15" t="b">
         <v>0</v>
@@ -6581,19 +6591,19 @@
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="8" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="M35" s="24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="15" t="b">
         <v>1</v>
@@ -6605,10 +6615,10 @@
         <v>124</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>20</v>
@@ -6633,19 +6643,19 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="8" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O36" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="15" t="b">
         <v>1</v>
@@ -6654,13 +6664,13 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>20</v>
@@ -6669,7 +6679,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>102</v>
@@ -6685,13 +6695,13 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="M37" s="24" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>108</v>
@@ -6699,20 +6709,20 @@
       <c r="P37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Q37" s="15" t="s">
-        <v>151</v>
+      <c r="Q37" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R37" s="24"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>20</v>
@@ -6721,10 +6731,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="H38" s="15" t="b">
         <v>0</v>
@@ -6740,288 +6750,278 @@
         <v>121</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="Q38" s="15" t="s">
         <v>151</v>
       </c>
       <c r="R38" s="24"/>
     </row>
-    <row r="39" customFormat="1" customHeight="1" spans="1:18">
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A39" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>229</v>
+      <c r="E39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H39" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="L39" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M39" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>151</v>
+      <c r="M39" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q39" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R39" s="24"/>
     </row>
-    <row r="40" customFormat="1" customHeight="1" spans="1:18">
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A40" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>229</v>
+      <c r="E40" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H40" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>151</v>
+        <v>248</v>
+      </c>
+      <c r="H40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="N40" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R40" s="24"/>
     </row>
-    <row r="41" customFormat="1" customHeight="1" spans="1:18">
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A41" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>327</v>
+      <c r="B41" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>229</v>
+      <c r="E41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H41" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="M41" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>151</v>
+        <v>102</v>
+      </c>
+      <c r="H41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="N41" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q41" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R41" s="24"/>
     </row>
-    <row r="42" customFormat="1" customHeight="1" spans="1:18">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C42" s="10" t="s">
         <v>333</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>335</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>229</v>
+      <c r="E42" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M42" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="N42" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="O42" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q42" s="17" t="s">
+      <c r="N42" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q42" s="15" t="s">
         <v>151</v>
       </c>
       <c r="R42" s="24"/>
     </row>
-    <row r="43" customFormat="1" customHeight="1" spans="1:18">
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A43" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B43" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>339</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>229</v>
+      <c r="E43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M43" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M43" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="N43" s="27" t="s">
+      <c r="N43" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="O43" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q43" s="17" t="s">
+      <c r="O43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q43" s="15" t="s">
         <v>151</v>
       </c>
       <c r="R43" s="24"/>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>370</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>446</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="79" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A79" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>474</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A81" s="5" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>481</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>519</v>
@@ -13697,7 +13697,7 @@
         <v>100</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>895</v>
@@ -13749,7 +13749,7 @@
         <v>100</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>902</v>
@@ -13905,7 +13905,7 @@
         <v>100</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>922</v>
@@ -13957,7 +13957,7 @@
         <v>100</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>895</v>
@@ -14009,7 +14009,7 @@
         <v>100</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>895</v>
@@ -14061,7 +14061,7 @@
         <v>100</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>941</v>
@@ -14113,7 +14113,7 @@
         <v>100</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>922</v>
@@ -14161,7 +14161,7 @@
         <v>100</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>922</v>
@@ -14209,7 +14209,7 @@
         <v>100</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>922</v>
@@ -14257,7 +14257,7 @@
         <v>100</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>922</v>
@@ -14305,7 +14305,7 @@
         <v>100</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>922</v>
@@ -14353,7 +14353,7 @@
         <v>100</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>922</v>
@@ -14401,7 +14401,7 @@
         <v>100</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>922</v>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -348,7 +348,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secre</t>
+    <t>Tell you a secret</t>
   </si>
   <si>
     <t>告诉你个秘密</t>
@@ -732,6 +732,306 @@
     <t>龙舌兰酒/百香果糖浆/柠檬汁/茉莉花茶/橙汁/金桔</t>
   </si>
   <si>
+    <t>Martini</t>
+  </si>
+  <si>
+    <t>马提尼</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>80/杯</t>
+  </si>
+  <si>
+    <t>Gin/Dolin dry</t>
+  </si>
+  <si>
+    <t>金酒/杜林干</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Negroni</t>
+  </si>
+  <si>
+    <t>尼格罗尼</t>
+  </si>
+  <si>
+    <t>Sweet+Bitter+Spicy</t>
+  </si>
+  <si>
+    <t>Gin/Vermoth/Campari</t>
+  </si>
+  <si>
+    <t>金酒/味美思/金巴利</t>
+  </si>
+  <si>
+    <t>Gin&amp;Tonic</t>
+  </si>
+  <si>
+    <t>金汤力</t>
+  </si>
+  <si>
+    <t>Gin/Tonic water</t>
+  </si>
+  <si>
+    <t>金酒/汤力水</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Singapore sling</t>
+  </si>
+  <si>
+    <t>新加坡司令</t>
+  </si>
+  <si>
+    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
+  </si>
+  <si>
+    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Gimlet</t>
+  </si>
+  <si>
+    <t>琴姆勒</t>
+  </si>
+  <si>
+    <t>Gin/Lime juice</t>
+  </si>
+  <si>
+    <t>金酒/青柠汁</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Vesper</t>
+  </si>
+  <si>
+    <t>薄暮</t>
+  </si>
+  <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>Gin/Vodka/Lillrt blanc</t>
+  </si>
+  <si>
+    <t>金酒/伏特加/利莱白</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Clover club</t>
+  </si>
+  <si>
+    <t>三叶草俱乐部</t>
+  </si>
+  <si>
+    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
+  </si>
+  <si>
+    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
+  </si>
+  <si>
+    <t>Mojito</t>
+  </si>
+  <si>
+    <t>莫吉托</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>70/杯</t>
+  </si>
+  <si>
+    <t>Rum/Lime juice/Soda</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁/苏打水</t>
+  </si>
+  <si>
+    <t>Daiquiri</t>
+  </si>
+  <si>
+    <t>戴其力</t>
+  </si>
+  <si>
+    <t>Rum/Limejuice</t>
+  </si>
+  <si>
+    <t>朗姆酒/青柠汁</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>90/杯</t>
+  </si>
+  <si>
+    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
+  </si>
+  <si>
+    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Old fashioned</t>
+  </si>
+  <si>
+    <t>古典</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Whiskey sour</t>
+  </si>
+  <si>
+    <t>威士忌酸</t>
+  </si>
+  <si>
+    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
+  </si>
+  <si>
+    <t>美格威士忌/柠檬汁/安歌苦酒</t>
+  </si>
+  <si>
+    <t>God father</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
+  </si>
+  <si>
+    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Cosmopolitan</t>
+  </si>
+  <si>
+    <t>大都会</t>
+  </si>
+  <si>
+    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
+  </si>
+  <si>
+    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Long island ice tea</t>
+  </si>
+  <si>
+    <t>长岛冰茶</t>
+  </si>
+  <si>
+    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
+  </si>
+  <si>
+    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Moscow mule</t>
+  </si>
+  <si>
+    <t>莫斯科骡子</t>
+  </si>
+  <si>
+    <t>Sweet+Sour+Spicy</t>
+  </si>
+  <si>
+    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
+  </si>
+  <si>
+    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Rosite</t>
+  </si>
+  <si>
+    <t>萝西塔</t>
+  </si>
+  <si>
+    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
+  </si>
+  <si>
+    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
+  </si>
+  <si>
+    <t>Jack rose</t>
+  </si>
+  <si>
+    <t>杰克玫瑰</t>
+  </si>
+  <si>
+    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
+  </si>
+  <si>
+    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Side car</t>
+  </si>
+  <si>
+    <t>边车</t>
+  </si>
+  <si>
+    <t>Brandy/Cointreau/lemon juice</t>
+  </si>
+  <si>
+    <t>白兰地/君度/柠檬汁</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>Hightball</t>
   </si>
   <si>
@@ -741,310 +1041,10 @@
     <t>images/product/cocktail/Hightball.png</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
     <t>Suntory kaku/Soda</t>
   </si>
   <si>
     <t>三得利卡库/苏打水</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Martini</t>
-  </si>
-  <si>
-    <t>马提尼</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>80/杯</t>
-  </si>
-  <si>
-    <t>Gin/Dolin dry</t>
-  </si>
-  <si>
-    <t>金酒/杜林干</t>
-  </si>
-  <si>
-    <t>Negroni</t>
-  </si>
-  <si>
-    <t>尼格罗尼</t>
-  </si>
-  <si>
-    <t>Sweet+Bitter+Spicy</t>
-  </si>
-  <si>
-    <t>Gin/Vermoth/Campari</t>
-  </si>
-  <si>
-    <t>金酒/味美思/金巴利</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Gin&amp;Tonic</t>
-  </si>
-  <si>
-    <t>金汤力</t>
-  </si>
-  <si>
-    <t>Gin/Tonic water</t>
-  </si>
-  <si>
-    <t>金酒/汤力水</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Singapore sling</t>
-  </si>
-  <si>
-    <t>新加坡司令</t>
-  </si>
-  <si>
-    <t>Gin/Cointreau/Gienadine syrup /Cherry liqueur/D.O.M /Pineapple juice/Angoutura bitter/Lemon juice</t>
-  </si>
-  <si>
-    <t>金酒/君度/樱桃利口酒/当酒/凤梨汁/安歌苦酒/柠檬汁</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Gimlet</t>
-  </si>
-  <si>
-    <t>琴姆勒</t>
-  </si>
-  <si>
-    <t>Gin/Lime juice</t>
-  </si>
-  <si>
-    <t>金酒/青柠汁</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Vesper</t>
-  </si>
-  <si>
-    <t>薄暮</t>
-  </si>
-  <si>
-    <t>Gin/Vodka/Lillrt blanc</t>
-  </si>
-  <si>
-    <t>金酒/伏特加/利莱白</t>
-  </si>
-  <si>
-    <t>Clover club</t>
-  </si>
-  <si>
-    <t>三叶草俱乐部</t>
-  </si>
-  <si>
-    <t>Gin/Lemon juice/Raspberry Syrup/Vermouth/Egg white</t>
-  </si>
-  <si>
-    <t>金酒/柠檬汁/覆盆子糖浆/味美思/蛋清</t>
-  </si>
-  <si>
-    <t>Mojito</t>
-  </si>
-  <si>
-    <t>莫吉托</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>70/杯</t>
-  </si>
-  <si>
-    <t>Rum/Lime juice/Soda</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁/苏打水</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Daiquiri</t>
-  </si>
-  <si>
-    <t>戴其力</t>
-  </si>
-  <si>
-    <t>Rum/Limejuice</t>
-  </si>
-  <si>
-    <t>朗姆酒/青柠汁</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>90/杯</t>
-  </si>
-  <si>
-    <t>Bacardi blanca/Bacardi gold/Cubita151/Lemon juice/Pineapple juice/Angostura bitter</t>
-  </si>
-  <si>
-    <t>百加得白朗姆/百加得金朗姆/古贝塔151/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Old fashioned</t>
-  </si>
-  <si>
-    <t>古典</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/Rittenhouse rye /Angostura bitters/Orange bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/瑞顿房黑麦威士忌/安歌苦酒/橙味苦酒</t>
-  </si>
-  <si>
-    <t>Whiskey sour</t>
-  </si>
-  <si>
-    <t>威士忌酸</t>
-  </si>
-  <si>
-    <t>Maker’s mark  Whiskey/lemon juice/Angostura bitters</t>
-  </si>
-  <si>
-    <t>美格威士忌/柠檬汁/安歌苦酒</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>God father</t>
-  </si>
-  <si>
-    <t>教父</t>
-  </si>
-  <si>
-    <t>Talisker 10Y/Johnnie walker/Disaronno</t>
-  </si>
-  <si>
-    <t>泰斯卡10年/黑方/帝萨诺利口酒</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Cosmopolitan</t>
-  </si>
-  <si>
-    <t>大都会</t>
-  </si>
-  <si>
-    <t>Vodka/Cointreau/Cranberry juice/Lemon juice</t>
-  </si>
-  <si>
-    <t>伏特加/君度/蔓越莓汁/柠檬汁</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Long island ice tea</t>
-  </si>
-  <si>
-    <t>长岛冰茶</t>
-  </si>
-  <si>
-    <t>Vodka/White Rum/Gin/Tequila/Cointreau/Lemon juice/Cola</t>
-  </si>
-  <si>
-    <t>伏特加/白朗姆/龙舌兰/君度/柠檬汁/可乐</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Moscow mule</t>
-  </si>
-  <si>
-    <t>莫斯科骡子</t>
-  </si>
-  <si>
-    <t>Sweet+Sour+Spicy</t>
-  </si>
-  <si>
-    <t>Stolichnaya Vodka/Fresh ginger juice/Lime juice/Ginger ale</t>
-  </si>
-  <si>
-    <t>红牌伏特加/新鲜姜汁/青柠汁/姜啤</t>
-  </si>
-  <si>
-    <t>Rosite</t>
-  </si>
-  <si>
-    <t>萝西塔</t>
-  </si>
-  <si>
-    <t>Olmeca silver Tequila/Dolin sweet vermouth/Dolin dry vermouth/Campari/Angostura bitters</t>
-  </si>
-  <si>
-    <t>奥美加银龙舌兰/杜林甜味美思/杜林干味美思/金巴利/安歌苦酒</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Jack rose</t>
-  </si>
-  <si>
-    <t>杰克玫瑰</t>
-  </si>
-  <si>
-    <t>Calvados/Lemon juice/Molin grenadine syrup/Angostura bitters</t>
-  </si>
-  <si>
-    <t>卡尔瓦多斯白兰地/柠檬汁/红石榴糖浆/安歌苦酒</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Side car</t>
-  </si>
-  <si>
-    <t>边车</t>
-  </si>
-  <si>
-    <t>Brandy/Cointreau/lemon juice</t>
-  </si>
-  <si>
-    <t>白兰地/君度/柠檬汁</t>
   </si>
   <si>
     <t>43</t>
@@ -4101,8 +4101,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4553571428571" defaultRowHeight="20" customHeight="1"/>
@@ -4724,8 +4724,8 @@
   <sheetPr/>
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G211" sqref="G211"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5984,56 +5984,54 @@
       </c>
       <c r="R23" s="24"/>
     </row>
-    <row r="24" customFormat="1" customHeight="1" spans="1:18">
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>218</v>
+      <c r="E24" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H24" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="L24" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="H24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="17" t="s">
+      <c r="O24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q24" s="15" t="s">
         <v>151</v>
       </c>
       <c r="R24" s="24"/>
@@ -6055,10 +6053,10 @@
         <v>100</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="H25" s="15" t="b">
         <v>0</v>
@@ -6071,22 +6069,22 @@
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="8" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="M25" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="N25" s="25" t="s">
-        <v>250</v>
-      </c>
       <c r="O25" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>151</v>
+        <v>209</v>
+      </c>
+      <c r="Q25" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R25" s="24"/>
     </row>
@@ -6095,10 +6093,10 @@
         <v>109</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>20</v>
@@ -6107,10 +6105,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="H26" s="15" t="b">
         <v>0</v>
@@ -6123,19 +6121,19 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="N26" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="M26" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>255</v>
-      </c>
       <c r="O26" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="Q26" s="15" t="b">
         <v>1</v>
@@ -6144,13 +6142,13 @@
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A27" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>20</v>
@@ -6159,10 +6157,10 @@
         <v>100</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="H27" s="15" t="b">
         <v>0</v>
@@ -6175,19 +6173,19 @@
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="8" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="Q27" s="15" t="b">
         <v>1</v>
@@ -6196,13 +6194,13 @@
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A28" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>20</v>
@@ -6211,10 +6209,10 @@
         <v>100</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="H28" s="15" t="b">
         <v>0</v>
@@ -6227,13 +6225,13 @@
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N28" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>108</v>
@@ -6248,13 +6246,13 @@
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>20</v>
@@ -6263,10 +6261,10 @@
         <v>100</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="H29" s="15" t="b">
         <v>0</v>
@@ -6279,34 +6277,34 @@
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="8" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="M29" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="N29" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="N29" s="25" t="s">
-        <v>270</v>
-      </c>
       <c r="O29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q29" s="15" t="b">
-        <v>1</v>
+      <c r="P29" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="R29" s="24"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>20</v>
@@ -6315,10 +6313,10 @@
         <v>100</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="H30" s="15" t="b">
         <v>0</v>
@@ -6331,22 +6329,22 @@
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="8" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="M30" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="N30" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="N30" s="25" t="s">
-        <v>275</v>
-      </c>
       <c r="O30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P30" s="9">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="15" t="s">
-        <v>151</v>
+      <c r="P30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R30" s="24"/>
     </row>
@@ -6355,10 +6353,10 @@
         <v>209</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>20</v>
@@ -6367,10 +6365,10 @@
         <v>100</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="H31" s="15" t="b">
         <v>0</v>
@@ -6386,16 +6384,16 @@
         <v>121</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="15" t="b">
         <v>1</v>
@@ -6407,10 +6405,10 @@
         <v>76</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>20</v>
@@ -6419,10 +6417,10 @@
         <v>100</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>282</v>
+        <v>218</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="H32" s="15" t="b">
         <v>0</v>
@@ -6438,16 +6436,16 @@
         <v>121</v>
       </c>
       <c r="M32" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="N32" s="25" t="s">
-        <v>285</v>
-      </c>
       <c r="O32" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="Q32" s="15" t="b">
         <v>1</v>
@@ -6456,13 +6454,13 @@
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A33" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>20</v>
@@ -6471,10 +6469,10 @@
         <v>100</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="H33" s="15" t="b">
         <v>0</v>
@@ -6487,19 +6485,19 @@
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="8" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="Q33" s="15" t="b">
         <v>1</v>
@@ -6508,13 +6506,13 @@
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A34" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
@@ -6523,10 +6521,10 @@
         <v>100</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="H34" s="15" t="b">
         <v>0</v>
@@ -6539,7 +6537,7 @@
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="8" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="M34" s="24" t="s">
         <v>296</v>
@@ -6551,7 +6549,7 @@
         <v>108</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="15" t="b">
         <v>1</v>
@@ -6560,13 +6558,13 @@
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A35" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
@@ -6591,19 +6589,19 @@
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="8" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="M35" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="N35" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="N35" s="25" t="s">
-        <v>303</v>
-      </c>
       <c r="O35" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="15" t="b">
         <v>1</v>
@@ -6615,10 +6613,10 @@
         <v>124</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>20</v>
@@ -6643,19 +6641,19 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="8" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="M36" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>307</v>
-      </c>
       <c r="O36" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="15" t="b">
         <v>1</v>
@@ -6664,13 +6662,13 @@
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A37" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>20</v>
@@ -6679,10 +6677,10 @@
         <v>100</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="H37" s="15" t="b">
         <v>0</v>
@@ -6695,34 +6693,34 @@
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M37" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N37" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="N37" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="O37" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q37" s="15" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="R37" s="24"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A38" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>20</v>
@@ -6731,10 +6729,10 @@
         <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="H38" s="15" t="b">
         <v>0</v>
@@ -6750,31 +6748,31 @@
         <v>121</v>
       </c>
       <c r="M38" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="N38" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="N38" s="25" t="s">
-        <v>317</v>
-      </c>
       <c r="O38" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q38" s="15" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="Q38" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="R38" s="24"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A39" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>20</v>
@@ -6783,10 +6781,10 @@
         <v>100</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="H39" s="15" t="b">
         <v>0</v>
@@ -6799,7 +6797,7 @@
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="8" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="M39" s="24" t="s">
         <v>321</v>
@@ -6811,7 +6809,7 @@
         <v>108</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="15" t="b">
         <v>1</v>
@@ -6835,10 +6833,10 @@
         <v>100</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="H40" s="15" t="b">
         <v>0</v>
@@ -6851,19 +6849,19 @@
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M40" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="N40" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="N40" s="25" t="s">
-        <v>328</v>
-      </c>
       <c r="O40" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="Q40" s="15" t="b">
         <v>1</v>
@@ -6875,10 +6873,10 @@
         <v>196</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>20</v>
@@ -6887,7 +6885,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>102</v>
@@ -6903,34 +6901,34 @@
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="M41" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="N41" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="N41" s="25" t="s">
-        <v>332</v>
-      </c>
       <c r="O41" s="9" t="s">
         <v>108</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q41" s="15" t="b">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="R41" s="24"/>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A42" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>20</v>
@@ -6939,10 +6937,10 @@
         <v>100</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>101</v>
+        <v>288</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="H42" s="15" t="b">
         <v>0</v>
@@ -6958,70 +6956,72 @@
         <v>121</v>
       </c>
       <c r="M42" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N42" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="O42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R42" s="24"/>
+    </row>
+    <row r="43" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A43" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="O42" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="R42" s="24"/>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>294</v>
+      <c r="E43" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="H43" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M43" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="M43" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="O43" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q43" s="15" t="s">
+      <c r="O43" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43" s="17" t="s">
         <v>151</v>
       </c>
       <c r="R43" s="24"/>
@@ -7350,7 +7350,7 @@
     </row>
     <row r="51" customFormat="1" customHeight="1" spans="1:18">
       <c r="A51" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>370</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A71" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>446</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A81" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>481</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A91" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>519</v>
@@ -13697,7 +13697,7 @@
         <v>100</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>895</v>
@@ -13749,7 +13749,7 @@
         <v>100</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>902</v>
@@ -13905,7 +13905,7 @@
         <v>100</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>922</v>
@@ -13957,7 +13957,7 @@
         <v>100</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>895</v>
@@ -14009,7 +14009,7 @@
         <v>100</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>895</v>
@@ -14061,7 +14061,7 @@
         <v>100</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>941</v>
@@ -14113,7 +14113,7 @@
         <v>100</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>922</v>
@@ -14161,7 +14161,7 @@
         <v>100</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>922</v>
@@ -14209,7 +14209,7 @@
         <v>100</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>922</v>
@@ -14257,7 +14257,7 @@
         <v>100</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>922</v>
@@ -14305,7 +14305,7 @@
         <v>100</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>922</v>
@@ -14353,7 +14353,7 @@
         <v>100</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>922</v>
@@ -14401,7 +14401,7 @@
         <v>100</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>922</v>

--- a/data/menu_bar_time.xlsx
+++ b/data/menu_bar_time.xlsx
@@ -348,10 +348,10 @@
     <t>25</t>
   </si>
   <si>
-    <t>Tell you a secret</t>
-  </si>
-  <si>
-    <t>告诉你个秘密</t>
+    <t>Soulmate</t>
+  </si>
+  <si>
+    <t>灵魂伴侣</t>
   </si>
   <si>
     <t>88</t>
@@ -4724,8 +4724,8 @@
   <sheetPr/>
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
